--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16082</v>
+        <v>16203</v>
       </c>
       <c r="D2" t="n">
-        <v>6679</v>
+        <v>6695</v>
       </c>
       <c r="E2" t="n">
-        <v>25685388</v>
+        <v>25971735</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31077</v>
+        <v>31260</v>
       </c>
       <c r="D4" t="n">
-        <v>10934</v>
+        <v>10955</v>
       </c>
       <c r="E4" t="n">
-        <v>48020977</v>
+        <v>48462695</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1605</v>
+        <v>1612</v>
       </c>
       <c r="D6" t="n">
         <v>553</v>
       </c>
       <c r="E6" t="n">
-        <v>2258321</v>
+        <v>2268821</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73607</v>
+        <v>73885</v>
       </c>
       <c r="D7" t="n">
-        <v>31142</v>
+        <v>31175</v>
       </c>
       <c r="E7" t="n">
-        <v>112663843</v>
+        <v>113249321</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120409</v>
+        <v>121279</v>
       </c>
       <c r="D8" t="n">
-        <v>38248</v>
+        <v>38343</v>
       </c>
       <c r="E8" t="n">
-        <v>256462021</v>
+        <v>260100912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44582</v>
+        <v>44731</v>
       </c>
       <c r="D9" t="n">
-        <v>9589</v>
+        <v>9600</v>
       </c>
       <c r="E9" t="n">
-        <v>87057131</v>
+        <v>87598620</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>133560</v>
+        <v>134510</v>
       </c>
       <c r="D10" t="n">
-        <v>27925</v>
+        <v>27965</v>
       </c>
       <c r="E10" t="n">
-        <v>476719587</v>
+        <v>482649957</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15360</v>
+        <v>15437</v>
       </c>
       <c r="D11" t="n">
-        <v>4509</v>
+        <v>4520</v>
       </c>
       <c r="E11" t="n">
-        <v>26762380</v>
+        <v>26987449</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5852</v>
+        <v>5894</v>
       </c>
       <c r="D12" t="n">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="E12" t="n">
-        <v>9647527</v>
+        <v>9731899</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23028</v>
+        <v>23191</v>
       </c>
       <c r="D13" t="n">
-        <v>7672</v>
+        <v>7694</v>
       </c>
       <c r="E13" t="n">
-        <v>42280746</v>
+        <v>42705648</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>73638</v>
+        <v>74144</v>
       </c>
       <c r="D14" t="n">
-        <v>23706</v>
+        <v>23758</v>
       </c>
       <c r="E14" t="n">
-        <v>140846511</v>
+        <v>142264855</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35382</v>
+        <v>35553</v>
       </c>
       <c r="D15" t="n">
-        <v>10721</v>
+        <v>10729</v>
       </c>
       <c r="E15" t="n">
-        <v>69892582</v>
+        <v>70442644</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73651</v>
+        <v>74163</v>
       </c>
       <c r="D17" t="n">
-        <v>18443</v>
+        <v>18465</v>
       </c>
       <c r="E17" t="n">
-        <v>115514585</v>
+        <v>116710369</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53798</v>
+        <v>53894</v>
       </c>
       <c r="D18" t="n">
-        <v>23474</v>
+        <v>23479</v>
       </c>
       <c r="E18" t="n">
-        <v>71972815</v>
+        <v>72106888</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59893</v>
+        <v>60230</v>
       </c>
       <c r="D19" t="n">
-        <v>12535</v>
+        <v>12556</v>
       </c>
       <c r="E19" t="n">
-        <v>117932268</v>
+        <v>118977518</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80934</v>
+        <v>81622</v>
       </c>
       <c r="D20" t="n">
-        <v>23579</v>
+        <v>23616</v>
       </c>
       <c r="E20" t="n">
-        <v>140367445</v>
+        <v>142644137</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5592</v>
+        <v>5636</v>
       </c>
       <c r="D21" t="n">
-        <v>2408</v>
+        <v>2416</v>
       </c>
       <c r="E21" t="n">
-        <v>9913971</v>
+        <v>10051666</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8453</v>
+        <v>8502</v>
       </c>
       <c r="D23" t="n">
-        <v>3086</v>
+        <v>3096</v>
       </c>
       <c r="E23" t="n">
-        <v>12612742</v>
+        <v>12692583</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>31150</v>
+        <v>32650</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D25" t="n">
         <v>238</v>
       </c>
       <c r="E25" t="n">
-        <v>1074214</v>
+        <v>1075528</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17328</v>
+        <v>17384</v>
       </c>
       <c r="D26" t="n">
-        <v>7837</v>
+        <v>7842</v>
       </c>
       <c r="E26" t="n">
-        <v>25886023</v>
+        <v>26016094</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35840</v>
+        <v>36091</v>
       </c>
       <c r="D27" t="n">
-        <v>11781</v>
+        <v>11812</v>
       </c>
       <c r="E27" t="n">
-        <v>72433504</v>
+        <v>73543689</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4752</v>
+        <v>4772</v>
       </c>
       <c r="D28" t="n">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="E28" t="n">
-        <v>9174805</v>
+        <v>9249684</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37610</v>
+        <v>37873</v>
       </c>
       <c r="D29" t="n">
-        <v>7838</v>
+        <v>7851</v>
       </c>
       <c r="E29" t="n">
-        <v>123477541</v>
+        <v>125016867</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2729</v>
+        <v>2744</v>
       </c>
       <c r="D30" t="n">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E30" t="n">
-        <v>4771043</v>
+        <v>4806521</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="D31" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E31" t="n">
-        <v>1954302</v>
+        <v>1972152</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4660</v>
+        <v>4692</v>
       </c>
       <c r="D32" t="n">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="E32" t="n">
-        <v>7789948</v>
+        <v>7909582</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13930</v>
+        <v>14022</v>
       </c>
       <c r="D33" t="n">
-        <v>4612</v>
+        <v>4625</v>
       </c>
       <c r="E33" t="n">
-        <v>26898408</v>
+        <v>27166789</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6909</v>
+        <v>6949</v>
       </c>
       <c r="D34" t="n">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="E34" t="n">
-        <v>12962712</v>
+        <v>13048204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10556</v>
+        <v>10617</v>
       </c>
       <c r="D36" t="n">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="E36" t="n">
-        <v>15945892</v>
+        <v>16087746</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11752</v>
+        <v>11767</v>
       </c>
       <c r="D37" t="n">
-        <v>5240</v>
+        <v>5242</v>
       </c>
       <c r="E37" t="n">
-        <v>15552293</v>
+        <v>15590162</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14841</v>
+        <v>14929</v>
       </c>
       <c r="D38" t="n">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="E38" t="n">
-        <v>27906275</v>
+        <v>28161942</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24573</v>
+        <v>24811</v>
       </c>
       <c r="D39" t="n">
-        <v>7167</v>
+        <v>7183</v>
       </c>
       <c r="E39" t="n">
-        <v>43146862</v>
+        <v>43943585</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4248</v>
+        <v>4272</v>
       </c>
       <c r="D40" t="n">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="E40" t="n">
-        <v>6941717</v>
+        <v>6982547</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11375</v>
+        <v>11435</v>
       </c>
       <c r="D42" t="n">
-        <v>4044</v>
+        <v>4051</v>
       </c>
       <c r="E42" t="n">
-        <v>16585407</v>
+        <v>16704179</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D44" t="n">
         <v>156</v>
       </c>
       <c r="E44" t="n">
-        <v>557554</v>
+        <v>560554</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18312</v>
+        <v>18362</v>
       </c>
       <c r="D45" t="n">
-        <v>8918</v>
+        <v>8924</v>
       </c>
       <c r="E45" t="n">
-        <v>27175534</v>
+        <v>27292061</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38411</v>
+        <v>38688</v>
       </c>
       <c r="D46" t="n">
-        <v>12795</v>
+        <v>12828</v>
       </c>
       <c r="E46" t="n">
-        <v>82802242</v>
+        <v>84055382</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6530</v>
+        <v>6555</v>
       </c>
       <c r="D47" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="E47" t="n">
-        <v>12412724</v>
+        <v>12494708</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49792</v>
+        <v>50124</v>
       </c>
       <c r="D48" t="n">
-        <v>10852</v>
+        <v>10870</v>
       </c>
       <c r="E48" t="n">
-        <v>173209218</v>
+        <v>175036436</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4684</v>
+        <v>4703</v>
       </c>
       <c r="D49" t="n">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E49" t="n">
-        <v>8294597</v>
+        <v>8372137</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="D50" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E50" t="n">
-        <v>2882657</v>
+        <v>2910823</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6545</v>
+        <v>6583</v>
       </c>
       <c r="D51" t="n">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="E51" t="n">
-        <v>10984496</v>
+        <v>11104058</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20898</v>
+        <v>21035</v>
       </c>
       <c r="D52" t="n">
-        <v>7080</v>
+        <v>7105</v>
       </c>
       <c r="E52" t="n">
-        <v>42076965</v>
+        <v>42520935</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8412</v>
+        <v>8469</v>
       </c>
       <c r="D53" t="n">
-        <v>2811</v>
+        <v>2820</v>
       </c>
       <c r="E53" t="n">
-        <v>15952715</v>
+        <v>16185209</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11535</v>
+        <v>11611</v>
       </c>
       <c r="D54" t="n">
-        <v>3040</v>
+        <v>3046</v>
       </c>
       <c r="E54" t="n">
-        <v>18372792</v>
+        <v>18596647</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19255</v>
+        <v>19277</v>
       </c>
       <c r="D55" t="n">
-        <v>8814</v>
+        <v>8819</v>
       </c>
       <c r="E55" t="n">
-        <v>25781836</v>
+        <v>25812295</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17980</v>
+        <v>18066</v>
       </c>
       <c r="D56" t="n">
-        <v>4054</v>
+        <v>4062</v>
       </c>
       <c r="E56" t="n">
-        <v>34191454</v>
+        <v>34431860</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>27669</v>
+        <v>27928</v>
       </c>
       <c r="D57" t="n">
-        <v>8352</v>
+        <v>8372</v>
       </c>
       <c r="E57" t="n">
-        <v>49680667</v>
+        <v>50536405</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3962</v>
+        <v>3976</v>
       </c>
       <c r="D58" t="n">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="E58" t="n">
-        <v>7152671</v>
+        <v>7193181</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7281</v>
+        <v>7318</v>
       </c>
       <c r="D59" t="n">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="E59" t="n">
-        <v>10913371</v>
+        <v>10990742</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>28723</v>
+        <v>30884</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D61" t="n">
         <v>149</v>
       </c>
       <c r="E61" t="n">
-        <v>531739</v>
+        <v>542551</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16808</v>
+        <v>16858</v>
       </c>
       <c r="D62" t="n">
-        <v>7569</v>
+        <v>7575</v>
       </c>
       <c r="E62" t="n">
-        <v>25509591</v>
+        <v>25631258</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28777</v>
+        <v>28966</v>
       </c>
       <c r="D63" t="n">
-        <v>9527</v>
+        <v>9549</v>
       </c>
       <c r="E63" t="n">
-        <v>57219020</v>
+        <v>58077176</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7274</v>
+        <v>7302</v>
       </c>
       <c r="D64" t="n">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E64" t="n">
-        <v>14173299</v>
+        <v>14277083</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>29945</v>
+        <v>30120</v>
       </c>
       <c r="D65" t="n">
-        <v>6299</v>
+        <v>6305</v>
       </c>
       <c r="E65" t="n">
-        <v>96828100</v>
+        <v>97806471</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3035</v>
+        <v>3050</v>
       </c>
       <c r="D66" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E66" t="n">
-        <v>5465386</v>
+        <v>5508985</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D67" t="n">
         <v>381</v>
       </c>
       <c r="E67" t="n">
-        <v>1864237</v>
+        <v>1869292</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4857</v>
+        <v>4886</v>
       </c>
       <c r="D68" t="n">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="E68" t="n">
-        <v>8364483</v>
+        <v>8414852</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13102</v>
+        <v>13175</v>
       </c>
       <c r="D69" t="n">
-        <v>4253</v>
+        <v>4256</v>
       </c>
       <c r="E69" t="n">
-        <v>24764645</v>
+        <v>24982506</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6989</v>
+        <v>7027</v>
       </c>
       <c r="D70" t="n">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="E70" t="n">
-        <v>13255092</v>
+        <v>13460620</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8272</v>
+        <v>8314</v>
       </c>
       <c r="D71" t="n">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="E71" t="n">
-        <v>13339876</v>
+        <v>13517522</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9971</v>
+        <v>9991</v>
       </c>
       <c r="D72" t="n">
-        <v>4491</v>
+        <v>4495</v>
       </c>
       <c r="E72" t="n">
-        <v>13086137</v>
+        <v>13110384</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13197</v>
+        <v>13260</v>
       </c>
       <c r="D73" t="n">
-        <v>2859</v>
+        <v>2869</v>
       </c>
       <c r="E73" t="n">
-        <v>26181914</v>
+        <v>26432542</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21780</v>
+        <v>21932</v>
       </c>
       <c r="D74" t="n">
-        <v>6508</v>
+        <v>6516</v>
       </c>
       <c r="E74" t="n">
-        <v>38034101</v>
+        <v>38618544</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3481</v>
+        <v>3492</v>
       </c>
       <c r="D75" t="n">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E75" t="n">
-        <v>5574624</v>
+        <v>5603100</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2880</v>
+        <v>2896</v>
       </c>
       <c r="D76" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E76" t="n">
-        <v>4720957</v>
+        <v>4737713</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5975</v>
+        <v>6011</v>
       </c>
       <c r="D78" t="n">
-        <v>2372</v>
+        <v>2380</v>
       </c>
       <c r="E78" t="n">
-        <v>9053406</v>
+        <v>9139303</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8437</v>
+        <v>8506</v>
       </c>
       <c r="D79" t="n">
-        <v>2484</v>
+        <v>2494</v>
       </c>
       <c r="E79" t="n">
-        <v>19663783</v>
+        <v>20023430</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="D80" t="n">
         <v>387</v>
       </c>
       <c r="E80" t="n">
-        <v>3402532</v>
+        <v>3450785</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12409</v>
+        <v>12475</v>
       </c>
       <c r="D81" t="n">
-        <v>2625</v>
+        <v>2631</v>
       </c>
       <c r="E81" t="n">
-        <v>44168825</v>
+        <v>44637309</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D82" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E82" t="n">
-        <v>1387319</v>
+        <v>1393650</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D83" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E83" t="n">
-        <v>316950</v>
+        <v>337191</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2249</v>
+        <v>2262</v>
       </c>
       <c r="D84" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E84" t="n">
-        <v>4364590</v>
+        <v>4406956</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5880</v>
+        <v>5909</v>
       </c>
       <c r="D85" t="n">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="E85" t="n">
-        <v>15085922</v>
+        <v>15230239</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3184</v>
+        <v>3203</v>
       </c>
       <c r="D86" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E86" t="n">
-        <v>5906130</v>
+        <v>5970312</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1774</v>
+        <v>1788</v>
       </c>
       <c r="D87" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E87" t="n">
-        <v>2748160</v>
+        <v>2791945</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="D88" t="n">
         <v>912</v>
       </c>
       <c r="E88" t="n">
-        <v>2801055</v>
+        <v>2805500</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2465</v>
+        <v>2474</v>
       </c>
       <c r="D89" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E89" t="n">
-        <v>5622985</v>
+        <v>5648329</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4394</v>
+        <v>4420</v>
       </c>
       <c r="D90" t="n">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E90" t="n">
-        <v>7180911</v>
+        <v>7306076</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18672</v>
+        <v>19379</v>
       </c>
       <c r="D91" t="n">
-        <v>10133</v>
+        <v>10494</v>
       </c>
       <c r="E91" t="n">
-        <v>68585764</v>
+        <v>72327872</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15013</v>
+        <v>15123</v>
       </c>
       <c r="D93" t="n">
-        <v>5409</v>
+        <v>5429</v>
       </c>
       <c r="E93" t="n">
-        <v>24654294</v>
+        <v>24996706</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D94" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E94" t="n">
-        <v>138450</v>
+        <v>144450</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1657</v>
+        <v>1669</v>
       </c>
       <c r="D95" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E95" t="n">
-        <v>2470229</v>
+        <v>2506185</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35849</v>
+        <v>35996</v>
       </c>
       <c r="D96" t="n">
-        <v>15448</v>
+        <v>15464</v>
       </c>
       <c r="E96" t="n">
-        <v>54264085</v>
+        <v>54604841</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>66257</v>
+        <v>66777</v>
       </c>
       <c r="D97" t="n">
-        <v>21660</v>
+        <v>21734</v>
       </c>
       <c r="E97" t="n">
-        <v>135078203</v>
+        <v>137309778</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14278</v>
+        <v>14344</v>
       </c>
       <c r="D98" t="n">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="E98" t="n">
-        <v>26200572</v>
+        <v>26399658</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>63721</v>
+        <v>64230</v>
       </c>
       <c r="D99" t="n">
-        <v>13448</v>
+        <v>13478</v>
       </c>
       <c r="E99" t="n">
-        <v>230778371</v>
+        <v>233850552</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6082</v>
+        <v>6117</v>
       </c>
       <c r="D100" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="E100" t="n">
-        <v>10541923</v>
+        <v>10684457</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2768</v>
+        <v>2797</v>
       </c>
       <c r="D101" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E101" t="n">
-        <v>4385679</v>
+        <v>4440190</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8721</v>
+        <v>8784</v>
       </c>
       <c r="D102" t="n">
-        <v>2900</v>
+        <v>2906</v>
       </c>
       <c r="E102" t="n">
-        <v>15053969</v>
+        <v>15218981</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30500</v>
+        <v>30694</v>
       </c>
       <c r="D103" t="n">
-        <v>10046</v>
+        <v>10064</v>
       </c>
       <c r="E103" t="n">
-        <v>56672913</v>
+        <v>57368143</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13717</v>
+        <v>13793</v>
       </c>
       <c r="D104" t="n">
-        <v>4315</v>
+        <v>4326</v>
       </c>
       <c r="E104" t="n">
-        <v>26270147</v>
+        <v>26505870</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17283</v>
+        <v>17380</v>
       </c>
       <c r="D106" t="n">
-        <v>4553</v>
+        <v>4561</v>
       </c>
       <c r="E106" t="n">
-        <v>27354291</v>
+        <v>27666180</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24058</v>
+        <v>24104</v>
       </c>
       <c r="D107" t="n">
-        <v>10993</v>
+        <v>10997</v>
       </c>
       <c r="E107" t="n">
-        <v>32727209</v>
+        <v>32792752</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>24961</v>
+        <v>25098</v>
       </c>
       <c r="D108" t="n">
-        <v>5090</v>
+        <v>5101</v>
       </c>
       <c r="E108" t="n">
-        <v>47736917</v>
+        <v>48250997</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>49705</v>
+        <v>50185</v>
       </c>
       <c r="D109" t="n">
-        <v>14497</v>
+        <v>14528</v>
       </c>
       <c r="E109" t="n">
-        <v>85602019</v>
+        <v>87250551</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10474</v>
+        <v>10537</v>
       </c>
       <c r="D110" t="n">
         <v>2490</v>
       </c>
       <c r="E110" t="n">
-        <v>16593249</v>
+        <v>16715601</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4027</v>
+        <v>4046</v>
       </c>
       <c r="D111" t="n">
         <v>1169</v>
       </c>
       <c r="E111" t="n">
-        <v>6356420</v>
+        <v>6392564</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5925</v>
+        <v>5934</v>
       </c>
       <c r="D114" t="n">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="E114" t="n">
-        <v>9003928</v>
+        <v>9026868</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10679</v>
+        <v>10709</v>
       </c>
       <c r="D115" t="n">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="E115" t="n">
-        <v>16910751</v>
+        <v>16975632</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3360</v>
+        <v>3369</v>
       </c>
       <c r="D116" t="n">
         <v>717</v>
       </c>
       <c r="E116" t="n">
-        <v>5468720</v>
+        <v>5491336</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11607</v>
+        <v>11656</v>
       </c>
       <c r="D117" t="n">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="E117" t="n">
-        <v>21327207</v>
+        <v>21458783</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D118" t="n">
         <v>292</v>
       </c>
       <c r="E118" t="n">
-        <v>1789271</v>
+        <v>1797271</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D119" t="n">
         <v>102</v>
       </c>
       <c r="E119" t="n">
-        <v>539575</v>
+        <v>551398</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="D120" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E120" t="n">
-        <v>2241455</v>
+        <v>2256466</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4040</v>
+        <v>4062</v>
       </c>
       <c r="D121" t="n">
         <v>1227</v>
       </c>
       <c r="E121" t="n">
-        <v>6285683</v>
+        <v>6329583</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6085</v>
+        <v>6095</v>
       </c>
       <c r="D122" t="n">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E122" t="n">
-        <v>10746931</v>
+        <v>10801624</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="D123" t="n">
         <v>648</v>
       </c>
       <c r="E123" t="n">
-        <v>3270609</v>
+        <v>3272019</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="D124" t="n">
         <v>1003</v>
       </c>
       <c r="E124" t="n">
-        <v>3552105</v>
+        <v>3554285</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2594</v>
+        <v>2607</v>
       </c>
       <c r="D125" t="n">
         <v>468</v>
       </c>
       <c r="E125" t="n">
-        <v>4629595</v>
+        <v>4657667</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3688</v>
+        <v>3695</v>
       </c>
       <c r="D126" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E126" t="n">
-        <v>5130450</v>
+        <v>5142415</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="D127" t="n">
         <v>802</v>
       </c>
       <c r="E127" t="n">
-        <v>7727017</v>
+        <v>7731992</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D129" t="n">
         <v>392</v>
       </c>
       <c r="E129" t="n">
-        <v>4248769</v>
+        <v>4250269</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="D131" t="n">
         <v>1058</v>
       </c>
       <c r="E131" t="n">
-        <v>12714238</v>
+        <v>12720438</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4677</v>
+        <v>4684</v>
       </c>
       <c r="D132" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E132" t="n">
-        <v>9992211</v>
+        <v>10020661</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3471</v>
+        <v>3478</v>
       </c>
       <c r="D134" t="n">
         <v>561</v>
       </c>
       <c r="E134" t="n">
-        <v>7956635</v>
+        <v>7976791</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="D138" t="n">
         <v>416</v>
       </c>
       <c r="E138" t="n">
-        <v>4025188</v>
+        <v>4029034</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2146</v>
+        <v>2151</v>
       </c>
       <c r="D139" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>4873717</v>
+        <v>4894219</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6083,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D140" t="n">
         <v>152</v>
       </c>
       <c r="E140" t="n">
-        <v>1444442</v>
+        <v>1455104</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D142" t="n">
         <v>133</v>
       </c>
       <c r="E142" t="n">
-        <v>1732719</v>
+        <v>1741731</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D143" t="n">
         <v>279</v>
       </c>
       <c r="E143" t="n">
-        <v>2779542</v>
+        <v>2781042</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4500</v>
+        <v>4551</v>
       </c>
       <c r="D144" t="n">
-        <v>1952</v>
+        <v>1971</v>
       </c>
       <c r="E144" t="n">
-        <v>9853214</v>
+        <v>10186616</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11384</v>
+        <v>11446</v>
       </c>
       <c r="D146" t="n">
-        <v>4044</v>
+        <v>4052</v>
       </c>
       <c r="E146" t="n">
-        <v>16902675</v>
+        <v>17047373</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D148" t="n">
         <v>233</v>
       </c>
       <c r="E148" t="n">
-        <v>897950</v>
+        <v>903947</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>29703</v>
+        <v>29802</v>
       </c>
       <c r="D149" t="n">
-        <v>12773</v>
+        <v>12780</v>
       </c>
       <c r="E149" t="n">
-        <v>44629228</v>
+        <v>44804565</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>63281</v>
+        <v>63690</v>
       </c>
       <c r="D150" t="n">
-        <v>20236</v>
+        <v>20289</v>
       </c>
       <c r="E150" t="n">
-        <v>121302562</v>
+        <v>122911404</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23444</v>
+        <v>23539</v>
       </c>
       <c r="D151" t="n">
-        <v>5061</v>
+        <v>5063</v>
       </c>
       <c r="E151" t="n">
-        <v>41978504</v>
+        <v>42229172</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60302</v>
+        <v>60643</v>
       </c>
       <c r="D152" t="n">
-        <v>12766</v>
+        <v>12780</v>
       </c>
       <c r="E152" t="n">
-        <v>200789708</v>
+        <v>202675575</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5986</v>
+        <v>6008</v>
       </c>
       <c r="D153" t="n">
         <v>1855</v>
       </c>
       <c r="E153" t="n">
-        <v>10568566</v>
+        <v>10640929</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2807</v>
+        <v>2823</v>
       </c>
       <c r="D154" t="n">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E154" t="n">
-        <v>4489852</v>
+        <v>4521432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7654</v>
+        <v>7693</v>
       </c>
       <c r="D155" t="n">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="E155" t="n">
-        <v>13909952</v>
+        <v>14046287</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29670</v>
+        <v>29828</v>
       </c>
       <c r="D156" t="n">
-        <v>9490</v>
+        <v>9513</v>
       </c>
       <c r="E156" t="n">
-        <v>55989608</v>
+        <v>56484372</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13291</v>
+        <v>13359</v>
       </c>
       <c r="D157" t="n">
-        <v>4047</v>
+        <v>4054</v>
       </c>
       <c r="E157" t="n">
-        <v>24963994</v>
+        <v>25186471</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15072</v>
+        <v>15144</v>
       </c>
       <c r="D158" t="n">
-        <v>3988</v>
+        <v>3994</v>
       </c>
       <c r="E158" t="n">
-        <v>24087074</v>
+        <v>24303396</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24439</v>
+        <v>24489</v>
       </c>
       <c r="D159" t="n">
-        <v>11290</v>
+        <v>11293</v>
       </c>
       <c r="E159" t="n">
-        <v>33048900</v>
+        <v>33121302</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24395</v>
+        <v>24511</v>
       </c>
       <c r="D160" t="n">
-        <v>4962</v>
+        <v>4971</v>
       </c>
       <c r="E160" t="n">
-        <v>48205325</v>
+        <v>48603019</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>46845</v>
+        <v>47151</v>
       </c>
       <c r="D161" t="n">
-        <v>13757</v>
+        <v>13788</v>
       </c>
       <c r="E161" t="n">
-        <v>76263511</v>
+        <v>77268803</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="D162" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E162" t="n">
-        <v>2656154</v>
+        <v>2675154</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32590</v>
+        <v>32772</v>
       </c>
       <c r="D163" t="n">
-        <v>10449</v>
+        <v>10473</v>
       </c>
       <c r="E163" t="n">
-        <v>56721120</v>
+        <v>57231122</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D164" t="n">
         <v>149</v>
       </c>
       <c r="E164" t="n">
-        <v>1612270</v>
+        <v>1622270</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D165" t="n">
         <v>411</v>
       </c>
       <c r="E165" t="n">
-        <v>2338531</v>
+        <v>2349586</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>80615</v>
+        <v>80862</v>
       </c>
       <c r="D166" t="n">
-        <v>31240</v>
+        <v>31262</v>
       </c>
       <c r="E166" t="n">
-        <v>132399845</v>
+        <v>133050301</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>182361</v>
+        <v>183509</v>
       </c>
       <c r="D167" t="n">
-        <v>54765</v>
+        <v>54895</v>
       </c>
       <c r="E167" t="n">
-        <v>400015086</v>
+        <v>405033817</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>354313</v>
+        <v>355464</v>
       </c>
       <c r="D168" t="n">
-        <v>59152</v>
+        <v>59193</v>
       </c>
       <c r="E168" t="n">
-        <v>701201920</v>
+        <v>704734778</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>176929</v>
+        <v>178001</v>
       </c>
       <c r="D169" t="n">
-        <v>35615</v>
+        <v>35686</v>
       </c>
       <c r="E169" t="n">
-        <v>706289028</v>
+        <v>713645767</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>67996</v>
+        <v>68376</v>
       </c>
       <c r="D170" t="n">
-        <v>18428</v>
+        <v>18466</v>
       </c>
       <c r="E170" t="n">
-        <v>139653146</v>
+        <v>140915965</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13408</v>
+        <v>13479</v>
       </c>
       <c r="D171" t="n">
-        <v>4014</v>
+        <v>4025</v>
       </c>
       <c r="E171" t="n">
-        <v>25375299</v>
+        <v>25564318</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33653</v>
+        <v>33845</v>
       </c>
       <c r="D172" t="n">
-        <v>10718</v>
+        <v>10754</v>
       </c>
       <c r="E172" t="n">
-        <v>68453856</v>
+        <v>69075583</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>222471</v>
+        <v>223713</v>
       </c>
       <c r="D173" t="n">
-        <v>65268</v>
+        <v>65374</v>
       </c>
       <c r="E173" t="n">
-        <v>400671648</v>
+        <v>404098368</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>71566</v>
+        <v>71920</v>
       </c>
       <c r="D174" t="n">
-        <v>16673</v>
+        <v>16701</v>
       </c>
       <c r="E174" t="n">
-        <v>171246380</v>
+        <v>172855534</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>63152</v>
+        <v>63421</v>
       </c>
       <c r="D176" t="n">
-        <v>15832</v>
+        <v>15847</v>
       </c>
       <c r="E176" t="n">
-        <v>96284302</v>
+        <v>97015918</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>66444</v>
+        <v>66555</v>
       </c>
       <c r="D177" t="n">
-        <v>28555</v>
+        <v>28556</v>
       </c>
       <c r="E177" t="n">
-        <v>90165608</v>
+        <v>90303483</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>134034</v>
+        <v>134683</v>
       </c>
       <c r="D178" t="n">
-        <v>27107</v>
+        <v>27135</v>
       </c>
       <c r="E178" t="n">
-        <v>263676407</v>
+        <v>266076969</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>97969</v>
+        <v>98605</v>
       </c>
       <c r="D179" t="n">
-        <v>27832</v>
+        <v>27888</v>
       </c>
       <c r="E179" t="n">
-        <v>189111694</v>
+        <v>191578561</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5992</v>
+        <v>6005</v>
       </c>
       <c r="D180" t="n">
         <v>1733</v>
       </c>
       <c r="E180" t="n">
-        <v>8262570</v>
+        <v>8297153</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4795</v>
+        <v>4810</v>
       </c>
       <c r="D181" t="n">
         <v>1619</v>
       </c>
       <c r="E181" t="n">
-        <v>6704213</v>
+        <v>6732332</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8024</v>
+        <v>8028</v>
       </c>
       <c r="D184" t="n">
         <v>3204</v>
       </c>
       <c r="E184" t="n">
-        <v>11869866</v>
+        <v>11875866</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15814</v>
+        <v>15845</v>
       </c>
       <c r="D185" t="n">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="E185" t="n">
-        <v>22819972</v>
+        <v>22878001</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="D186" t="n">
         <v>767</v>
       </c>
       <c r="E186" t="n">
-        <v>3724936</v>
+        <v>3737936</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11504</v>
+        <v>11529</v>
       </c>
       <c r="D187" t="n">
         <v>2410</v>
       </c>
       <c r="E187" t="n">
-        <v>19609096</v>
+        <v>19681809</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="D188" t="n">
         <v>383</v>
       </c>
       <c r="E188" t="n">
-        <v>2099179</v>
+        <v>2116249</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="D190" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E190" t="n">
-        <v>2833101</v>
+        <v>2836428</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5269</v>
+        <v>5280</v>
       </c>
       <c r="D191" t="n">
         <v>1761</v>
       </c>
       <c r="E191" t="n">
-        <v>8035730</v>
+        <v>8077529</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3579</v>
+        <v>3596</v>
       </c>
       <c r="D192" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E192" t="n">
-        <v>6733320</v>
+        <v>6784833</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4399</v>
+        <v>4405</v>
       </c>
       <c r="D193" t="n">
         <v>1229</v>
       </c>
       <c r="E193" t="n">
-        <v>5812506</v>
+        <v>5823258</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="D194" t="n">
         <v>2455</v>
       </c>
       <c r="E194" t="n">
-        <v>7684014</v>
+        <v>7685514</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8338,13 +8338,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4366</v>
+        <v>4384</v>
       </c>
       <c r="D195" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E195" t="n">
-        <v>7201672</v>
+        <v>7277887</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5699</v>
+        <v>5704</v>
       </c>
       <c r="D196" t="n">
         <v>1952</v>
       </c>
       <c r="E196" t="n">
-        <v>7377488</v>
+        <v>7385728</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8420,13 +8420,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2675</v>
+        <v>2680</v>
       </c>
       <c r="D197" t="n">
         <v>755</v>
       </c>
       <c r="E197" t="n">
-        <v>3675716</v>
+        <v>3690445</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2788</v>
+        <v>2796</v>
       </c>
       <c r="D198" t="n">
         <v>813</v>
       </c>
       <c r="E198" t="n">
-        <v>4508333</v>
+        <v>4533361</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3702</v>
+        <v>3711</v>
       </c>
       <c r="D201" t="n">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E201" t="n">
-        <v>5850988</v>
+        <v>5871897</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8625,13 +8625,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7824</v>
+        <v>7848</v>
       </c>
       <c r="D202" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="E202" t="n">
-        <v>14867239</v>
+        <v>14985508</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3004</v>
+        <v>3016</v>
       </c>
       <c r="D203" t="n">
         <v>701</v>
       </c>
       <c r="E203" t="n">
-        <v>5415428</v>
+        <v>5469405</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8707,13 +8707,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6043</v>
+        <v>6070</v>
       </c>
       <c r="D204" t="n">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="E204" t="n">
-        <v>13410082</v>
+        <v>13585729</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D205" t="n">
         <v>228</v>
       </c>
       <c r="E205" t="n">
-        <v>1452834</v>
+        <v>1457834</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D206" t="n">
         <v>95</v>
       </c>
       <c r="E206" t="n">
-        <v>545423</v>
+        <v>547738</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="D207" t="n">
         <v>281</v>
       </c>
       <c r="E207" t="n">
-        <v>1689140</v>
+        <v>1704244</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3530</v>
+        <v>3545</v>
       </c>
       <c r="D208" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E208" t="n">
-        <v>6089698</v>
+        <v>6132692</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3905</v>
+        <v>3914</v>
       </c>
       <c r="D209" t="n">
         <v>911</v>
       </c>
       <c r="E209" t="n">
-        <v>7044888</v>
+        <v>7087232</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1954</v>
+        <v>1963</v>
       </c>
       <c r="D210" t="n">
         <v>471</v>
       </c>
       <c r="E210" t="n">
-        <v>2931070</v>
+        <v>2945142</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="D211" t="n">
         <v>927</v>
       </c>
       <c r="E211" t="n">
-        <v>3054032</v>
+        <v>3057032</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="D212" t="n">
         <v>366</v>
       </c>
       <c r="E212" t="n">
-        <v>3782827</v>
+        <v>3793423</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4095</v>
+        <v>4125</v>
       </c>
       <c r="D213" t="n">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E213" t="n">
-        <v>6647993</v>
+        <v>6722166</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6856</v>
+        <v>6864</v>
       </c>
       <c r="D214" t="n">
         <v>1074</v>
       </c>
       <c r="E214" t="n">
-        <v>16216100</v>
+        <v>16249630</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="D215" t="n">
         <v>199</v>
       </c>
       <c r="E215" t="n">
-        <v>2988088</v>
+        <v>3018002</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3977</v>
+        <v>3993</v>
       </c>
       <c r="D217" t="n">
         <v>670</v>
       </c>
       <c r="E217" t="n">
-        <v>10344627</v>
+        <v>10437694</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18115</v>
+        <v>18164</v>
       </c>
       <c r="D218" t="n">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="E218" t="n">
-        <v>44735158</v>
+        <v>45026174</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3513</v>
+        <v>3525</v>
       </c>
       <c r="D219" t="n">
         <v>517</v>
       </c>
       <c r="E219" t="n">
-        <v>9240900</v>
+        <v>9279355</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="D220" t="n">
         <v>305</v>
       </c>
       <c r="E220" t="n">
-        <v>4894587</v>
+        <v>4915587</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9527,13 +9527,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D224" t="n">
         <v>127</v>
       </c>
       <c r="E224" t="n">
-        <v>1372389</v>
+        <v>1382044</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D225" t="n">
         <v>117</v>
       </c>
       <c r="E225" t="n">
-        <v>1840045</v>
+        <v>1841545</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D226" t="n">
         <v>73</v>
       </c>
       <c r="E226" t="n">
-        <v>1071242</v>
+        <v>1091242</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9650,13 +9650,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D227" t="n">
         <v>90</v>
       </c>
       <c r="E227" t="n">
-        <v>641667</v>
+        <v>644667</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D228" t="n">
         <v>57</v>
       </c>
       <c r="E228" t="n">
-        <v>872027</v>
+        <v>881825</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4218</v>
+        <v>4241</v>
       </c>
       <c r="D230" t="n">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E230" t="n">
-        <v>7123449</v>
+        <v>7183196</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9855,13 +9855,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>7952</v>
+        <v>8005</v>
       </c>
       <c r="D232" t="n">
-        <v>2898</v>
+        <v>2905</v>
       </c>
       <c r="E232" t="n">
-        <v>12165496</v>
+        <v>12306877</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9978,13 +9978,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>18082</v>
+        <v>18151</v>
       </c>
       <c r="D235" t="n">
-        <v>8235</v>
+        <v>8244</v>
       </c>
       <c r="E235" t="n">
-        <v>27376402</v>
+        <v>27548215</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10019,13 +10019,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>39736</v>
+        <v>40061</v>
       </c>
       <c r="D236" t="n">
-        <v>12945</v>
+        <v>12984</v>
       </c>
       <c r="E236" t="n">
-        <v>80068004</v>
+        <v>81563181</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10060,13 +10060,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7791</v>
+        <v>7840</v>
       </c>
       <c r="D237" t="n">
-        <v>2054</v>
+        <v>2059</v>
       </c>
       <c r="E237" t="n">
-        <v>14646141</v>
+        <v>14797207</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10101,13 +10101,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>40892</v>
+        <v>41196</v>
       </c>
       <c r="D238" t="n">
-        <v>8942</v>
+        <v>8958</v>
       </c>
       <c r="E238" t="n">
-        <v>139432813</v>
+        <v>141272063</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3379</v>
+        <v>3401</v>
       </c>
       <c r="D239" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E239" t="n">
-        <v>6039886</v>
+        <v>6106507</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10183,13 +10183,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="D240" t="n">
         <v>593</v>
       </c>
       <c r="E240" t="n">
-        <v>2871446</v>
+        <v>2905484</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10224,13 +10224,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5639</v>
+        <v>5684</v>
       </c>
       <c r="D241" t="n">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="E241" t="n">
-        <v>10049290</v>
+        <v>10182829</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>17434</v>
+        <v>17555</v>
       </c>
       <c r="D242" t="n">
-        <v>5633</v>
+        <v>5652</v>
       </c>
       <c r="E242" t="n">
-        <v>34974041</v>
+        <v>35393294</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8241</v>
+        <v>8283</v>
       </c>
       <c r="D243" t="n">
         <v>2500</v>
       </c>
       <c r="E243" t="n">
-        <v>15547386</v>
+        <v>15705732</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>10060</v>
+        <v>10109</v>
       </c>
       <c r="D244" t="n">
-        <v>2603</v>
+        <v>2610</v>
       </c>
       <c r="E244" t="n">
-        <v>15891073</v>
+        <v>16027520</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11864</v>
+        <v>11899</v>
       </c>
       <c r="D245" t="n">
-        <v>5380</v>
+        <v>5383</v>
       </c>
       <c r="E245" t="n">
-        <v>15606198</v>
+        <v>15642068</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10429,13 +10429,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>15809</v>
+        <v>15906</v>
       </c>
       <c r="D246" t="n">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="E246" t="n">
-        <v>31304581</v>
+        <v>31582947</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10470,13 +10470,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29017</v>
+        <v>29305</v>
       </c>
       <c r="D247" t="n">
-        <v>8546</v>
+        <v>8571</v>
       </c>
       <c r="E247" t="n">
-        <v>50241793</v>
+        <v>51248909</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17452</v>
+        <v>17538</v>
       </c>
       <c r="D248" t="n">
-        <v>7125</v>
+        <v>7138</v>
       </c>
       <c r="E248" t="n">
-        <v>32068578</v>
+        <v>32353485</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>24203</v>
+        <v>24316</v>
       </c>
       <c r="D250" t="n">
-        <v>8489</v>
+        <v>8496</v>
       </c>
       <c r="E250" t="n">
-        <v>35474059</v>
+        <v>35711878</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10675,13 +10675,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="D252" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E252" t="n">
-        <v>1865401</v>
+        <v>1880526</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10716,13 +10716,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>52050</v>
+        <v>52201</v>
       </c>
       <c r="D253" t="n">
-        <v>23471</v>
+        <v>23482</v>
       </c>
       <c r="E253" t="n">
-        <v>78608779</v>
+        <v>78975144</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>96047</v>
+        <v>96614</v>
       </c>
       <c r="D254" t="n">
-        <v>30878</v>
+        <v>30942</v>
       </c>
       <c r="E254" t="n">
-        <v>193097657</v>
+        <v>195496187</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10798,13 +10798,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>20095</v>
+        <v>20159</v>
       </c>
       <c r="D255" t="n">
-        <v>4881</v>
+        <v>4886</v>
       </c>
       <c r="E255" t="n">
-        <v>38690221</v>
+        <v>38948800</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,13 +10839,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>89040</v>
+        <v>89599</v>
       </c>
       <c r="D256" t="n">
-        <v>19262</v>
+        <v>19292</v>
       </c>
       <c r="E256" t="n">
-        <v>291919354</v>
+        <v>295090215</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10880,13 +10880,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9413</v>
+        <v>9454</v>
       </c>
       <c r="D257" t="n">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="E257" t="n">
-        <v>16865098</v>
+        <v>16988898</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10921,13 +10921,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4040</v>
+        <v>4063</v>
       </c>
       <c r="D258" t="n">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="E258" t="n">
-        <v>6443129</v>
+        <v>6496272</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10962,13 +10962,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>16046</v>
+        <v>16124</v>
       </c>
       <c r="D259" t="n">
-        <v>5566</v>
+        <v>5577</v>
       </c>
       <c r="E259" t="n">
-        <v>27335448</v>
+        <v>27591814</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11003,13 +11003,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>49592</v>
+        <v>49893</v>
       </c>
       <c r="D260" t="n">
-        <v>16307</v>
+        <v>16337</v>
       </c>
       <c r="E260" t="n">
-        <v>94448799</v>
+        <v>95366211</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>25165</v>
+        <v>25283</v>
       </c>
       <c r="D261" t="n">
-        <v>7773</v>
+        <v>7785</v>
       </c>
       <c r="E261" t="n">
-        <v>45299906</v>
+        <v>45738521</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11126,13 +11126,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>29674</v>
+        <v>29827</v>
       </c>
       <c r="D263" t="n">
-        <v>7506</v>
+        <v>7520</v>
       </c>
       <c r="E263" t="n">
-        <v>43610944</v>
+        <v>44006294</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>38502</v>
+        <v>38565</v>
       </c>
       <c r="D264" t="n">
-        <v>16997</v>
+        <v>17001</v>
       </c>
       <c r="E264" t="n">
-        <v>50749052</v>
+        <v>50826225</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>39388</v>
+        <v>39581</v>
       </c>
       <c r="D265" t="n">
-        <v>8398</v>
+        <v>8415</v>
       </c>
       <c r="E265" t="n">
-        <v>73627553</v>
+        <v>74295730</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>65427</v>
+        <v>65900</v>
       </c>
       <c r="D266" t="n">
-        <v>19597</v>
+        <v>19631</v>
       </c>
       <c r="E266" t="n">
-        <v>108428618</v>
+        <v>110004415</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>18898</v>
+        <v>19011</v>
       </c>
       <c r="D267" t="n">
-        <v>6994</v>
+        <v>7006</v>
       </c>
       <c r="E267" t="n">
-        <v>31083204</v>
+        <v>31340180</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D268" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E268" t="n">
-        <v>58664</v>
+        <v>68664</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>26696</v>
+        <v>26854</v>
       </c>
       <c r="D269" t="n">
-        <v>9162</v>
+        <v>9171</v>
       </c>
       <c r="E269" t="n">
-        <v>39649291</v>
+        <v>40008347</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11454,13 +11454,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D271" t="n">
         <v>346</v>
       </c>
       <c r="E271" t="n">
-        <v>1778731</v>
+        <v>1781731</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11495,13 +11495,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>70711</v>
+        <v>71003</v>
       </c>
       <c r="D272" t="n">
-        <v>28986</v>
+        <v>29008</v>
       </c>
       <c r="E272" t="n">
-        <v>105660362</v>
+        <v>106158205</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11536,13 +11536,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>111854</v>
+        <v>112623</v>
       </c>
       <c r="D273" t="n">
-        <v>34346</v>
+        <v>34422</v>
       </c>
       <c r="E273" t="n">
-        <v>218720120</v>
+        <v>221834007</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24494</v>
+        <v>24610</v>
       </c>
       <c r="D274" t="n">
-        <v>5728</v>
+        <v>5734</v>
       </c>
       <c r="E274" t="n">
-        <v>45746933</v>
+        <v>46044846</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11618,13 +11618,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>108298</v>
+        <v>108950</v>
       </c>
       <c r="D275" t="n">
-        <v>22289</v>
+        <v>22321</v>
       </c>
       <c r="E275" t="n">
-        <v>352325683</v>
+        <v>356165115</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11659,13 +11659,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>11758</v>
+        <v>11810</v>
       </c>
       <c r="D276" t="n">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="E276" t="n">
-        <v>19391764</v>
+        <v>19509567</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11700,13 +11700,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4468</v>
+        <v>4498</v>
       </c>
       <c r="D277" t="n">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="E277" t="n">
-        <v>7253312</v>
+        <v>7316867</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11741,13 +11741,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>19243</v>
+        <v>19389</v>
       </c>
       <c r="D278" t="n">
-        <v>6244</v>
+        <v>6260</v>
       </c>
       <c r="E278" t="n">
-        <v>32537095</v>
+        <v>32947667</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>58902</v>
+        <v>59329</v>
       </c>
       <c r="D279" t="n">
-        <v>18726</v>
+        <v>18760</v>
       </c>
       <c r="E279" t="n">
-        <v>113910601</v>
+        <v>115343539</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>27825</v>
+        <v>27948</v>
       </c>
       <c r="D280" t="n">
-        <v>8575</v>
+        <v>8585</v>
       </c>
       <c r="E280" t="n">
-        <v>50662042</v>
+        <v>51013545</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11905,13 +11905,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>37119</v>
+        <v>37316</v>
       </c>
       <c r="D282" t="n">
-        <v>9534</v>
+        <v>9551</v>
       </c>
       <c r="E282" t="n">
-        <v>52682321</v>
+        <v>53199238</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11946,13 +11946,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>42740</v>
+        <v>42836</v>
       </c>
       <c r="D283" t="n">
-        <v>19156</v>
+        <v>19167</v>
       </c>
       <c r="E283" t="n">
-        <v>56506102</v>
+        <v>56658407</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +11987,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>47098</v>
+        <v>47364</v>
       </c>
       <c r="D284" t="n">
-        <v>9637</v>
+        <v>9655</v>
       </c>
       <c r="E284" t="n">
-        <v>89349271</v>
+        <v>90256563</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>67917</v>
+        <v>68460</v>
       </c>
       <c r="D285" t="n">
-        <v>19799</v>
+        <v>19838</v>
       </c>
       <c r="E285" t="n">
-        <v>106891266</v>
+        <v>108446492</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12069,13 +12069,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5486</v>
+        <v>5511</v>
       </c>
       <c r="D286" t="n">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="E286" t="n">
-        <v>9455293</v>
+        <v>9515940</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10732</v>
+        <v>10785</v>
       </c>
       <c r="D288" t="n">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="E288" t="n">
-        <v>15612594</v>
+        <v>15755751</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12233,13 +12233,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D290" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E290" t="n">
-        <v>1169627</v>
+        <v>1202657</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20679</v>
+        <v>20746</v>
       </c>
       <c r="D291" t="n">
-        <v>9960</v>
+        <v>9973</v>
       </c>
       <c r="E291" t="n">
-        <v>31105257</v>
+        <v>31229501</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -12315,13 +12315,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>42196</v>
+        <v>42469</v>
       </c>
       <c r="D292" t="n">
-        <v>14018</v>
+        <v>14062</v>
       </c>
       <c r="E292" t="n">
-        <v>87236966</v>
+        <v>88342044</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>10390</v>
+        <v>10436</v>
       </c>
       <c r="D293" t="n">
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="E293" t="n">
-        <v>21451962</v>
+        <v>21628422</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12397,13 +12397,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>43623</v>
+        <v>43921</v>
       </c>
       <c r="D294" t="n">
-        <v>9461</v>
+        <v>9474</v>
       </c>
       <c r="E294" t="n">
-        <v>152438582</v>
+        <v>154191708</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5390</v>
+        <v>5426</v>
       </c>
       <c r="D295" t="n">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="E295" t="n">
-        <v>9053139</v>
+        <v>9152904</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12479,13 +12479,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2545</v>
+        <v>2557</v>
       </c>
       <c r="D296" t="n">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E296" t="n">
-        <v>4233070</v>
+        <v>4268944</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8007</v>
+        <v>8065</v>
       </c>
       <c r="D297" t="n">
-        <v>2776</v>
+        <v>2786</v>
       </c>
       <c r="E297" t="n">
-        <v>13749223</v>
+        <v>13882693</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>26644</v>
+        <v>26789</v>
       </c>
       <c r="D298" t="n">
-        <v>8814</v>
+        <v>8839</v>
       </c>
       <c r="E298" t="n">
-        <v>53509938</v>
+        <v>54078885</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9783</v>
+        <v>9822</v>
       </c>
       <c r="D299" t="n">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="E299" t="n">
-        <v>20490519</v>
+        <v>20651417</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>12819</v>
+        <v>12911</v>
       </c>
       <c r="D300" t="n">
-        <v>3475</v>
+        <v>3488</v>
       </c>
       <c r="E300" t="n">
-        <v>20332142</v>
+        <v>20662789</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12684,13 +12684,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>21333</v>
+        <v>21381</v>
       </c>
       <c r="D301" t="n">
-        <v>9553</v>
+        <v>9555</v>
       </c>
       <c r="E301" t="n">
-        <v>28010903</v>
+        <v>28073549</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>21668</v>
+        <v>21793</v>
       </c>
       <c r="D302" t="n">
-        <v>4806</v>
+        <v>4813</v>
       </c>
       <c r="E302" t="n">
-        <v>42871094</v>
+        <v>43257388</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12766,13 +12766,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>33648</v>
+        <v>33941</v>
       </c>
       <c r="D303" t="n">
-        <v>10089</v>
+        <v>10106</v>
       </c>
       <c r="E303" t="n">
-        <v>60646614</v>
+        <v>61669709</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12807,13 +12807,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8138</v>
+        <v>8188</v>
       </c>
       <c r="D304" t="n">
-        <v>2952</v>
+        <v>2959</v>
       </c>
       <c r="E304" t="n">
-        <v>14192839</v>
+        <v>14380898</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12889,13 +12889,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>26093</v>
+        <v>26270</v>
       </c>
       <c r="D306" t="n">
-        <v>8537</v>
+        <v>8549</v>
       </c>
       <c r="E306" t="n">
-        <v>41497498</v>
+        <v>41990044</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12930,13 +12930,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D307" t="n">
         <v>40</v>
       </c>
       <c r="E307" t="n">
-        <v>203035</v>
+        <v>213035</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D308" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E308" t="n">
-        <v>691769</v>
+        <v>718823</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -13012,13 +13012,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>63945</v>
+        <v>64205</v>
       </c>
       <c r="D309" t="n">
-        <v>25392</v>
+        <v>25413</v>
       </c>
       <c r="E309" t="n">
-        <v>98021304</v>
+        <v>98540859</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -13053,13 +13053,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>121479</v>
+        <v>122350</v>
       </c>
       <c r="D310" t="n">
-        <v>36028</v>
+        <v>36127</v>
       </c>
       <c r="E310" t="n">
-        <v>244464819</v>
+        <v>247949035</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13094,13 +13094,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>45646</v>
+        <v>45820</v>
       </c>
       <c r="D311" t="n">
-        <v>8917</v>
+        <v>8932</v>
       </c>
       <c r="E311" t="n">
-        <v>93186921</v>
+        <v>93711805</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>110206</v>
+        <v>110836</v>
       </c>
       <c r="D312" t="n">
-        <v>22306</v>
+        <v>22328</v>
       </c>
       <c r="E312" t="n">
-        <v>388481775</v>
+        <v>392149890</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>12904</v>
+        <v>12971</v>
       </c>
       <c r="D313" t="n">
-        <v>3613</v>
+        <v>3618</v>
       </c>
       <c r="E313" t="n">
-        <v>22850889</v>
+        <v>23045501</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13217,13 +13217,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5202</v>
+        <v>5234</v>
       </c>
       <c r="D314" t="n">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="E314" t="n">
-        <v>8681651</v>
+        <v>8756641</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13258,13 +13258,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>24532</v>
+        <v>24702</v>
       </c>
       <c r="D315" t="n">
-        <v>7575</v>
+        <v>7598</v>
       </c>
       <c r="E315" t="n">
-        <v>45209820</v>
+        <v>45794773</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>63993</v>
+        <v>64355</v>
       </c>
       <c r="D316" t="n">
-        <v>19998</v>
+        <v>20040</v>
       </c>
       <c r="E316" t="n">
-        <v>120666974</v>
+        <v>121749493</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>36171</v>
+        <v>36312</v>
       </c>
       <c r="D317" t="n">
-        <v>10377</v>
+        <v>10388</v>
       </c>
       <c r="E317" t="n">
-        <v>72549266</v>
+        <v>72980878</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>40246</v>
+        <v>40475</v>
       </c>
       <c r="D319" t="n">
-        <v>9869</v>
+        <v>9877</v>
       </c>
       <c r="E319" t="n">
-        <v>59784249</v>
+        <v>60299561</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13463,13 +13463,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>39492</v>
+        <v>39593</v>
       </c>
       <c r="D320" t="n">
-        <v>17222</v>
+        <v>17231</v>
       </c>
       <c r="E320" t="n">
-        <v>52404861</v>
+        <v>52520713</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13504,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>44768</v>
+        <v>45034</v>
       </c>
       <c r="D321" t="n">
-        <v>9045</v>
+        <v>9063</v>
       </c>
       <c r="E321" t="n">
-        <v>89257048</v>
+        <v>90142357</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>67526</v>
+        <v>68065</v>
       </c>
       <c r="D322" t="n">
-        <v>19357</v>
+        <v>19410</v>
       </c>
       <c r="E322" t="n">
-        <v>111671296</v>
+        <v>113281466</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16203</v>
+        <v>16274</v>
       </c>
       <c r="D2" t="n">
-        <v>6695</v>
+        <v>6706</v>
       </c>
       <c r="E2" t="n">
-        <v>25971735</v>
+        <v>26110654</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31260</v>
+        <v>31355</v>
       </c>
       <c r="D4" t="n">
-        <v>10955</v>
+        <v>10965</v>
       </c>
       <c r="E4" t="n">
-        <v>48462695</v>
+        <v>48717976</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>737806</v>
+        <v>739306</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="D6" t="n">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E6" t="n">
-        <v>2268821</v>
+        <v>2310144</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73885</v>
+        <v>74067</v>
       </c>
       <c r="D7" t="n">
-        <v>31175</v>
+        <v>31189</v>
       </c>
       <c r="E7" t="n">
-        <v>113249321</v>
+        <v>113648881</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>121279</v>
+        <v>121755</v>
       </c>
       <c r="D8" t="n">
-        <v>38343</v>
+        <v>38396</v>
       </c>
       <c r="E8" t="n">
-        <v>260100912</v>
+        <v>262225360</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44731</v>
+        <v>44828</v>
       </c>
       <c r="D9" t="n">
-        <v>9600</v>
+        <v>9605</v>
       </c>
       <c r="E9" t="n">
-        <v>87598620</v>
+        <v>87881501</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134510</v>
+        <v>134968</v>
       </c>
       <c r="D10" t="n">
-        <v>27965</v>
+        <v>27998</v>
       </c>
       <c r="E10" t="n">
-        <v>482649957</v>
+        <v>485427196</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15437</v>
+        <v>15482</v>
       </c>
       <c r="D11" t="n">
-        <v>4520</v>
+        <v>4530</v>
       </c>
       <c r="E11" t="n">
-        <v>26987449</v>
+        <v>27120487</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5894</v>
+        <v>5908</v>
       </c>
       <c r="D12" t="n">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="E12" t="n">
-        <v>9731899</v>
+        <v>9751140</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23191</v>
+        <v>23291</v>
       </c>
       <c r="D13" t="n">
-        <v>7694</v>
+        <v>7711</v>
       </c>
       <c r="E13" t="n">
-        <v>42705648</v>
+        <v>42961609</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74144</v>
+        <v>74357</v>
       </c>
       <c r="D14" t="n">
-        <v>23758</v>
+        <v>23795</v>
       </c>
       <c r="E14" t="n">
-        <v>142264855</v>
+        <v>142998227</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35553</v>
+        <v>35655</v>
       </c>
       <c r="D15" t="n">
-        <v>10729</v>
+        <v>10739</v>
       </c>
       <c r="E15" t="n">
-        <v>70442644</v>
+        <v>70843326</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74163</v>
+        <v>74491</v>
       </c>
       <c r="D17" t="n">
-        <v>18465</v>
+        <v>18476</v>
       </c>
       <c r="E17" t="n">
-        <v>116710369</v>
+        <v>117449300</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53894</v>
+        <v>53965</v>
       </c>
       <c r="D18" t="n">
-        <v>23479</v>
+        <v>23485</v>
       </c>
       <c r="E18" t="n">
-        <v>72106888</v>
+        <v>72224558</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60230</v>
+        <v>60431</v>
       </c>
       <c r="D19" t="n">
-        <v>12556</v>
+        <v>12573</v>
       </c>
       <c r="E19" t="n">
-        <v>118977518</v>
+        <v>119542007</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>81622</v>
+        <v>81933</v>
       </c>
       <c r="D20" t="n">
-        <v>23616</v>
+        <v>23642</v>
       </c>
       <c r="E20" t="n">
-        <v>142644137</v>
+        <v>143602758</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5636</v>
+        <v>5674</v>
       </c>
       <c r="D21" t="n">
-        <v>2416</v>
+        <v>2427</v>
       </c>
       <c r="E21" t="n">
-        <v>10051666</v>
+        <v>10144807</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8502</v>
+        <v>8527</v>
       </c>
       <c r="D23" t="n">
-        <v>3096</v>
+        <v>3101</v>
       </c>
       <c r="E23" t="n">
-        <v>12692583</v>
+        <v>12750694</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D25" t="n">
         <v>238</v>
       </c>
       <c r="E25" t="n">
-        <v>1075528</v>
+        <v>1086667</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17384</v>
+        <v>17429</v>
       </c>
       <c r="D26" t="n">
-        <v>7842</v>
+        <v>7845</v>
       </c>
       <c r="E26" t="n">
-        <v>26016094</v>
+        <v>26089160</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36091</v>
+        <v>36227</v>
       </c>
       <c r="D27" t="n">
-        <v>11812</v>
+        <v>11825</v>
       </c>
       <c r="E27" t="n">
-        <v>73543689</v>
+        <v>74114337</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4772</v>
+        <v>4779</v>
       </c>
       <c r="D28" t="n">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E28" t="n">
-        <v>9249684</v>
+        <v>9281492</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37873</v>
+        <v>37991</v>
       </c>
       <c r="D29" t="n">
-        <v>7851</v>
+        <v>7863</v>
       </c>
       <c r="E29" t="n">
-        <v>125016867</v>
+        <v>125664765</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2744</v>
+        <v>2756</v>
       </c>
       <c r="D30" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E30" t="n">
-        <v>4806521</v>
+        <v>4840097</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="D31" t="n">
         <v>439</v>
       </c>
       <c r="E31" t="n">
-        <v>1972152</v>
+        <v>1991634</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4692</v>
+        <v>4712</v>
       </c>
       <c r="D32" t="n">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="E32" t="n">
-        <v>7909582</v>
+        <v>7963373</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14022</v>
+        <v>14064</v>
       </c>
       <c r="D33" t="n">
-        <v>4625</v>
+        <v>4627</v>
       </c>
       <c r="E33" t="n">
-        <v>27166789</v>
+        <v>27320526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6949</v>
+        <v>6969</v>
       </c>
       <c r="D34" t="n">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="E34" t="n">
-        <v>13048204</v>
+        <v>13123044</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10617</v>
+        <v>10647</v>
       </c>
       <c r="D36" t="n">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="E36" t="n">
-        <v>16087746</v>
+        <v>16175621</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11767</v>
+        <v>11785</v>
       </c>
       <c r="D37" t="n">
-        <v>5242</v>
+        <v>5245</v>
       </c>
       <c r="E37" t="n">
-        <v>15590162</v>
+        <v>15620627</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14929</v>
+        <v>14975</v>
       </c>
       <c r="D38" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="E38" t="n">
-        <v>28161942</v>
+        <v>28295690</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24811</v>
+        <v>24933</v>
       </c>
       <c r="D39" t="n">
-        <v>7183</v>
+        <v>7190</v>
       </c>
       <c r="E39" t="n">
-        <v>43943585</v>
+        <v>44357567</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4272</v>
+        <v>4286</v>
       </c>
       <c r="D40" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="E40" t="n">
-        <v>6982547</v>
+        <v>7031379</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11435</v>
+        <v>11470</v>
       </c>
       <c r="D42" t="n">
-        <v>4051</v>
+        <v>4056</v>
       </c>
       <c r="E42" t="n">
-        <v>16704179</v>
+        <v>16789443</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18362</v>
+        <v>18386</v>
       </c>
       <c r="D45" t="n">
-        <v>8924</v>
+        <v>8927</v>
       </c>
       <c r="E45" t="n">
-        <v>27292061</v>
+        <v>27360982</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38688</v>
+        <v>38832</v>
       </c>
       <c r="D46" t="n">
-        <v>12828</v>
+        <v>12852</v>
       </c>
       <c r="E46" t="n">
-        <v>84055382</v>
+        <v>84741701</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6555</v>
+        <v>6569</v>
       </c>
       <c r="D47" t="n">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E47" t="n">
-        <v>12494708</v>
+        <v>12541423</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50124</v>
+        <v>50288</v>
       </c>
       <c r="D48" t="n">
-        <v>10870</v>
+        <v>10883</v>
       </c>
       <c r="E48" t="n">
-        <v>175036436</v>
+        <v>176006298</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4703</v>
+        <v>4719</v>
       </c>
       <c r="D49" t="n">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="E49" t="n">
-        <v>8372137</v>
+        <v>8423198</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="D50" t="n">
         <v>604</v>
       </c>
       <c r="E50" t="n">
-        <v>2910823</v>
+        <v>2918355</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6583</v>
+        <v>6610</v>
       </c>
       <c r="D51" t="n">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="E51" t="n">
-        <v>11104058</v>
+        <v>11187680</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21035</v>
+        <v>21112</v>
       </c>
       <c r="D52" t="n">
-        <v>7105</v>
+        <v>7119</v>
       </c>
       <c r="E52" t="n">
-        <v>42520935</v>
+        <v>42839539</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8469</v>
+        <v>8485</v>
       </c>
       <c r="D53" t="n">
         <v>2820</v>
       </c>
       <c r="E53" t="n">
-        <v>16185209</v>
+        <v>16231297</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11611</v>
+        <v>11649</v>
       </c>
       <c r="D54" t="n">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="E54" t="n">
-        <v>18596647</v>
+        <v>18712717</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19277</v>
+        <v>19291</v>
       </c>
       <c r="D55" t="n">
-        <v>8819</v>
+        <v>8822</v>
       </c>
       <c r="E55" t="n">
-        <v>25812295</v>
+        <v>25830306</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18066</v>
+        <v>18132</v>
       </c>
       <c r="D56" t="n">
-        <v>4062</v>
+        <v>4070</v>
       </c>
       <c r="E56" t="n">
-        <v>34431860</v>
+        <v>34615237</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>27928</v>
+        <v>28028</v>
       </c>
       <c r="D57" t="n">
-        <v>8372</v>
+        <v>8383</v>
       </c>
       <c r="E57" t="n">
-        <v>50536405</v>
+        <v>50879293</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3976</v>
+        <v>4002</v>
       </c>
       <c r="D58" t="n">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="E58" t="n">
-        <v>7193181</v>
+        <v>7310873</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7318</v>
+        <v>7340</v>
       </c>
       <c r="D59" t="n">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="E59" t="n">
-        <v>10990742</v>
+        <v>11050882</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D61" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" t="n">
-        <v>542551</v>
+        <v>545241</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16858</v>
+        <v>16890</v>
       </c>
       <c r="D62" t="n">
-        <v>7575</v>
+        <v>7579</v>
       </c>
       <c r="E62" t="n">
-        <v>25631258</v>
+        <v>25697673</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>28966</v>
+        <v>29085</v>
       </c>
       <c r="D63" t="n">
-        <v>9549</v>
+        <v>9563</v>
       </c>
       <c r="E63" t="n">
-        <v>58077176</v>
+        <v>58531728</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7302</v>
+        <v>7318</v>
       </c>
       <c r="D64" t="n">
         <v>1901</v>
       </c>
       <c r="E64" t="n">
-        <v>14277083</v>
+        <v>14346350</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30120</v>
+        <v>30223</v>
       </c>
       <c r="D65" t="n">
-        <v>6305</v>
+        <v>6310</v>
       </c>
       <c r="E65" t="n">
-        <v>97806471</v>
+        <v>98390828</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="D66" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E66" t="n">
-        <v>5508985</v>
+        <v>5541100</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D67" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E67" t="n">
-        <v>1869292</v>
+        <v>1870792</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4886</v>
+        <v>4906</v>
       </c>
       <c r="D68" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E68" t="n">
-        <v>8414852</v>
+        <v>8453579</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13175</v>
+        <v>13216</v>
       </c>
       <c r="D69" t="n">
-        <v>4256</v>
+        <v>4263</v>
       </c>
       <c r="E69" t="n">
-        <v>24982506</v>
+        <v>25172277</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7027</v>
+        <v>7049</v>
       </c>
       <c r="D70" t="n">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="E70" t="n">
-        <v>13460620</v>
+        <v>13534488</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8314</v>
+        <v>8345</v>
       </c>
       <c r="D71" t="n">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="E71" t="n">
-        <v>13517522</v>
+        <v>13602851</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9991</v>
+        <v>9996</v>
       </c>
       <c r="D72" t="n">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="E72" t="n">
-        <v>13110384</v>
+        <v>13118714</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13260</v>
+        <v>13298</v>
       </c>
       <c r="D73" t="n">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="E73" t="n">
-        <v>26432542</v>
+        <v>26555006</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21932</v>
+        <v>22018</v>
       </c>
       <c r="D74" t="n">
-        <v>6516</v>
+        <v>6524</v>
       </c>
       <c r="E74" t="n">
-        <v>38618544</v>
+        <v>38878800</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3492</v>
+        <v>3506</v>
       </c>
       <c r="D75" t="n">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E75" t="n">
-        <v>5603100</v>
+        <v>5623116</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2896</v>
+        <v>2905</v>
       </c>
       <c r="D76" t="n">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E76" t="n">
-        <v>4737713</v>
+        <v>4769051</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
         <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>76486</v>
+        <v>78486</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6011</v>
+        <v>6031</v>
       </c>
       <c r="D78" t="n">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E78" t="n">
-        <v>9139303</v>
+        <v>9182499</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8506</v>
+        <v>8542</v>
       </c>
       <c r="D79" t="n">
         <v>2494</v>
       </c>
       <c r="E79" t="n">
-        <v>20023430</v>
+        <v>20183728</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="D80" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E80" t="n">
-        <v>3450785</v>
+        <v>3504794</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12475</v>
+        <v>12541</v>
       </c>
       <c r="D81" t="n">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="E81" t="n">
-        <v>44637309</v>
+        <v>45033015</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D82" t="n">
         <v>177</v>
       </c>
       <c r="E82" t="n">
-        <v>1393650</v>
+        <v>1397540</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" t="n">
         <v>66</v>
       </c>
       <c r="E83" t="n">
-        <v>337191</v>
+        <v>338691</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2262</v>
+        <v>2270</v>
       </c>
       <c r="D84" t="n">
         <v>647</v>
       </c>
       <c r="E84" t="n">
-        <v>4406956</v>
+        <v>4426480</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5909</v>
+        <v>5943</v>
       </c>
       <c r="D85" t="n">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="E85" t="n">
-        <v>15230239</v>
+        <v>15362821</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3203</v>
+        <v>3212</v>
       </c>
       <c r="D86" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E86" t="n">
-        <v>5970312</v>
+        <v>5997552</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="D87" t="n">
         <v>394</v>
       </c>
       <c r="E87" t="n">
-        <v>2791945</v>
+        <v>2804102</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="D88" t="n">
         <v>912</v>
       </c>
       <c r="E88" t="n">
-        <v>2805500</v>
+        <v>2808377</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2474</v>
+        <v>2492</v>
       </c>
       <c r="D89" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E89" t="n">
-        <v>5648329</v>
+        <v>5720256</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4420</v>
+        <v>4438</v>
       </c>
       <c r="D90" t="n">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="E90" t="n">
-        <v>7306076</v>
+        <v>7337967</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19379</v>
+        <v>19711</v>
       </c>
       <c r="D91" t="n">
-        <v>10494</v>
+        <v>10671</v>
       </c>
       <c r="E91" t="n">
-        <v>72327872</v>
+        <v>74040952</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15123</v>
+        <v>15199</v>
       </c>
       <c r="D93" t="n">
-        <v>5429</v>
+        <v>5444</v>
       </c>
       <c r="E93" t="n">
-        <v>24996706</v>
+        <v>25178338</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D94" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E94" t="n">
-        <v>144450</v>
+        <v>148950</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="D95" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E95" t="n">
-        <v>2506185</v>
+        <v>2511260</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35996</v>
+        <v>36080</v>
       </c>
       <c r="D96" t="n">
-        <v>15464</v>
+        <v>15470</v>
       </c>
       <c r="E96" t="n">
-        <v>54604841</v>
+        <v>54774934</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>66777</v>
+        <v>67065</v>
       </c>
       <c r="D97" t="n">
-        <v>21734</v>
+        <v>21781</v>
       </c>
       <c r="E97" t="n">
-        <v>137309778</v>
+        <v>138468067</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14344</v>
+        <v>14381</v>
       </c>
       <c r="D98" t="n">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="E98" t="n">
-        <v>26399658</v>
+        <v>26520480</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>64230</v>
+        <v>64427</v>
       </c>
       <c r="D99" t="n">
-        <v>13478</v>
+        <v>13491</v>
       </c>
       <c r="E99" t="n">
-        <v>233850552</v>
+        <v>234923885</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6117</v>
+        <v>6135</v>
       </c>
       <c r="D100" t="n">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="E100" t="n">
-        <v>10684457</v>
+        <v>10734043</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2797</v>
+        <v>2808</v>
       </c>
       <c r="D101" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E101" t="n">
-        <v>4440190</v>
+        <v>4468670</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8784</v>
+        <v>8839</v>
       </c>
       <c r="D102" t="n">
-        <v>2906</v>
+        <v>2913</v>
       </c>
       <c r="E102" t="n">
-        <v>15218981</v>
+        <v>15369399</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30694</v>
+        <v>30795</v>
       </c>
       <c r="D103" t="n">
-        <v>10064</v>
+        <v>10076</v>
       </c>
       <c r="E103" t="n">
-        <v>57368143</v>
+        <v>57648805</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13793</v>
+        <v>13830</v>
       </c>
       <c r="D104" t="n">
-        <v>4326</v>
+        <v>4332</v>
       </c>
       <c r="E104" t="n">
-        <v>26505870</v>
+        <v>26603134</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17380</v>
+        <v>17457</v>
       </c>
       <c r="D106" t="n">
-        <v>4561</v>
+        <v>4564</v>
       </c>
       <c r="E106" t="n">
-        <v>27666180</v>
+        <v>27851827</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24104</v>
+        <v>24132</v>
       </c>
       <c r="D107" t="n">
-        <v>10997</v>
+        <v>11001</v>
       </c>
       <c r="E107" t="n">
-        <v>32792752</v>
+        <v>32820496</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>25098</v>
+        <v>25201</v>
       </c>
       <c r="D108" t="n">
-        <v>5101</v>
+        <v>5107</v>
       </c>
       <c r="E108" t="n">
-        <v>48250997</v>
+        <v>48511884</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>50185</v>
+        <v>50441</v>
       </c>
       <c r="D109" t="n">
-        <v>14528</v>
+        <v>14544</v>
       </c>
       <c r="E109" t="n">
-        <v>87250551</v>
+        <v>87968333</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10537</v>
+        <v>10605</v>
       </c>
       <c r="D110" t="n">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="E110" t="n">
-        <v>16715601</v>
+        <v>16874077</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4046</v>
+        <v>4055</v>
       </c>
       <c r="D111" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E111" t="n">
-        <v>6392564</v>
+        <v>6417386</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5934</v>
+        <v>5943</v>
       </c>
       <c r="D114" t="n">
         <v>2127</v>
       </c>
       <c r="E114" t="n">
-        <v>9026868</v>
+        <v>9063060</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10709</v>
+        <v>10740</v>
       </c>
       <c r="D115" t="n">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E115" t="n">
-        <v>16975632</v>
+        <v>17066273</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="D116" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E116" t="n">
-        <v>5491336</v>
+        <v>5496026</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11656</v>
+        <v>11691</v>
       </c>
       <c r="D117" t="n">
         <v>1993</v>
       </c>
       <c r="E117" t="n">
-        <v>21458783</v>
+        <v>21553139</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D118" t="n">
         <v>292</v>
       </c>
       <c r="E118" t="n">
-        <v>1797271</v>
+        <v>1798771</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="D120" t="n">
         <v>422</v>
       </c>
       <c r="E120" t="n">
-        <v>2256466</v>
+        <v>2263666</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4062</v>
+        <v>4067</v>
       </c>
       <c r="D121" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E121" t="n">
-        <v>6329583</v>
+        <v>6346791</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6095</v>
+        <v>6110</v>
       </c>
       <c r="D122" t="n">
         <v>1342</v>
       </c>
       <c r="E122" t="n">
-        <v>10801624</v>
+        <v>10833719</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="D123" t="n">
         <v>648</v>
       </c>
       <c r="E123" t="n">
-        <v>3272019</v>
+        <v>3273519</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="D124" t="n">
         <v>1003</v>
       </c>
       <c r="E124" t="n">
-        <v>3554285</v>
+        <v>3555785</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="D125" t="n">
         <v>468</v>
       </c>
       <c r="E125" t="n">
-        <v>4657667</v>
+        <v>4667675</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3695</v>
+        <v>3700</v>
       </c>
       <c r="D126" t="n">
         <v>1104</v>
       </c>
       <c r="E126" t="n">
-        <v>5142415</v>
+        <v>5149910</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4363</v>
+        <v>4378</v>
       </c>
       <c r="D127" t="n">
         <v>802</v>
       </c>
       <c r="E127" t="n">
-        <v>7731992</v>
+        <v>7761046</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="D129" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E129" t="n">
-        <v>4250269</v>
+        <v>4260721</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5474</v>
+        <v>5483</v>
       </c>
       <c r="D131" t="n">
         <v>1058</v>
       </c>
       <c r="E131" t="n">
-        <v>12720438</v>
+        <v>12735438</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4684</v>
+        <v>4694</v>
       </c>
       <c r="D132" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E132" t="n">
-        <v>10020661</v>
+        <v>10041223</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D133" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E133" t="n">
-        <v>3626188</v>
+        <v>3629188</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3478</v>
+        <v>3487</v>
       </c>
       <c r="D134" t="n">
         <v>561</v>
       </c>
       <c r="E134" t="n">
-        <v>7976791</v>
+        <v>7999389</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D136" t="n">
         <v>43</v>
       </c>
       <c r="E136" t="n">
-        <v>509561</v>
+        <v>512761</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="D138" t="n">
         <v>416</v>
       </c>
       <c r="E138" t="n">
-        <v>4029034</v>
+        <v>4031434</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="D139" t="n">
         <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>4894219</v>
+        <v>4916719</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D141" t="n">
         <v>237</v>
       </c>
       <c r="E141" t="n">
-        <v>1420154</v>
+        <v>1434654</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D142" t="n">
         <v>133</v>
       </c>
       <c r="E142" t="n">
-        <v>1741731</v>
+        <v>1755083</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4551</v>
+        <v>4580</v>
       </c>
       <c r="D144" t="n">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="E144" t="n">
-        <v>10186616</v>
+        <v>10289404</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11446</v>
+        <v>11482</v>
       </c>
       <c r="D146" t="n">
-        <v>4052</v>
+        <v>4056</v>
       </c>
       <c r="E146" t="n">
-        <v>17047373</v>
+        <v>17139146</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>29802</v>
+        <v>29863</v>
       </c>
       <c r="D149" t="n">
-        <v>12780</v>
+        <v>12786</v>
       </c>
       <c r="E149" t="n">
-        <v>44804565</v>
+        <v>44933498</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>63690</v>
+        <v>63949</v>
       </c>
       <c r="D150" t="n">
-        <v>20289</v>
+        <v>20318</v>
       </c>
       <c r="E150" t="n">
-        <v>122911404</v>
+        <v>123823713</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23539</v>
+        <v>23598</v>
       </c>
       <c r="D151" t="n">
         <v>5063</v>
       </c>
       <c r="E151" t="n">
-        <v>42229172</v>
+        <v>42390371</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60643</v>
+        <v>60851</v>
       </c>
       <c r="D152" t="n">
-        <v>12780</v>
+        <v>12798</v>
       </c>
       <c r="E152" t="n">
-        <v>202675575</v>
+        <v>203916521</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6008</v>
+        <v>6034</v>
       </c>
       <c r="D153" t="n">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="E153" t="n">
-        <v>10640929</v>
+        <v>10700147</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2823</v>
+        <v>2832</v>
       </c>
       <c r="D154" t="n">
         <v>929</v>
       </c>
       <c r="E154" t="n">
-        <v>4521432</v>
+        <v>4543432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7693</v>
+        <v>7726</v>
       </c>
       <c r="D155" t="n">
-        <v>2564</v>
+        <v>2570</v>
       </c>
       <c r="E155" t="n">
-        <v>14046287</v>
+        <v>14138158</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29828</v>
+        <v>29920</v>
       </c>
       <c r="D156" t="n">
-        <v>9513</v>
+        <v>9518</v>
       </c>
       <c r="E156" t="n">
-        <v>56484372</v>
+        <v>56691594</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13359</v>
+        <v>13388</v>
       </c>
       <c r="D157" t="n">
-        <v>4054</v>
+        <v>4056</v>
       </c>
       <c r="E157" t="n">
-        <v>25186471</v>
+        <v>25276910</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15144</v>
+        <v>15181</v>
       </c>
       <c r="D158" t="n">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="E158" t="n">
-        <v>24303396</v>
+        <v>24462132</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24489</v>
+        <v>24511</v>
       </c>
       <c r="D159" t="n">
-        <v>11293</v>
+        <v>11294</v>
       </c>
       <c r="E159" t="n">
-        <v>33121302</v>
+        <v>33150388</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24511</v>
+        <v>24583</v>
       </c>
       <c r="D160" t="n">
-        <v>4971</v>
+        <v>4974</v>
       </c>
       <c r="E160" t="n">
-        <v>48603019</v>
+        <v>48886375</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>47151</v>
+        <v>47353</v>
       </c>
       <c r="D161" t="n">
-        <v>13788</v>
+        <v>13803</v>
       </c>
       <c r="E161" t="n">
-        <v>77268803</v>
+        <v>77787459</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1507</v>
+        <v>1516</v>
       </c>
       <c r="D162" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E162" t="n">
-        <v>2675154</v>
+        <v>2708565</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32772</v>
+        <v>32871</v>
       </c>
       <c r="D163" t="n">
-        <v>10473</v>
+        <v>10482</v>
       </c>
       <c r="E163" t="n">
-        <v>57231122</v>
+        <v>57529079</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D165" t="n">
         <v>411</v>
       </c>
       <c r="E165" t="n">
-        <v>2349586</v>
+        <v>2351086</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>80862</v>
+        <v>81021</v>
       </c>
       <c r="D166" t="n">
-        <v>31262</v>
+        <v>31278</v>
       </c>
       <c r="E166" t="n">
-        <v>133050301</v>
+        <v>133530291</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>183509</v>
+        <v>184180</v>
       </c>
       <c r="D167" t="n">
-        <v>54895</v>
+        <v>54976</v>
       </c>
       <c r="E167" t="n">
-        <v>405033817</v>
+        <v>408204795</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>355464</v>
+        <v>356150</v>
       </c>
       <c r="D168" t="n">
-        <v>59193</v>
+        <v>59220</v>
       </c>
       <c r="E168" t="n">
-        <v>704734778</v>
+        <v>707011253</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>178001</v>
+        <v>178677</v>
       </c>
       <c r="D169" t="n">
-        <v>35686</v>
+        <v>35714</v>
       </c>
       <c r="E169" t="n">
-        <v>713645767</v>
+        <v>718365241</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>68376</v>
+        <v>68616</v>
       </c>
       <c r="D170" t="n">
-        <v>18466</v>
+        <v>18488</v>
       </c>
       <c r="E170" t="n">
-        <v>140915965</v>
+        <v>141820333</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13479</v>
+        <v>13527</v>
       </c>
       <c r="D171" t="n">
-        <v>4025</v>
+        <v>4032</v>
       </c>
       <c r="E171" t="n">
-        <v>25564318</v>
+        <v>25671274</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33845</v>
+        <v>33987</v>
       </c>
       <c r="D172" t="n">
-        <v>10754</v>
+        <v>10775</v>
       </c>
       <c r="E172" t="n">
-        <v>69075583</v>
+        <v>69673232</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>223713</v>
+        <v>224408</v>
       </c>
       <c r="D173" t="n">
-        <v>65374</v>
+        <v>65430</v>
       </c>
       <c r="E173" t="n">
-        <v>404098368</v>
+        <v>406118722</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>71920</v>
+        <v>72128</v>
       </c>
       <c r="D174" t="n">
-        <v>16701</v>
+        <v>16721</v>
       </c>
       <c r="E174" t="n">
-        <v>172855534</v>
+        <v>173802866</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>63421</v>
+        <v>63584</v>
       </c>
       <c r="D176" t="n">
-        <v>15847</v>
+        <v>15860</v>
       </c>
       <c r="E176" t="n">
-        <v>97015918</v>
+        <v>97429059</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>66555</v>
+        <v>66632</v>
       </c>
       <c r="D177" t="n">
-        <v>28556</v>
+        <v>28562</v>
       </c>
       <c r="E177" t="n">
-        <v>90303483</v>
+        <v>90423764</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>134683</v>
+        <v>135073</v>
       </c>
       <c r="D178" t="n">
-        <v>27135</v>
+        <v>27160</v>
       </c>
       <c r="E178" t="n">
-        <v>266076969</v>
+        <v>267493395</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>98605</v>
+        <v>98973</v>
       </c>
       <c r="D179" t="n">
-        <v>27888</v>
+        <v>27919</v>
       </c>
       <c r="E179" t="n">
-        <v>191578561</v>
+        <v>192943194</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6005</v>
+        <v>6010</v>
       </c>
       <c r="D180" t="n">
         <v>1733</v>
       </c>
       <c r="E180" t="n">
-        <v>8297153</v>
+        <v>8304653</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4810</v>
+        <v>4813</v>
       </c>
       <c r="D181" t="n">
         <v>1619</v>
       </c>
       <c r="E181" t="n">
-        <v>6732332</v>
+        <v>6736832</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8028</v>
+        <v>8029</v>
       </c>
       <c r="D184" t="n">
         <v>3204</v>
       </c>
       <c r="E184" t="n">
-        <v>11875866</v>
+        <v>11877366</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15845</v>
+        <v>15863</v>
       </c>
       <c r="D185" t="n">
         <v>5058</v>
       </c>
       <c r="E185" t="n">
-        <v>22878001</v>
+        <v>22928129</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="D186" t="n">
         <v>767</v>
       </c>
       <c r="E186" t="n">
-        <v>3737936</v>
+        <v>3739871</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11529</v>
+        <v>11554</v>
       </c>
       <c r="D187" t="n">
         <v>2410</v>
       </c>
       <c r="E187" t="n">
-        <v>19681809</v>
+        <v>19759757</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D188" t="n">
         <v>383</v>
       </c>
       <c r="E188" t="n">
-        <v>2116249</v>
+        <v>2117699</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D190" t="n">
         <v>615</v>
       </c>
       <c r="E190" t="n">
-        <v>2836428</v>
+        <v>2837799</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5280</v>
+        <v>5287</v>
       </c>
       <c r="D191" t="n">
         <v>1761</v>
       </c>
       <c r="E191" t="n">
-        <v>8077529</v>
+        <v>8097129</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3596</v>
+        <v>3602</v>
       </c>
       <c r="D192" t="n">
         <v>1010</v>
       </c>
       <c r="E192" t="n">
-        <v>6784833</v>
+        <v>6797315</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4405</v>
+        <v>4410</v>
       </c>
       <c r="D193" t="n">
         <v>1229</v>
       </c>
       <c r="E193" t="n">
-        <v>5823258</v>
+        <v>5830448</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5442</v>
+        <v>5443</v>
       </c>
       <c r="D194" t="n">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="E194" t="n">
-        <v>7685514</v>
+        <v>7687014</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8338,13 +8338,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4384</v>
+        <v>4391</v>
       </c>
       <c r="D195" t="n">
         <v>866</v>
       </c>
       <c r="E195" t="n">
-        <v>7277887</v>
+        <v>7303249</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5704</v>
+        <v>5711</v>
       </c>
       <c r="D196" t="n">
         <v>1952</v>
       </c>
       <c r="E196" t="n">
-        <v>7385728</v>
+        <v>7395103</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8420,13 +8420,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2680</v>
+        <v>2697</v>
       </c>
       <c r="D197" t="n">
         <v>755</v>
       </c>
       <c r="E197" t="n">
-        <v>3690445</v>
+        <v>3717752</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2796</v>
+        <v>2810</v>
       </c>
       <c r="D198" t="n">
         <v>813</v>
       </c>
       <c r="E198" t="n">
-        <v>4533361</v>
+        <v>4589409</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3711</v>
+        <v>3716</v>
       </c>
       <c r="D201" t="n">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="E201" t="n">
-        <v>5871897</v>
+        <v>5888897</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8625,13 +8625,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7848</v>
+        <v>7879</v>
       </c>
       <c r="D202" t="n">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="E202" t="n">
-        <v>14985508</v>
+        <v>15081902</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="D203" t="n">
         <v>701</v>
       </c>
       <c r="E203" t="n">
-        <v>5469405</v>
+        <v>5471606</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8707,13 +8707,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6070</v>
+        <v>6103</v>
       </c>
       <c r="D204" t="n">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="E204" t="n">
-        <v>13585729</v>
+        <v>13722536</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D205" t="n">
         <v>228</v>
       </c>
       <c r="E205" t="n">
-        <v>1457834</v>
+        <v>1462037</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D206" t="n">
         <v>95</v>
       </c>
       <c r="E206" t="n">
-        <v>547738</v>
+        <v>548237</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="D207" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E207" t="n">
-        <v>1704244</v>
+        <v>1734611</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3545</v>
+        <v>3551</v>
       </c>
       <c r="D208" t="n">
         <v>1078</v>
       </c>
       <c r="E208" t="n">
-        <v>6132692</v>
+        <v>6143063</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3914</v>
+        <v>3927</v>
       </c>
       <c r="D209" t="n">
         <v>911</v>
       </c>
       <c r="E209" t="n">
-        <v>7087232</v>
+        <v>7121412</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="D210" t="n">
         <v>471</v>
       </c>
       <c r="E210" t="n">
-        <v>2945142</v>
+        <v>2972164</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="D211" t="n">
         <v>927</v>
       </c>
       <c r="E211" t="n">
-        <v>3057032</v>
+        <v>3069164</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="D212" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E212" t="n">
-        <v>3793423</v>
+        <v>3801983</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4125</v>
+        <v>4144</v>
       </c>
       <c r="D213" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E213" t="n">
-        <v>6722166</v>
+        <v>6808583</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6864</v>
+        <v>6886</v>
       </c>
       <c r="D214" t="n">
         <v>1074</v>
       </c>
       <c r="E214" t="n">
-        <v>16249630</v>
+        <v>16404580</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D215" t="n">
         <v>199</v>
       </c>
       <c r="E215" t="n">
-        <v>3018002</v>
+        <v>3029802</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3993</v>
+        <v>4003</v>
       </c>
       <c r="D217" t="n">
         <v>670</v>
       </c>
       <c r="E217" t="n">
-        <v>10437694</v>
+        <v>10499694</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18164</v>
+        <v>18202</v>
       </c>
       <c r="D218" t="n">
         <v>2755</v>
       </c>
       <c r="E218" t="n">
-        <v>45026174</v>
+        <v>45272549</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3525</v>
+        <v>3530</v>
       </c>
       <c r="D219" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E219" t="n">
-        <v>9279355</v>
+        <v>9315955</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="D220" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E220" t="n">
-        <v>4915587</v>
+        <v>4952487</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D222" t="n">
         <v>11</v>
       </c>
       <c r="E222" t="n">
-        <v>135014</v>
+        <v>145014</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9527,13 +9527,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D224" t="n">
         <v>127</v>
       </c>
       <c r="E224" t="n">
-        <v>1382044</v>
+        <v>1383544</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D225" t="n">
         <v>117</v>
       </c>
       <c r="E225" t="n">
-        <v>1841545</v>
+        <v>1853045</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9650,13 +9650,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D227" t="n">
         <v>90</v>
       </c>
       <c r="E227" t="n">
-        <v>644667</v>
+        <v>654667</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D228" t="n">
         <v>57</v>
       </c>
       <c r="E228" t="n">
-        <v>881825</v>
+        <v>883823</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4241</v>
+        <v>4262</v>
       </c>
       <c r="D230" t="n">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="E230" t="n">
-        <v>7183196</v>
+        <v>7225038</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9855,13 +9855,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>8005</v>
+        <v>8032</v>
       </c>
       <c r="D232" t="n">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="E232" t="n">
-        <v>12306877</v>
+        <v>12373703</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9978,13 +9978,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>18151</v>
+        <v>18191</v>
       </c>
       <c r="D235" t="n">
-        <v>8244</v>
+        <v>8246</v>
       </c>
       <c r="E235" t="n">
-        <v>27548215</v>
+        <v>27636669</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10019,13 +10019,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>40061</v>
+        <v>40223</v>
       </c>
       <c r="D236" t="n">
-        <v>12984</v>
+        <v>13012</v>
       </c>
       <c r="E236" t="n">
-        <v>81563181</v>
+        <v>82244968</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10060,13 +10060,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7840</v>
+        <v>7866</v>
       </c>
       <c r="D237" t="n">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="E237" t="n">
-        <v>14797207</v>
+        <v>14880242</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10101,13 +10101,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>41196</v>
+        <v>41346</v>
       </c>
       <c r="D238" t="n">
-        <v>8958</v>
+        <v>8969</v>
       </c>
       <c r="E238" t="n">
-        <v>141272063</v>
+        <v>142122066</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3401</v>
+        <v>3407</v>
       </c>
       <c r="D239" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E239" t="n">
-        <v>6106507</v>
+        <v>6115407</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10183,13 +10183,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="D240" t="n">
         <v>593</v>
       </c>
       <c r="E240" t="n">
-        <v>2905484</v>
+        <v>2925984</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10224,13 +10224,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5684</v>
+        <v>5710</v>
       </c>
       <c r="D241" t="n">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E241" t="n">
-        <v>10182829</v>
+        <v>10271500</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>17555</v>
+        <v>17623</v>
       </c>
       <c r="D242" t="n">
-        <v>5652</v>
+        <v>5662</v>
       </c>
       <c r="E242" t="n">
-        <v>35393294</v>
+        <v>35630873</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8283</v>
+        <v>8309</v>
       </c>
       <c r="D243" t="n">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="E243" t="n">
-        <v>15705732</v>
+        <v>15792744</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>10109</v>
+        <v>10143</v>
       </c>
       <c r="D244" t="n">
-        <v>2610</v>
+        <v>2615</v>
       </c>
       <c r="E244" t="n">
-        <v>16027520</v>
+        <v>16102460</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11899</v>
+        <v>11919</v>
       </c>
       <c r="D245" t="n">
-        <v>5383</v>
+        <v>5385</v>
       </c>
       <c r="E245" t="n">
-        <v>15642068</v>
+        <v>15660211</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10429,13 +10429,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>15906</v>
+        <v>15945</v>
       </c>
       <c r="D246" t="n">
-        <v>3422</v>
+        <v>3426</v>
       </c>
       <c r="E246" t="n">
-        <v>31582947</v>
+        <v>31733672</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10470,13 +10470,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29305</v>
+        <v>29435</v>
       </c>
       <c r="D247" t="n">
-        <v>8571</v>
+        <v>8580</v>
       </c>
       <c r="E247" t="n">
-        <v>51248909</v>
+        <v>51623729</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17538</v>
+        <v>17614</v>
       </c>
       <c r="D248" t="n">
-        <v>7138</v>
+        <v>7154</v>
       </c>
       <c r="E248" t="n">
-        <v>32353485</v>
+        <v>32585052</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D249" t="n">
         <v>31</v>
       </c>
       <c r="E249" t="n">
-        <v>126580</v>
+        <v>128080</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>24316</v>
+        <v>24372</v>
       </c>
       <c r="D250" t="n">
-        <v>8496</v>
+        <v>8500</v>
       </c>
       <c r="E250" t="n">
-        <v>35711878</v>
+        <v>35820317</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10675,13 +10675,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="D252" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E252" t="n">
-        <v>1880526</v>
+        <v>1893396</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10716,13 +10716,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>52201</v>
+        <v>52300</v>
       </c>
       <c r="D253" t="n">
-        <v>23482</v>
+        <v>23485</v>
       </c>
       <c r="E253" t="n">
-        <v>78975144</v>
+        <v>79221445</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>96614</v>
+        <v>96954</v>
       </c>
       <c r="D254" t="n">
-        <v>30942</v>
+        <v>30992</v>
       </c>
       <c r="E254" t="n">
-        <v>195496187</v>
+        <v>196912516</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10798,13 +10798,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>20159</v>
+        <v>20206</v>
       </c>
       <c r="D255" t="n">
-        <v>4886</v>
+        <v>4889</v>
       </c>
       <c r="E255" t="n">
-        <v>38948800</v>
+        <v>39103622</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,13 +10839,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>89599</v>
+        <v>89883</v>
       </c>
       <c r="D256" t="n">
-        <v>19292</v>
+        <v>19316</v>
       </c>
       <c r="E256" t="n">
-        <v>295090215</v>
+        <v>296675404</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10880,13 +10880,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9454</v>
+        <v>9479</v>
       </c>
       <c r="D257" t="n">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="E257" t="n">
-        <v>16988898</v>
+        <v>17074812</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10921,13 +10921,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4063</v>
+        <v>4075</v>
       </c>
       <c r="D258" t="n">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="E258" t="n">
-        <v>6496272</v>
+        <v>6521642</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10962,13 +10962,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>16124</v>
+        <v>16186</v>
       </c>
       <c r="D259" t="n">
-        <v>5577</v>
+        <v>5592</v>
       </c>
       <c r="E259" t="n">
-        <v>27591814</v>
+        <v>27791645</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11003,13 +11003,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>49893</v>
+        <v>50031</v>
       </c>
       <c r="D260" t="n">
-        <v>16337</v>
+        <v>16349</v>
       </c>
       <c r="E260" t="n">
-        <v>95366211</v>
+        <v>95810084</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>25283</v>
+        <v>25352</v>
       </c>
       <c r="D261" t="n">
-        <v>7785</v>
+        <v>7797</v>
       </c>
       <c r="E261" t="n">
-        <v>45738521</v>
+        <v>45932502</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11085,13 +11085,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>44453</v>
+        <v>54453</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11126,13 +11126,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>29827</v>
+        <v>29907</v>
       </c>
       <c r="D263" t="n">
-        <v>7520</v>
+        <v>7529</v>
       </c>
       <c r="E263" t="n">
-        <v>44006294</v>
+        <v>44217831</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>38565</v>
+        <v>38617</v>
       </c>
       <c r="D264" t="n">
-        <v>17001</v>
+        <v>17006</v>
       </c>
       <c r="E264" t="n">
-        <v>50826225</v>
+        <v>50894830</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>39581</v>
+        <v>39691</v>
       </c>
       <c r="D265" t="n">
-        <v>8415</v>
+        <v>8421</v>
       </c>
       <c r="E265" t="n">
-        <v>74295730</v>
+        <v>74624425</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>65900</v>
+        <v>66174</v>
       </c>
       <c r="D266" t="n">
-        <v>19631</v>
+        <v>19652</v>
       </c>
       <c r="E266" t="n">
-        <v>110004415</v>
+        <v>110842982</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>19011</v>
+        <v>19095</v>
       </c>
       <c r="D267" t="n">
-        <v>7006</v>
+        <v>7012</v>
       </c>
       <c r="E267" t="n">
-        <v>31340180</v>
+        <v>31520800</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>26854</v>
+        <v>26958</v>
       </c>
       <c r="D269" t="n">
-        <v>9171</v>
+        <v>9182</v>
       </c>
       <c r="E269" t="n">
-        <v>40008347</v>
+        <v>40207661</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11413,13 +11413,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D270" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E270" t="n">
-        <v>303746</v>
+        <v>305055</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11454,13 +11454,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D271" t="n">
         <v>346</v>
       </c>
       <c r="E271" t="n">
-        <v>1781731</v>
+        <v>1799721</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11495,13 +11495,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>71003</v>
+        <v>71135</v>
       </c>
       <c r="D272" t="n">
-        <v>29008</v>
+        <v>29024</v>
       </c>
       <c r="E272" t="n">
-        <v>106158205</v>
+        <v>106430356</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11536,13 +11536,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>112623</v>
+        <v>113035</v>
       </c>
       <c r="D273" t="n">
-        <v>34422</v>
+        <v>34470</v>
       </c>
       <c r="E273" t="n">
-        <v>221834007</v>
+        <v>223593723</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24610</v>
+        <v>24663</v>
       </c>
       <c r="D274" t="n">
-        <v>5734</v>
+        <v>5738</v>
       </c>
       <c r="E274" t="n">
-        <v>46044846</v>
+        <v>46222406</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11618,13 +11618,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>108950</v>
+        <v>109297</v>
       </c>
       <c r="D275" t="n">
-        <v>22321</v>
+        <v>22334</v>
       </c>
       <c r="E275" t="n">
-        <v>356165115</v>
+        <v>358059050</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11659,13 +11659,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>11810</v>
+        <v>11839</v>
       </c>
       <c r="D276" t="n">
-        <v>3458</v>
+        <v>3464</v>
       </c>
       <c r="E276" t="n">
-        <v>19509567</v>
+        <v>19594181</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11700,13 +11700,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4498</v>
+        <v>4510</v>
       </c>
       <c r="D277" t="n">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="E277" t="n">
-        <v>7316867</v>
+        <v>7348841</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11741,13 +11741,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>19389</v>
+        <v>19470</v>
       </c>
       <c r="D278" t="n">
-        <v>6260</v>
+        <v>6276</v>
       </c>
       <c r="E278" t="n">
-        <v>32947667</v>
+        <v>33168825</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>59329</v>
+        <v>59502</v>
       </c>
       <c r="D279" t="n">
-        <v>18760</v>
+        <v>18781</v>
       </c>
       <c r="E279" t="n">
-        <v>115343539</v>
+        <v>115891538</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>27948</v>
+        <v>28033</v>
       </c>
       <c r="D280" t="n">
-        <v>8585</v>
+        <v>8591</v>
       </c>
       <c r="E280" t="n">
-        <v>51013545</v>
+        <v>51324861</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11905,13 +11905,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>37316</v>
+        <v>37437</v>
       </c>
       <c r="D282" t="n">
-        <v>9551</v>
+        <v>9558</v>
       </c>
       <c r="E282" t="n">
-        <v>53199238</v>
+        <v>53435185</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11946,13 +11946,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>42836</v>
+        <v>42888</v>
       </c>
       <c r="D283" t="n">
-        <v>19167</v>
+        <v>19171</v>
       </c>
       <c r="E283" t="n">
-        <v>56658407</v>
+        <v>56745061</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +11987,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>47364</v>
+        <v>47517</v>
       </c>
       <c r="D284" t="n">
-        <v>9655</v>
+        <v>9665</v>
       </c>
       <c r="E284" t="n">
-        <v>90256563</v>
+        <v>90666942</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>68460</v>
+        <v>68741</v>
       </c>
       <c r="D285" t="n">
-        <v>19838</v>
+        <v>19867</v>
       </c>
       <c r="E285" t="n">
-        <v>108446492</v>
+        <v>109182954</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12069,13 +12069,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5511</v>
+        <v>5532</v>
       </c>
       <c r="D286" t="n">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="E286" t="n">
-        <v>9515940</v>
+        <v>9594873</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12110,13 +12110,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D287" t="n">
         <v>47</v>
       </c>
       <c r="E287" t="n">
-        <v>174553</v>
+        <v>175953</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10785</v>
+        <v>10816</v>
       </c>
       <c r="D288" t="n">
-        <v>3924</v>
+        <v>3931</v>
       </c>
       <c r="E288" t="n">
-        <v>15755751</v>
+        <v>15832608</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12233,13 +12233,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D290" t="n">
         <v>271</v>
       </c>
       <c r="E290" t="n">
-        <v>1202657</v>
+        <v>1204157</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20746</v>
+        <v>20777</v>
       </c>
       <c r="D291" t="n">
-        <v>9973</v>
+        <v>9979</v>
       </c>
       <c r="E291" t="n">
-        <v>31229501</v>
+        <v>31288569</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -12315,13 +12315,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>42469</v>
+        <v>42636</v>
       </c>
       <c r="D292" t="n">
-        <v>14062</v>
+        <v>14087</v>
       </c>
       <c r="E292" t="n">
-        <v>88342044</v>
+        <v>89114153</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>10436</v>
+        <v>10457</v>
       </c>
       <c r="D293" t="n">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="E293" t="n">
-        <v>21628422</v>
+        <v>21685636</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12397,13 +12397,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>43921</v>
+        <v>44034</v>
       </c>
       <c r="D294" t="n">
-        <v>9474</v>
+        <v>9484</v>
       </c>
       <c r="E294" t="n">
-        <v>154191708</v>
+        <v>154831319</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5426</v>
+        <v>5441</v>
       </c>
       <c r="D295" t="n">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="E295" t="n">
-        <v>9152904</v>
+        <v>9195607</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12479,13 +12479,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2557</v>
+        <v>2567</v>
       </c>
       <c r="D296" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E296" t="n">
-        <v>4268944</v>
+        <v>4300258</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8065</v>
+        <v>8095</v>
       </c>
       <c r="D297" t="n">
-        <v>2786</v>
+        <v>2797</v>
       </c>
       <c r="E297" t="n">
-        <v>13882693</v>
+        <v>14003023</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>26789</v>
+        <v>26874</v>
       </c>
       <c r="D298" t="n">
-        <v>8839</v>
+        <v>8853</v>
       </c>
       <c r="E298" t="n">
-        <v>54078885</v>
+        <v>54391716</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9822</v>
+        <v>9847</v>
       </c>
       <c r="D299" t="n">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="E299" t="n">
-        <v>20651417</v>
+        <v>20704170</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>12911</v>
+        <v>12953</v>
       </c>
       <c r="D300" t="n">
-        <v>3488</v>
+        <v>3494</v>
       </c>
       <c r="E300" t="n">
-        <v>20662789</v>
+        <v>20793723</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12684,13 +12684,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>21381</v>
+        <v>21400</v>
       </c>
       <c r="D301" t="n">
-        <v>9555</v>
+        <v>9556</v>
       </c>
       <c r="E301" t="n">
-        <v>28073549</v>
+        <v>28102132</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>21793</v>
+        <v>21852</v>
       </c>
       <c r="D302" t="n">
-        <v>4813</v>
+        <v>4814</v>
       </c>
       <c r="E302" t="n">
-        <v>43257388</v>
+        <v>43435355</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12766,13 +12766,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>33941</v>
+        <v>34097</v>
       </c>
       <c r="D303" t="n">
-        <v>10106</v>
+        <v>10119</v>
       </c>
       <c r="E303" t="n">
-        <v>61669709</v>
+        <v>62217947</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12807,13 +12807,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8188</v>
+        <v>8223</v>
       </c>
       <c r="D304" t="n">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="E304" t="n">
-        <v>14380898</v>
+        <v>14477579</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12889,13 +12889,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>26270</v>
+        <v>26361</v>
       </c>
       <c r="D306" t="n">
-        <v>8549</v>
+        <v>8561</v>
       </c>
       <c r="E306" t="n">
-        <v>41990044</v>
+        <v>42232206</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12930,13 +12930,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D307" t="n">
         <v>40</v>
       </c>
       <c r="E307" t="n">
-        <v>213035</v>
+        <v>214535</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D308" t="n">
         <v>167</v>
       </c>
       <c r="E308" t="n">
-        <v>718823</v>
+        <v>720323</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -13012,13 +13012,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>64205</v>
+        <v>64376</v>
       </c>
       <c r="D309" t="n">
-        <v>25413</v>
+        <v>25423</v>
       </c>
       <c r="E309" t="n">
-        <v>98540859</v>
+        <v>98910608</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -13053,13 +13053,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>122350</v>
+        <v>122863</v>
       </c>
       <c r="D310" t="n">
-        <v>36127</v>
+        <v>36189</v>
       </c>
       <c r="E310" t="n">
-        <v>247949035</v>
+        <v>250038702</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13094,13 +13094,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>45820</v>
+        <v>45927</v>
       </c>
       <c r="D311" t="n">
-        <v>8932</v>
+        <v>8936</v>
       </c>
       <c r="E311" t="n">
-        <v>93711805</v>
+        <v>94095614</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>110836</v>
+        <v>111175</v>
       </c>
       <c r="D312" t="n">
-        <v>22328</v>
+        <v>22351</v>
       </c>
       <c r="E312" t="n">
-        <v>392149890</v>
+        <v>394088436</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>12971</v>
+        <v>13009</v>
       </c>
       <c r="D313" t="n">
-        <v>3618</v>
+        <v>3625</v>
       </c>
       <c r="E313" t="n">
-        <v>23045501</v>
+        <v>23131115</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13217,13 +13217,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5234</v>
+        <v>5244</v>
       </c>
       <c r="D314" t="n">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E314" t="n">
-        <v>8756641</v>
+        <v>8770138</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13258,13 +13258,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>24702</v>
+        <v>24802</v>
       </c>
       <c r="D315" t="n">
-        <v>7598</v>
+        <v>7613</v>
       </c>
       <c r="E315" t="n">
-        <v>45794773</v>
+        <v>46173905</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>64355</v>
+        <v>64596</v>
       </c>
       <c r="D316" t="n">
-        <v>20040</v>
+        <v>20068</v>
       </c>
       <c r="E316" t="n">
-        <v>121749493</v>
+        <v>122578916</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>36312</v>
+        <v>36430</v>
       </c>
       <c r="D317" t="n">
-        <v>10388</v>
+        <v>10399</v>
       </c>
       <c r="E317" t="n">
-        <v>72980878</v>
+        <v>73337004</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>40475</v>
+        <v>40630</v>
       </c>
       <c r="D319" t="n">
-        <v>9877</v>
+        <v>9891</v>
       </c>
       <c r="E319" t="n">
-        <v>60299561</v>
+        <v>60613652</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13463,13 +13463,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>39593</v>
+        <v>39638</v>
       </c>
       <c r="D320" t="n">
-        <v>17231</v>
+        <v>17232</v>
       </c>
       <c r="E320" t="n">
-        <v>52520713</v>
+        <v>52601995</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13504,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>45034</v>
+        <v>45169</v>
       </c>
       <c r="D321" t="n">
-        <v>9063</v>
+        <v>9078</v>
       </c>
       <c r="E321" t="n">
-        <v>90142357</v>
+        <v>90551915</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>68065</v>
+        <v>68367</v>
       </c>
       <c r="D322" t="n">
-        <v>19410</v>
+        <v>19435</v>
       </c>
       <c r="E322" t="n">
-        <v>113281466</v>
+        <v>114100801</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16274</v>
+        <v>16371</v>
       </c>
       <c r="D2" t="n">
-        <v>6706</v>
+        <v>6721</v>
       </c>
       <c r="E2" t="n">
-        <v>26110654</v>
+        <v>26274804</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>25526</v>
+        <v>27026</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31355</v>
+        <v>31606</v>
       </c>
       <c r="D4" t="n">
-        <v>10965</v>
+        <v>10984</v>
       </c>
       <c r="E4" t="n">
-        <v>48717976</v>
+        <v>49200161</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>739306</v>
+        <v>743806</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1617</v>
+        <v>1634</v>
       </c>
       <c r="D6" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E6" t="n">
-        <v>2310144</v>
+        <v>2342415</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74067</v>
+        <v>74478</v>
       </c>
       <c r="D7" t="n">
-        <v>31189</v>
+        <v>31214</v>
       </c>
       <c r="E7" t="n">
-        <v>113648881</v>
+        <v>114338201</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>121755</v>
+        <v>122480</v>
       </c>
       <c r="D8" t="n">
-        <v>38396</v>
+        <v>38445</v>
       </c>
       <c r="E8" t="n">
-        <v>262225360</v>
+        <v>264459362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44828</v>
+        <v>45110</v>
       </c>
       <c r="D9" t="n">
-        <v>9605</v>
+        <v>9616</v>
       </c>
       <c r="E9" t="n">
-        <v>87881501</v>
+        <v>88771991</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134968</v>
+        <v>136815</v>
       </c>
       <c r="D10" t="n">
-        <v>27998</v>
+        <v>28059</v>
       </c>
       <c r="E10" t="n">
-        <v>485427196</v>
+        <v>504165921</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15482</v>
+        <v>15625</v>
       </c>
       <c r="D11" t="n">
-        <v>4530</v>
+        <v>4532</v>
       </c>
       <c r="E11" t="n">
-        <v>27120487</v>
+        <v>27646474</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5908</v>
+        <v>5977</v>
       </c>
       <c r="D12" t="n">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="E12" t="n">
-        <v>9751140</v>
+        <v>9881708</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23291</v>
+        <v>23494</v>
       </c>
       <c r="D13" t="n">
-        <v>7711</v>
+        <v>7731</v>
       </c>
       <c r="E13" t="n">
-        <v>42961609</v>
+        <v>43429607</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74357</v>
+        <v>75023</v>
       </c>
       <c r="D14" t="n">
-        <v>23795</v>
+        <v>23842</v>
       </c>
       <c r="E14" t="n">
-        <v>142998227</v>
+        <v>145233897</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35655</v>
+        <v>35905</v>
       </c>
       <c r="D15" t="n">
-        <v>10739</v>
+        <v>10753</v>
       </c>
       <c r="E15" t="n">
-        <v>70843326</v>
+        <v>71991895</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74491</v>
+        <v>75258</v>
       </c>
       <c r="D17" t="n">
-        <v>18476</v>
+        <v>18506</v>
       </c>
       <c r="E17" t="n">
-        <v>117449300</v>
+        <v>118971336</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>53965</v>
+        <v>54142</v>
       </c>
       <c r="D18" t="n">
-        <v>23485</v>
+        <v>23492</v>
       </c>
       <c r="E18" t="n">
-        <v>72224558</v>
+        <v>72443034</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60431</v>
+        <v>60939</v>
       </c>
       <c r="D19" t="n">
-        <v>12573</v>
+        <v>12597</v>
       </c>
       <c r="E19" t="n">
-        <v>119542007</v>
+        <v>121980905</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>81933</v>
+        <v>82194</v>
       </c>
       <c r="D20" t="n">
-        <v>23642</v>
+        <v>23659</v>
       </c>
       <c r="E20" t="n">
-        <v>143602758</v>
+        <v>144157971</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5674</v>
+        <v>5713</v>
       </c>
       <c r="D21" t="n">
-        <v>2427</v>
+        <v>2432</v>
       </c>
       <c r="E21" t="n">
-        <v>10144807</v>
+        <v>10293647</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8527</v>
+        <v>8579</v>
       </c>
       <c r="D23" t="n">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="E23" t="n">
-        <v>12750694</v>
+        <v>12841520</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="D25" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E25" t="n">
-        <v>1086667</v>
+        <v>1114732</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17429</v>
+        <v>17526</v>
       </c>
       <c r="D26" t="n">
-        <v>7845</v>
+        <v>7851</v>
       </c>
       <c r="E26" t="n">
-        <v>26089160</v>
+        <v>26249662</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36227</v>
+        <v>36460</v>
       </c>
       <c r="D27" t="n">
-        <v>11825</v>
+        <v>11841</v>
       </c>
       <c r="E27" t="n">
-        <v>74114337</v>
+        <v>74629520</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4779</v>
+        <v>4814</v>
       </c>
       <c r="D28" t="n">
         <v>1462</v>
       </c>
       <c r="E28" t="n">
-        <v>9281492</v>
+        <v>9474060</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37991</v>
+        <v>38558</v>
       </c>
       <c r="D29" t="n">
-        <v>7863</v>
+        <v>7880</v>
       </c>
       <c r="E29" t="n">
-        <v>125664765</v>
+        <v>130641734</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2756</v>
+        <v>2776</v>
       </c>
       <c r="D30" t="n">
         <v>813</v>
       </c>
       <c r="E30" t="n">
-        <v>4840097</v>
+        <v>4903985</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1282</v>
+        <v>1292</v>
       </c>
       <c r="D31" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E31" t="n">
-        <v>1991634</v>
+        <v>2005780</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4712</v>
+        <v>4747</v>
       </c>
       <c r="D32" t="n">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="E32" t="n">
-        <v>7963373</v>
+        <v>8024547</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14064</v>
+        <v>14189</v>
       </c>
       <c r="D33" t="n">
-        <v>4627</v>
+        <v>4634</v>
       </c>
       <c r="E33" t="n">
-        <v>27320526</v>
+        <v>27836569</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6969</v>
+        <v>7012</v>
       </c>
       <c r="D34" t="n">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="E34" t="n">
-        <v>13123044</v>
+        <v>13269710</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10647</v>
+        <v>10741</v>
       </c>
       <c r="D36" t="n">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="E36" t="n">
-        <v>16175621</v>
+        <v>16348699</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11785</v>
+        <v>11823</v>
       </c>
       <c r="D37" t="n">
-        <v>5245</v>
+        <v>5247</v>
       </c>
       <c r="E37" t="n">
-        <v>15620627</v>
+        <v>15665552</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14975</v>
+        <v>15096</v>
       </c>
       <c r="D38" t="n">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E38" t="n">
-        <v>28295690</v>
+        <v>28885242</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24933</v>
+        <v>25002</v>
       </c>
       <c r="D39" t="n">
-        <v>7190</v>
+        <v>7192</v>
       </c>
       <c r="E39" t="n">
-        <v>44357567</v>
+        <v>44465264</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4286</v>
+        <v>4312</v>
       </c>
       <c r="D40" t="n">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="E40" t="n">
-        <v>7031379</v>
+        <v>7083923</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11470</v>
+        <v>11530</v>
       </c>
       <c r="D42" t="n">
-        <v>4056</v>
+        <v>4059</v>
       </c>
       <c r="E42" t="n">
-        <v>16789443</v>
+        <v>16885519</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>44796</v>
+        <v>47796</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D44" t="n">
         <v>156</v>
       </c>
       <c r="E44" t="n">
-        <v>560554</v>
+        <v>566554</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18386</v>
+        <v>18485</v>
       </c>
       <c r="D45" t="n">
-        <v>8927</v>
+        <v>8937</v>
       </c>
       <c r="E45" t="n">
-        <v>27360982</v>
+        <v>27515992</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>38832</v>
+        <v>39034</v>
       </c>
       <c r="D46" t="n">
-        <v>12852</v>
+        <v>12868</v>
       </c>
       <c r="E46" t="n">
-        <v>84741701</v>
+        <v>85297293</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6569</v>
+        <v>6617</v>
       </c>
       <c r="D47" t="n">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="E47" t="n">
-        <v>12541423</v>
+        <v>12717819</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50288</v>
+        <v>51134</v>
       </c>
       <c r="D48" t="n">
-        <v>10883</v>
+        <v>10901</v>
       </c>
       <c r="E48" t="n">
-        <v>176006298</v>
+        <v>184343245</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4719</v>
+        <v>4770</v>
       </c>
       <c r="D49" t="n">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E49" t="n">
-        <v>8423198</v>
+        <v>8694129</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1692</v>
+        <v>1716</v>
       </c>
       <c r="D50" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E50" t="n">
-        <v>2918355</v>
+        <v>2953000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6610</v>
+        <v>6654</v>
       </c>
       <c r="D51" t="n">
-        <v>2312</v>
+        <v>2317</v>
       </c>
       <c r="E51" t="n">
-        <v>11187680</v>
+        <v>11271467</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21112</v>
+        <v>21319</v>
       </c>
       <c r="D52" t="n">
-        <v>7119</v>
+        <v>7135</v>
       </c>
       <c r="E52" t="n">
-        <v>42839539</v>
+        <v>44238688</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8485</v>
+        <v>8548</v>
       </c>
       <c r="D53" t="n">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="E53" t="n">
-        <v>16231297</v>
+        <v>16486412</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11649</v>
+        <v>11746</v>
       </c>
       <c r="D54" t="n">
-        <v>3049</v>
+        <v>3054</v>
       </c>
       <c r="E54" t="n">
-        <v>18712717</v>
+        <v>18896791</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19291</v>
+        <v>19353</v>
       </c>
       <c r="D55" t="n">
-        <v>8822</v>
+        <v>8824</v>
       </c>
       <c r="E55" t="n">
-        <v>25830306</v>
+        <v>25898273</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18132</v>
+        <v>18317</v>
       </c>
       <c r="D56" t="n">
-        <v>4070</v>
+        <v>4086</v>
       </c>
       <c r="E56" t="n">
-        <v>34615237</v>
+        <v>35469093</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>28028</v>
+        <v>28091</v>
       </c>
       <c r="D57" t="n">
-        <v>8383</v>
+        <v>8393</v>
       </c>
       <c r="E57" t="n">
-        <v>50879293</v>
+        <v>50975296</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4002</v>
+        <v>4026</v>
       </c>
       <c r="D58" t="n">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="E58" t="n">
-        <v>7310873</v>
+        <v>7373628</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7340</v>
+        <v>7385</v>
       </c>
       <c r="D59" t="n">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="E59" t="n">
-        <v>11050882</v>
+        <v>11127096</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D61" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E61" t="n">
-        <v>545241</v>
+        <v>560064</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16890</v>
+        <v>16967</v>
       </c>
       <c r="D62" t="n">
-        <v>7579</v>
+        <v>7583</v>
       </c>
       <c r="E62" t="n">
-        <v>25697673</v>
+        <v>25832075</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29085</v>
+        <v>29233</v>
       </c>
       <c r="D63" t="n">
-        <v>9563</v>
+        <v>9574</v>
       </c>
       <c r="E63" t="n">
-        <v>58531728</v>
+        <v>58825799</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7318</v>
+        <v>7352</v>
       </c>
       <c r="D64" t="n">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E64" t="n">
-        <v>14346350</v>
+        <v>14445466</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30223</v>
+        <v>30637</v>
       </c>
       <c r="D65" t="n">
-        <v>6310</v>
+        <v>6340</v>
       </c>
       <c r="E65" t="n">
-        <v>98390828</v>
+        <v>102195008</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3058</v>
+        <v>3085</v>
       </c>
       <c r="D66" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E66" t="n">
-        <v>5541100</v>
+        <v>5641903</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="D67" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E67" t="n">
-        <v>1870792</v>
+        <v>1903249</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4906</v>
+        <v>4934</v>
       </c>
       <c r="D68" t="n">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="E68" t="n">
-        <v>8453579</v>
+        <v>8501242</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13216</v>
+        <v>13335</v>
       </c>
       <c r="D69" t="n">
-        <v>4263</v>
+        <v>4273</v>
       </c>
       <c r="E69" t="n">
-        <v>25172277</v>
+        <v>25741844</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7049</v>
+        <v>7092</v>
       </c>
       <c r="D70" t="n">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="E70" t="n">
-        <v>13534488</v>
+        <v>13684181</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8345</v>
+        <v>8397</v>
       </c>
       <c r="D71" t="n">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="E71" t="n">
-        <v>13602851</v>
+        <v>13708534</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9996</v>
+        <v>10026</v>
       </c>
       <c r="D72" t="n">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="E72" t="n">
-        <v>13118714</v>
+        <v>13154387</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13298</v>
+        <v>13430</v>
       </c>
       <c r="D73" t="n">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="E73" t="n">
-        <v>26555006</v>
+        <v>27129285</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22018</v>
+        <v>22090</v>
       </c>
       <c r="D74" t="n">
-        <v>6524</v>
+        <v>6531</v>
       </c>
       <c r="E74" t="n">
-        <v>38878800</v>
+        <v>39009803</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3506</v>
+        <v>3525</v>
       </c>
       <c r="D75" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E75" t="n">
-        <v>5623116</v>
+        <v>5669032</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2905</v>
+        <v>2928</v>
       </c>
       <c r="D76" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E76" t="n">
-        <v>4769051</v>
+        <v>4797856</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6031</v>
+        <v>6070</v>
       </c>
       <c r="D78" t="n">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="E78" t="n">
-        <v>9182499</v>
+        <v>9241279</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8542</v>
+        <v>8602</v>
       </c>
       <c r="D79" t="n">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="E79" t="n">
-        <v>20183728</v>
+        <v>20342717</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1470</v>
+        <v>1478</v>
       </c>
       <c r="D80" t="n">
         <v>388</v>
       </c>
       <c r="E80" t="n">
-        <v>3504794</v>
+        <v>3551537</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12541</v>
+        <v>12754</v>
       </c>
       <c r="D81" t="n">
-        <v>2637</v>
+        <v>2645</v>
       </c>
       <c r="E81" t="n">
-        <v>45033015</v>
+        <v>46920745</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3705,13 +3705,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="D82" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E82" t="n">
-        <v>1397540</v>
+        <v>1406465</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" t="n">
         <v>66</v>
       </c>
       <c r="E83" t="n">
-        <v>338691</v>
+        <v>340191</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2270</v>
+        <v>2284</v>
       </c>
       <c r="D84" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" t="n">
-        <v>4426480</v>
+        <v>4485830</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5943</v>
+        <v>5986</v>
       </c>
       <c r="D85" t="n">
         <v>1742</v>
       </c>
       <c r="E85" t="n">
-        <v>15362821</v>
+        <v>15621006</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3212</v>
+        <v>3238</v>
       </c>
       <c r="D86" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E86" t="n">
-        <v>5997552</v>
+        <v>6084351</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1796</v>
+        <v>1815</v>
       </c>
       <c r="D87" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E87" t="n">
-        <v>2804102</v>
+        <v>2851297</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2095</v>
+        <v>2101</v>
       </c>
       <c r="D88" t="n">
         <v>912</v>
       </c>
       <c r="E88" t="n">
-        <v>2808377</v>
+        <v>2813255</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2492</v>
+        <v>2527</v>
       </c>
       <c r="D89" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E89" t="n">
-        <v>5720256</v>
+        <v>5864366</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4438</v>
+        <v>4456</v>
       </c>
       <c r="D90" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E90" t="n">
-        <v>7337967</v>
+        <v>7362858</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19711</v>
+        <v>19981</v>
       </c>
       <c r="D91" t="n">
-        <v>10671</v>
+        <v>10749</v>
       </c>
       <c r="E91" t="n">
-        <v>74040952</v>
+        <v>75036053</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15199</v>
+        <v>15316</v>
       </c>
       <c r="D93" t="n">
-        <v>5444</v>
+        <v>5458</v>
       </c>
       <c r="E93" t="n">
-        <v>25178338</v>
+        <v>25465340</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="D95" t="n">
         <v>521</v>
       </c>
       <c r="E95" t="n">
-        <v>2511260</v>
+        <v>2529998</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>36080</v>
+        <v>36303</v>
       </c>
       <c r="D96" t="n">
-        <v>15470</v>
+        <v>15490</v>
       </c>
       <c r="E96" t="n">
-        <v>54774934</v>
+        <v>55165780</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>67065</v>
+        <v>67510</v>
       </c>
       <c r="D97" t="n">
-        <v>21781</v>
+        <v>21809</v>
       </c>
       <c r="E97" t="n">
-        <v>138468067</v>
+        <v>139717088</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14381</v>
+        <v>14476</v>
       </c>
       <c r="D98" t="n">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="E98" t="n">
-        <v>26520480</v>
+        <v>26855114</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>64427</v>
+        <v>65582</v>
       </c>
       <c r="D99" t="n">
-        <v>13491</v>
+        <v>13513</v>
       </c>
       <c r="E99" t="n">
-        <v>234923885</v>
+        <v>246786901</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6135</v>
+        <v>6182</v>
       </c>
       <c r="D100" t="n">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E100" t="n">
-        <v>10734043</v>
+        <v>10875901</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2808</v>
+        <v>2828</v>
       </c>
       <c r="D101" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E101" t="n">
-        <v>4468670</v>
+        <v>4511486</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8839</v>
+        <v>8898</v>
       </c>
       <c r="D102" t="n">
-        <v>2913</v>
+        <v>2918</v>
       </c>
       <c r="E102" t="n">
-        <v>15369399</v>
+        <v>15474693</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30795</v>
+        <v>31068</v>
       </c>
       <c r="D103" t="n">
-        <v>10076</v>
+        <v>10085</v>
       </c>
       <c r="E103" t="n">
-        <v>57648805</v>
+        <v>58434882</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13830</v>
+        <v>13940</v>
       </c>
       <c r="D104" t="n">
-        <v>4332</v>
+        <v>4338</v>
       </c>
       <c r="E104" t="n">
-        <v>26603134</v>
+        <v>27000844</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17457</v>
+        <v>17611</v>
       </c>
       <c r="D106" t="n">
-        <v>4564</v>
+        <v>4571</v>
       </c>
       <c r="E106" t="n">
-        <v>27851827</v>
+        <v>28182598</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24132</v>
+        <v>24204</v>
       </c>
       <c r="D107" t="n">
-        <v>11001</v>
+        <v>11004</v>
       </c>
       <c r="E107" t="n">
-        <v>32820496</v>
+        <v>32921797</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>25201</v>
+        <v>25446</v>
       </c>
       <c r="D108" t="n">
-        <v>5107</v>
+        <v>5112</v>
       </c>
       <c r="E108" t="n">
-        <v>48511884</v>
+        <v>49506515</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>50441</v>
+        <v>50575</v>
       </c>
       <c r="D109" t="n">
-        <v>14544</v>
+        <v>14550</v>
       </c>
       <c r="E109" t="n">
-        <v>87968333</v>
+        <v>88219922</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10605</v>
+        <v>10694</v>
       </c>
       <c r="D110" t="n">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="E110" t="n">
-        <v>16874077</v>
+        <v>17016853</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4055</v>
+        <v>4068</v>
       </c>
       <c r="D111" t="n">
         <v>1170</v>
       </c>
       <c r="E111" t="n">
-        <v>6417386</v>
+        <v>6457808</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D113" t="n">
         <v>24</v>
       </c>
       <c r="E113" t="n">
-        <v>93500</v>
+        <v>95000</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5943</v>
+        <v>5966</v>
       </c>
       <c r="D114" t="n">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="E114" t="n">
-        <v>9063060</v>
+        <v>9098092</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10740</v>
+        <v>10772</v>
       </c>
       <c r="D115" t="n">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E115" t="n">
-        <v>17066273</v>
+        <v>17126604</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3373</v>
+        <v>3392</v>
       </c>
       <c r="D116" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E116" t="n">
-        <v>5496026</v>
+        <v>5547166</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11691</v>
+        <v>11722</v>
       </c>
       <c r="D117" t="n">
         <v>1993</v>
       </c>
       <c r="E117" t="n">
-        <v>21553139</v>
+        <v>21652975</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D118" t="n">
         <v>292</v>
       </c>
       <c r="E118" t="n">
-        <v>1798771</v>
+        <v>1801771</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="D120" t="n">
         <v>422</v>
       </c>
       <c r="E120" t="n">
-        <v>2263666</v>
+        <v>2268480</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4067</v>
+        <v>4090</v>
       </c>
       <c r="D121" t="n">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="E121" t="n">
-        <v>6346791</v>
+        <v>6389831</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6110</v>
+        <v>6130</v>
       </c>
       <c r="D122" t="n">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E122" t="n">
-        <v>10833719</v>
+        <v>10885321</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2414</v>
+        <v>2419</v>
       </c>
       <c r="D123" t="n">
         <v>648</v>
       </c>
       <c r="E123" t="n">
-        <v>3273519</v>
+        <v>3280264</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2445</v>
+        <v>2450</v>
       </c>
       <c r="D124" t="n">
         <v>1003</v>
       </c>
       <c r="E124" t="n">
-        <v>3555785</v>
+        <v>3563285</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2613</v>
+        <v>2620</v>
       </c>
       <c r="D125" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E125" t="n">
-        <v>4667675</v>
+        <v>4693297</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="D126" t="n">
         <v>1104</v>
       </c>
       <c r="E126" t="n">
-        <v>5149910</v>
+        <v>5156553</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4378</v>
+        <v>4389</v>
       </c>
       <c r="D127" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E127" t="n">
-        <v>7761046</v>
+        <v>7784790</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="D129" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E129" t="n">
-        <v>4260721</v>
+        <v>4275421</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5483</v>
+        <v>5511</v>
       </c>
       <c r="D131" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E131" t="n">
-        <v>12735438</v>
+        <v>12803284</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4694</v>
+        <v>4709</v>
       </c>
       <c r="D132" t="n">
         <v>951</v>
       </c>
       <c r="E132" t="n">
-        <v>10041223</v>
+        <v>10061807</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="D133" t="n">
         <v>286</v>
       </c>
       <c r="E133" t="n">
-        <v>3629188</v>
+        <v>3633688</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3487</v>
+        <v>3506</v>
       </c>
       <c r="D134" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E134" t="n">
-        <v>7999389</v>
+        <v>8043477</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5878,13 +5878,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D135" t="n">
         <v>82</v>
       </c>
       <c r="E135" t="n">
-        <v>1015657</v>
+        <v>1017157</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D137" t="n">
         <v>78</v>
       </c>
       <c r="E137" t="n">
-        <v>789061</v>
+        <v>790561</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1943</v>
+        <v>1949</v>
       </c>
       <c r="D138" t="n">
         <v>416</v>
       </c>
       <c r="E138" t="n">
-        <v>4031434</v>
+        <v>4040084</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2158</v>
+        <v>2167</v>
       </c>
       <c r="D139" t="n">
         <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>4916719</v>
+        <v>4947219</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6083,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="D140" t="n">
         <v>152</v>
       </c>
       <c r="E140" t="n">
-        <v>1455104</v>
+        <v>1468034</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D141" t="n">
         <v>237</v>
       </c>
       <c r="E141" t="n">
-        <v>1434654</v>
+        <v>1442154</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D142" t="n">
         <v>133</v>
       </c>
       <c r="E142" t="n">
-        <v>1755083</v>
+        <v>1778740</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D143" t="n">
         <v>279</v>
       </c>
       <c r="E143" t="n">
-        <v>2781042</v>
+        <v>2791292</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4580</v>
+        <v>4622</v>
       </c>
       <c r="D144" t="n">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="E144" t="n">
-        <v>10289404</v>
+        <v>10446699</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11482</v>
+        <v>11562</v>
       </c>
       <c r="D146" t="n">
-        <v>4056</v>
+        <v>4062</v>
       </c>
       <c r="E146" t="n">
-        <v>17139146</v>
+        <v>17249623</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D148" t="n">
         <v>233</v>
       </c>
       <c r="E148" t="n">
-        <v>903947</v>
+        <v>905540</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>29863</v>
+        <v>30019</v>
       </c>
       <c r="D149" t="n">
-        <v>12786</v>
+        <v>12797</v>
       </c>
       <c r="E149" t="n">
-        <v>44933498</v>
+        <v>45173634</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>63949</v>
+        <v>64292</v>
       </c>
       <c r="D150" t="n">
-        <v>20318</v>
+        <v>20329</v>
       </c>
       <c r="E150" t="n">
-        <v>123823713</v>
+        <v>124492885</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23598</v>
+        <v>23724</v>
       </c>
       <c r="D151" t="n">
-        <v>5063</v>
+        <v>5067</v>
       </c>
       <c r="E151" t="n">
-        <v>42390371</v>
+        <v>42722995</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>60851</v>
+        <v>61684</v>
       </c>
       <c r="D152" t="n">
-        <v>12798</v>
+        <v>12829</v>
       </c>
       <c r="E152" t="n">
-        <v>203916521</v>
+        <v>212310735</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6034</v>
+        <v>6079</v>
       </c>
       <c r="D153" t="n">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="E153" t="n">
-        <v>10700147</v>
+        <v>10890309</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2832</v>
+        <v>2865</v>
       </c>
       <c r="D154" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E154" t="n">
-        <v>4543432</v>
+        <v>4607755</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7726</v>
+        <v>7777</v>
       </c>
       <c r="D155" t="n">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E155" t="n">
-        <v>14138158</v>
+        <v>14224177</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>29920</v>
+        <v>30189</v>
       </c>
       <c r="D156" t="n">
-        <v>9518</v>
+        <v>9544</v>
       </c>
       <c r="E156" t="n">
-        <v>56691594</v>
+        <v>57731521</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13388</v>
+        <v>13483</v>
       </c>
       <c r="D157" t="n">
-        <v>4056</v>
+        <v>4064</v>
       </c>
       <c r="E157" t="n">
-        <v>25276910</v>
+        <v>25602198</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15181</v>
+        <v>15270</v>
       </c>
       <c r="D158" t="n">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="E158" t="n">
-        <v>24462132</v>
+        <v>24597895</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24511</v>
+        <v>24566</v>
       </c>
       <c r="D159" t="n">
-        <v>11294</v>
+        <v>11300</v>
       </c>
       <c r="E159" t="n">
-        <v>33150388</v>
+        <v>33226682</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24583</v>
+        <v>24833</v>
       </c>
       <c r="D160" t="n">
-        <v>4974</v>
+        <v>4982</v>
       </c>
       <c r="E160" t="n">
-        <v>48886375</v>
+        <v>50138863</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>47353</v>
+        <v>47471</v>
       </c>
       <c r="D161" t="n">
-        <v>13803</v>
+        <v>13810</v>
       </c>
       <c r="E161" t="n">
-        <v>77787459</v>
+        <v>77972053</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="D162" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E162" t="n">
-        <v>2708565</v>
+        <v>2722381</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>32871</v>
+        <v>33065</v>
       </c>
       <c r="D163" t="n">
-        <v>10482</v>
+        <v>10495</v>
       </c>
       <c r="E163" t="n">
-        <v>57529079</v>
+        <v>57922125</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D164" t="n">
         <v>149</v>
       </c>
       <c r="E164" t="n">
-        <v>1622270</v>
+        <v>1646770</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="D165" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E165" t="n">
-        <v>2351086</v>
+        <v>2380959</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>81021</v>
+        <v>81440</v>
       </c>
       <c r="D166" t="n">
-        <v>31278</v>
+        <v>31314</v>
       </c>
       <c r="E166" t="n">
-        <v>133530291</v>
+        <v>134353151</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>184180</v>
+        <v>185316</v>
       </c>
       <c r="D167" t="n">
-        <v>54976</v>
+        <v>55055</v>
       </c>
       <c r="E167" t="n">
-        <v>408204795</v>
+        <v>412131151</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>356150</v>
+        <v>357401</v>
       </c>
       <c r="D168" t="n">
-        <v>59220</v>
+        <v>59261</v>
       </c>
       <c r="E168" t="n">
-        <v>707011253</v>
+        <v>710453956</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>178677</v>
+        <v>180738</v>
       </c>
       <c r="D169" t="n">
-        <v>35714</v>
+        <v>35802</v>
       </c>
       <c r="E169" t="n">
-        <v>718365241</v>
+        <v>745738333</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>68616</v>
+        <v>69150</v>
       </c>
       <c r="D170" t="n">
-        <v>18488</v>
+        <v>18532</v>
       </c>
       <c r="E170" t="n">
-        <v>141820333</v>
+        <v>143686004</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13527</v>
+        <v>13685</v>
       </c>
       <c r="D171" t="n">
-        <v>4032</v>
+        <v>4043</v>
       </c>
       <c r="E171" t="n">
-        <v>25671274</v>
+        <v>25976373</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33987</v>
+        <v>34330</v>
       </c>
       <c r="D172" t="n">
-        <v>10775</v>
+        <v>10806</v>
       </c>
       <c r="E172" t="n">
-        <v>69673232</v>
+        <v>70409576</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>224408</v>
+        <v>226205</v>
       </c>
       <c r="D173" t="n">
-        <v>65430</v>
+        <v>65566</v>
       </c>
       <c r="E173" t="n">
-        <v>406118722</v>
+        <v>411236042</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>72128</v>
+        <v>72589</v>
       </c>
       <c r="D174" t="n">
-        <v>16721</v>
+        <v>16757</v>
       </c>
       <c r="E174" t="n">
-        <v>173802866</v>
+        <v>176296507</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>63584</v>
+        <v>63980</v>
       </c>
       <c r="D176" t="n">
-        <v>15860</v>
+        <v>15884</v>
       </c>
       <c r="E176" t="n">
-        <v>97429059</v>
+        <v>98116304</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>66632</v>
+        <v>66856</v>
       </c>
       <c r="D177" t="n">
-        <v>28562</v>
+        <v>28569</v>
       </c>
       <c r="E177" t="n">
-        <v>90423764</v>
+        <v>90707873</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>135073</v>
+        <v>136123</v>
       </c>
       <c r="D178" t="n">
-        <v>27160</v>
+        <v>27207</v>
       </c>
       <c r="E178" t="n">
-        <v>267493395</v>
+        <v>272669555</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>98973</v>
+        <v>99417</v>
       </c>
       <c r="D179" t="n">
-        <v>27919</v>
+        <v>27949</v>
       </c>
       <c r="E179" t="n">
-        <v>192943194</v>
+        <v>193904141</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6010</v>
+        <v>6040</v>
       </c>
       <c r="D180" t="n">
         <v>1733</v>
       </c>
       <c r="E180" t="n">
-        <v>8304653</v>
+        <v>8364745</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4813</v>
+        <v>4826</v>
       </c>
       <c r="D181" t="n">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E181" t="n">
-        <v>6736832</v>
+        <v>6777088</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8029</v>
+        <v>8041</v>
       </c>
       <c r="D184" t="n">
         <v>3204</v>
       </c>
       <c r="E184" t="n">
-        <v>11877366</v>
+        <v>11912689</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15863</v>
+        <v>15900</v>
       </c>
       <c r="D185" t="n">
         <v>5058</v>
       </c>
       <c r="E185" t="n">
-        <v>22928129</v>
+        <v>23010856</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2409</v>
+        <v>2417</v>
       </c>
       <c r="D186" t="n">
         <v>767</v>
       </c>
       <c r="E186" t="n">
-        <v>3739871</v>
+        <v>3753392</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11554</v>
+        <v>11594</v>
       </c>
       <c r="D187" t="n">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="E187" t="n">
-        <v>19759757</v>
+        <v>19908554</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="D188" t="n">
         <v>383</v>
       </c>
       <c r="E188" t="n">
-        <v>2117699</v>
+        <v>2132361</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="D190" t="n">
         <v>615</v>
       </c>
       <c r="E190" t="n">
-        <v>2837799</v>
+        <v>2845468</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5287</v>
+        <v>5309</v>
       </c>
       <c r="D191" t="n">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E191" t="n">
-        <v>8097129</v>
+        <v>8138296</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3602</v>
+        <v>3610</v>
       </c>
       <c r="D192" t="n">
         <v>1010</v>
       </c>
       <c r="E192" t="n">
-        <v>6797315</v>
+        <v>6827996</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4410</v>
+        <v>4426</v>
       </c>
       <c r="D193" t="n">
         <v>1229</v>
       </c>
       <c r="E193" t="n">
-        <v>5830448</v>
+        <v>5848862</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5443</v>
+        <v>5454</v>
       </c>
       <c r="D194" t="n">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E194" t="n">
-        <v>7687014</v>
+        <v>7703514</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8338,13 +8338,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4391</v>
+        <v>4411</v>
       </c>
       <c r="D195" t="n">
         <v>866</v>
       </c>
       <c r="E195" t="n">
-        <v>7303249</v>
+        <v>7366970</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5711</v>
+        <v>5726</v>
       </c>
       <c r="D196" t="n">
         <v>1952</v>
       </c>
       <c r="E196" t="n">
-        <v>7395103</v>
+        <v>7415818</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8420,13 +8420,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2697</v>
+        <v>2720</v>
       </c>
       <c r="D197" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E197" t="n">
-        <v>3717752</v>
+        <v>3747946</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2810</v>
+        <v>2820</v>
       </c>
       <c r="D198" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E198" t="n">
-        <v>4589409</v>
+        <v>4602399</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3716</v>
+        <v>3722</v>
       </c>
       <c r="D201" t="n">
         <v>1360</v>
       </c>
       <c r="E201" t="n">
-        <v>5888897</v>
+        <v>5904954</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8625,13 +8625,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7879</v>
+        <v>7915</v>
       </c>
       <c r="D202" t="n">
         <v>2172</v>
       </c>
       <c r="E202" t="n">
-        <v>15081902</v>
+        <v>15147873</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3018</v>
+        <v>3032</v>
       </c>
       <c r="D203" t="n">
         <v>701</v>
       </c>
       <c r="E203" t="n">
-        <v>5471606</v>
+        <v>5516859</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8707,13 +8707,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6103</v>
+        <v>6140</v>
       </c>
       <c r="D204" t="n">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="E204" t="n">
-        <v>13722536</v>
+        <v>13969173</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D205" t="n">
         <v>228</v>
       </c>
       <c r="E205" t="n">
-        <v>1462037</v>
+        <v>1476774</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D206" t="n">
         <v>95</v>
       </c>
       <c r="E206" t="n">
-        <v>548237</v>
+        <v>549737</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D207" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E207" t="n">
-        <v>1734611</v>
+        <v>1745214</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3551</v>
+        <v>3567</v>
       </c>
       <c r="D208" t="n">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E208" t="n">
-        <v>6143063</v>
+        <v>6188224</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3927</v>
+        <v>3939</v>
       </c>
       <c r="D209" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E209" t="n">
-        <v>7121412</v>
+        <v>7155764</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D210" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E210" t="n">
-        <v>2972164</v>
+        <v>2995225</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2148</v>
+        <v>2154</v>
       </c>
       <c r="D211" t="n">
         <v>927</v>
       </c>
       <c r="E211" t="n">
-        <v>3069164</v>
+        <v>3077832</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="D212" t="n">
         <v>367</v>
       </c>
       <c r="E212" t="n">
-        <v>3801983</v>
+        <v>3816542</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4144</v>
+        <v>4155</v>
       </c>
       <c r="D213" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E213" t="n">
-        <v>6808583</v>
+        <v>6825934</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6886</v>
+        <v>6915</v>
       </c>
       <c r="D214" t="n">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E214" t="n">
-        <v>16404580</v>
+        <v>16456617</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4003</v>
+        <v>4020</v>
       </c>
       <c r="D217" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E217" t="n">
-        <v>10499694</v>
+        <v>10538494</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18202</v>
+        <v>18250</v>
       </c>
       <c r="D218" t="n">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E218" t="n">
-        <v>45272549</v>
+        <v>45399004</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="D219" t="n">
         <v>518</v>
       </c>
       <c r="E219" t="n">
-        <v>9315955</v>
+        <v>9323455</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="D220" t="n">
         <v>306</v>
       </c>
       <c r="E220" t="n">
-        <v>4952487</v>
+        <v>4956359</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D225" t="n">
         <v>117</v>
       </c>
       <c r="E225" t="n">
-        <v>1853045</v>
+        <v>1883805</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9650,13 +9650,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D227" t="n">
         <v>90</v>
       </c>
       <c r="E227" t="n">
-        <v>654667</v>
+        <v>657667</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D228" t="n">
         <v>57</v>
       </c>
       <c r="E228" t="n">
-        <v>883823</v>
+        <v>893823</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9732,13 +9732,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D229" t="n">
         <v>110</v>
       </c>
       <c r="E229" t="n">
-        <v>1415844</v>
+        <v>1418844</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4262</v>
+        <v>4280</v>
       </c>
       <c r="D230" t="n">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="E230" t="n">
-        <v>7225038</v>
+        <v>7247429</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9855,13 +9855,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>8032</v>
+        <v>8070</v>
       </c>
       <c r="D232" t="n">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="E232" t="n">
-        <v>12373703</v>
+        <v>12443190</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9937,13 +9937,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D234" t="n">
         <v>151</v>
       </c>
       <c r="E234" t="n">
-        <v>498603</v>
+        <v>499303</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9978,13 +9978,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>18191</v>
+        <v>18277</v>
       </c>
       <c r="D235" t="n">
-        <v>8246</v>
+        <v>8252</v>
       </c>
       <c r="E235" t="n">
-        <v>27636669</v>
+        <v>27754309</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10019,13 +10019,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>40223</v>
+        <v>40422</v>
       </c>
       <c r="D236" t="n">
-        <v>13012</v>
+        <v>13027</v>
       </c>
       <c r="E236" t="n">
-        <v>82244968</v>
+        <v>82773224</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10060,13 +10060,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7866</v>
+        <v>7905</v>
       </c>
       <c r="D237" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="E237" t="n">
-        <v>14880242</v>
+        <v>15052857</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10101,13 +10101,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>41346</v>
+        <v>41946</v>
       </c>
       <c r="D238" t="n">
-        <v>8969</v>
+        <v>8984</v>
       </c>
       <c r="E238" t="n">
-        <v>142122066</v>
+        <v>147789596</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3407</v>
+        <v>3428</v>
       </c>
       <c r="D239" t="n">
         <v>1008</v>
       </c>
       <c r="E239" t="n">
-        <v>6115407</v>
+        <v>6182584</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10183,13 +10183,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1751</v>
+        <v>1773</v>
       </c>
       <c r="D240" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E240" t="n">
-        <v>2925984</v>
+        <v>2964803</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10224,13 +10224,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5710</v>
+        <v>5754</v>
       </c>
       <c r="D241" t="n">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="E241" t="n">
-        <v>10271500</v>
+        <v>10361076</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>17623</v>
+        <v>17748</v>
       </c>
       <c r="D242" t="n">
-        <v>5662</v>
+        <v>5669</v>
       </c>
       <c r="E242" t="n">
-        <v>35630873</v>
+        <v>36163104</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8309</v>
+        <v>8357</v>
       </c>
       <c r="D243" t="n">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="E243" t="n">
-        <v>15792744</v>
+        <v>15984594</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>10143</v>
+        <v>10209</v>
       </c>
       <c r="D244" t="n">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="E244" t="n">
-        <v>16102460</v>
+        <v>16251460</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11919</v>
+        <v>11960</v>
       </c>
       <c r="D245" t="n">
         <v>5385</v>
       </c>
       <c r="E245" t="n">
-        <v>15660211</v>
+        <v>15707638</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10429,13 +10429,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>15945</v>
+        <v>16095</v>
       </c>
       <c r="D246" t="n">
-        <v>3426</v>
+        <v>3433</v>
       </c>
       <c r="E246" t="n">
-        <v>31733672</v>
+        <v>32542563</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10470,13 +10470,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29435</v>
+        <v>29509</v>
       </c>
       <c r="D247" t="n">
-        <v>8580</v>
+        <v>8583</v>
       </c>
       <c r="E247" t="n">
-        <v>51623729</v>
+        <v>51723830</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17614</v>
+        <v>17727</v>
       </c>
       <c r="D248" t="n">
-        <v>7154</v>
+        <v>7175</v>
       </c>
       <c r="E248" t="n">
-        <v>32585052</v>
+        <v>33001865</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10552,13 +10552,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D249" t="n">
         <v>31</v>
       </c>
       <c r="E249" t="n">
-        <v>128080</v>
+        <v>129580</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>24372</v>
+        <v>24503</v>
       </c>
       <c r="D250" t="n">
-        <v>8500</v>
+        <v>8513</v>
       </c>
       <c r="E250" t="n">
-        <v>35820317</v>
+        <v>36098714</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10675,13 +10675,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="D252" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E252" t="n">
-        <v>1893396</v>
+        <v>1942125</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10716,13 +10716,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>52300</v>
+        <v>52550</v>
       </c>
       <c r="D253" t="n">
-        <v>23485</v>
+        <v>23504</v>
       </c>
       <c r="E253" t="n">
-        <v>79221445</v>
+        <v>79624931</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>96954</v>
+        <v>97505</v>
       </c>
       <c r="D254" t="n">
-        <v>30992</v>
+        <v>31043</v>
       </c>
       <c r="E254" t="n">
-        <v>196912516</v>
+        <v>198360427</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10798,13 +10798,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>20206</v>
+        <v>20292</v>
       </c>
       <c r="D255" t="n">
-        <v>4889</v>
+        <v>4894</v>
       </c>
       <c r="E255" t="n">
-        <v>39103622</v>
+        <v>39549568</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,13 +10839,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>89883</v>
+        <v>91088</v>
       </c>
       <c r="D256" t="n">
-        <v>19316</v>
+        <v>19348</v>
       </c>
       <c r="E256" t="n">
-        <v>296675404</v>
+        <v>307610330</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10880,13 +10880,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9479</v>
+        <v>9574</v>
       </c>
       <c r="D257" t="n">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="E257" t="n">
-        <v>17074812</v>
+        <v>17477989</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10921,13 +10921,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4075</v>
+        <v>4122</v>
       </c>
       <c r="D258" t="n">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="E258" t="n">
-        <v>6521642</v>
+        <v>6651423</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10962,13 +10962,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>16186</v>
+        <v>16303</v>
       </c>
       <c r="D259" t="n">
-        <v>5592</v>
+        <v>5603</v>
       </c>
       <c r="E259" t="n">
-        <v>27791645</v>
+        <v>28089270</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11003,13 +11003,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>50031</v>
+        <v>50417</v>
       </c>
       <c r="D260" t="n">
-        <v>16349</v>
+        <v>16373</v>
       </c>
       <c r="E260" t="n">
-        <v>95810084</v>
+        <v>97156091</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>25352</v>
+        <v>25509</v>
       </c>
       <c r="D261" t="n">
-        <v>7797</v>
+        <v>7806</v>
       </c>
       <c r="E261" t="n">
-        <v>45932502</v>
+        <v>46534509</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11126,13 +11126,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>29907</v>
+        <v>30134</v>
       </c>
       <c r="D263" t="n">
-        <v>7529</v>
+        <v>7532</v>
       </c>
       <c r="E263" t="n">
-        <v>44217831</v>
+        <v>44644398</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>38617</v>
+        <v>38721</v>
       </c>
       <c r="D264" t="n">
-        <v>17006</v>
+        <v>17013</v>
       </c>
       <c r="E264" t="n">
-        <v>50894830</v>
+        <v>51025922</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>39691</v>
+        <v>40021</v>
       </c>
       <c r="D265" t="n">
-        <v>8421</v>
+        <v>8444</v>
       </c>
       <c r="E265" t="n">
-        <v>74624425</v>
+        <v>76353307</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>66174</v>
+        <v>66376</v>
       </c>
       <c r="D266" t="n">
-        <v>19652</v>
+        <v>19659</v>
       </c>
       <c r="E266" t="n">
-        <v>110842982</v>
+        <v>111179045</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>19095</v>
+        <v>19235</v>
       </c>
       <c r="D267" t="n">
-        <v>7012</v>
+        <v>7027</v>
       </c>
       <c r="E267" t="n">
-        <v>31520800</v>
+        <v>31838998</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D268" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E268" t="n">
-        <v>68664</v>
+        <v>70164</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>26958</v>
+        <v>27160</v>
       </c>
       <c r="D269" t="n">
-        <v>9182</v>
+        <v>9197</v>
       </c>
       <c r="E269" t="n">
-        <v>40207661</v>
+        <v>40617169</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11413,13 +11413,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D270" t="n">
         <v>56</v>
       </c>
       <c r="E270" t="n">
-        <v>305055</v>
+        <v>306555</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11454,13 +11454,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="D271" t="n">
         <v>346</v>
       </c>
       <c r="E271" t="n">
-        <v>1799721</v>
+        <v>1823233</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11495,13 +11495,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>71135</v>
+        <v>71568</v>
       </c>
       <c r="D272" t="n">
-        <v>29024</v>
+        <v>29062</v>
       </c>
       <c r="E272" t="n">
-        <v>106430356</v>
+        <v>107131530</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11536,13 +11536,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>113035</v>
+        <v>113720</v>
       </c>
       <c r="D273" t="n">
-        <v>34470</v>
+        <v>34518</v>
       </c>
       <c r="E273" t="n">
-        <v>223593723</v>
+        <v>225284647</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24663</v>
+        <v>24813</v>
       </c>
       <c r="D274" t="n">
-        <v>5738</v>
+        <v>5745</v>
       </c>
       <c r="E274" t="n">
-        <v>46222406</v>
+        <v>46670627</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11618,13 +11618,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>109297</v>
+        <v>110691</v>
       </c>
       <c r="D275" t="n">
-        <v>22334</v>
+        <v>22375</v>
       </c>
       <c r="E275" t="n">
-        <v>358059050</v>
+        <v>370219462</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11659,13 +11659,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>11839</v>
+        <v>11952</v>
       </c>
       <c r="D276" t="n">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="E276" t="n">
-        <v>19594181</v>
+        <v>19847046</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11700,13 +11700,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4510</v>
+        <v>4554</v>
       </c>
       <c r="D277" t="n">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="E277" t="n">
-        <v>7348841</v>
+        <v>7411677</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11741,13 +11741,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>19470</v>
+        <v>19624</v>
       </c>
       <c r="D278" t="n">
-        <v>6276</v>
+        <v>6287</v>
       </c>
       <c r="E278" t="n">
-        <v>33168825</v>
+        <v>33527611</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>59502</v>
+        <v>60013</v>
       </c>
       <c r="D279" t="n">
-        <v>18781</v>
+        <v>18803</v>
       </c>
       <c r="E279" t="n">
-        <v>115891538</v>
+        <v>117384164</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>28033</v>
+        <v>28249</v>
       </c>
       <c r="D280" t="n">
-        <v>8591</v>
+        <v>8605</v>
       </c>
       <c r="E280" t="n">
-        <v>51324861</v>
+        <v>52031855</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11905,13 +11905,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>37437</v>
+        <v>37739</v>
       </c>
       <c r="D282" t="n">
-        <v>9558</v>
+        <v>9567</v>
       </c>
       <c r="E282" t="n">
-        <v>53435185</v>
+        <v>54155073</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11946,13 +11946,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>42888</v>
+        <v>43056</v>
       </c>
       <c r="D283" t="n">
-        <v>19171</v>
+        <v>19183</v>
       </c>
       <c r="E283" t="n">
-        <v>56745061</v>
+        <v>56963386</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +11987,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>47517</v>
+        <v>47901</v>
       </c>
       <c r="D284" t="n">
-        <v>9665</v>
+        <v>9685</v>
       </c>
       <c r="E284" t="n">
-        <v>90666942</v>
+        <v>92153905</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>68741</v>
+        <v>68982</v>
       </c>
       <c r="D285" t="n">
-        <v>19867</v>
+        <v>19877</v>
       </c>
       <c r="E285" t="n">
-        <v>109182954</v>
+        <v>109624179</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12069,13 +12069,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5532</v>
+        <v>5560</v>
       </c>
       <c r="D286" t="n">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="E286" t="n">
-        <v>9594873</v>
+        <v>9653948</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10816</v>
+        <v>10895</v>
       </c>
       <c r="D288" t="n">
-        <v>3931</v>
+        <v>3935</v>
       </c>
       <c r="E288" t="n">
-        <v>15832608</v>
+        <v>15943466</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12192,13 +12192,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D289" t="n">
         <v>11</v>
       </c>
       <c r="E289" t="n">
-        <v>34060</v>
+        <v>35560</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -12233,13 +12233,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D290" t="n">
         <v>271</v>
       </c>
       <c r="E290" t="n">
-        <v>1204157</v>
+        <v>1206267</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20777</v>
+        <v>20865</v>
       </c>
       <c r="D291" t="n">
-        <v>9979</v>
+        <v>9988</v>
       </c>
       <c r="E291" t="n">
-        <v>31288569</v>
+        <v>31459474</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -12315,13 +12315,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>42636</v>
+        <v>42860</v>
       </c>
       <c r="D292" t="n">
-        <v>14087</v>
+        <v>14100</v>
       </c>
       <c r="E292" t="n">
-        <v>89114153</v>
+        <v>89575294</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>10457</v>
+        <v>10505</v>
       </c>
       <c r="D293" t="n">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="E293" t="n">
-        <v>21685636</v>
+        <v>21876645</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12397,13 +12397,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>44034</v>
+        <v>44678</v>
       </c>
       <c r="D294" t="n">
-        <v>9484</v>
+        <v>9501</v>
       </c>
       <c r="E294" t="n">
-        <v>154831319</v>
+        <v>161301933</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5441</v>
+        <v>5483</v>
       </c>
       <c r="D295" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="E295" t="n">
-        <v>9195607</v>
+        <v>9449399</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12479,13 +12479,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2567</v>
+        <v>2592</v>
       </c>
       <c r="D296" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E296" t="n">
-        <v>4300258</v>
+        <v>4409573</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8095</v>
+        <v>8158</v>
       </c>
       <c r="D297" t="n">
-        <v>2797</v>
+        <v>2804</v>
       </c>
       <c r="E297" t="n">
-        <v>14003023</v>
+        <v>14132329</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>26874</v>
+        <v>27094</v>
       </c>
       <c r="D298" t="n">
-        <v>8853</v>
+        <v>8866</v>
       </c>
       <c r="E298" t="n">
-        <v>54391716</v>
+        <v>55284575</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9847</v>
+        <v>9914</v>
       </c>
       <c r="D299" t="n">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="E299" t="n">
-        <v>20704170</v>
+        <v>20917516</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>12953</v>
+        <v>13051</v>
       </c>
       <c r="D300" t="n">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="E300" t="n">
-        <v>20793723</v>
+        <v>20980214</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12684,13 +12684,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>21400</v>
+        <v>21459</v>
       </c>
       <c r="D301" t="n">
-        <v>9556</v>
+        <v>9558</v>
       </c>
       <c r="E301" t="n">
-        <v>28102132</v>
+        <v>28166385</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>21852</v>
+        <v>22071</v>
       </c>
       <c r="D302" t="n">
-        <v>4814</v>
+        <v>4832</v>
       </c>
       <c r="E302" t="n">
-        <v>43435355</v>
+        <v>44411643</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12766,13 +12766,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>34097</v>
+        <v>34188</v>
       </c>
       <c r="D303" t="n">
-        <v>10119</v>
+        <v>10123</v>
       </c>
       <c r="E303" t="n">
-        <v>62217947</v>
+        <v>62363337</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12807,13 +12807,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8223</v>
+        <v>8277</v>
       </c>
       <c r="D304" t="n">
-        <v>2960</v>
+        <v>2967</v>
       </c>
       <c r="E304" t="n">
-        <v>14477579</v>
+        <v>14591984</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12889,13 +12889,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>26361</v>
+        <v>26540</v>
       </c>
       <c r="D306" t="n">
-        <v>8561</v>
+        <v>8573</v>
       </c>
       <c r="E306" t="n">
-        <v>42232206</v>
+        <v>42584286</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12930,13 +12930,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D307" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E307" t="n">
-        <v>214535</v>
+        <v>220535</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D308" t="n">
         <v>167</v>
       </c>
       <c r="E308" t="n">
-        <v>720323</v>
+        <v>723253</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -13012,13 +13012,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>64376</v>
+        <v>64761</v>
       </c>
       <c r="D309" t="n">
-        <v>25423</v>
+        <v>25444</v>
       </c>
       <c r="E309" t="n">
-        <v>98910608</v>
+        <v>99561013</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -13053,13 +13053,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>122863</v>
+        <v>123742</v>
       </c>
       <c r="D310" t="n">
-        <v>36189</v>
+        <v>36232</v>
       </c>
       <c r="E310" t="n">
-        <v>250038702</v>
+        <v>252282305</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13094,13 +13094,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>45927</v>
+        <v>46199</v>
       </c>
       <c r="D311" t="n">
-        <v>8936</v>
+        <v>8939</v>
       </c>
       <c r="E311" t="n">
-        <v>94095614</v>
+        <v>94905795</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>111175</v>
+        <v>112662</v>
       </c>
       <c r="D312" t="n">
-        <v>22351</v>
+        <v>22392</v>
       </c>
       <c r="E312" t="n">
-        <v>394088436</v>
+        <v>409425940</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>13009</v>
+        <v>13117</v>
       </c>
       <c r="D313" t="n">
-        <v>3625</v>
+        <v>3632</v>
       </c>
       <c r="E313" t="n">
-        <v>23131115</v>
+        <v>23469051</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13217,13 +13217,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5244</v>
+        <v>5306</v>
       </c>
       <c r="D314" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E314" t="n">
-        <v>8770138</v>
+        <v>8893107</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13258,13 +13258,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>24802</v>
+        <v>25002</v>
       </c>
       <c r="D315" t="n">
-        <v>7613</v>
+        <v>7630</v>
       </c>
       <c r="E315" t="n">
-        <v>46173905</v>
+        <v>46605554</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>64596</v>
+        <v>65166</v>
       </c>
       <c r="D316" t="n">
-        <v>20068</v>
+        <v>20093</v>
       </c>
       <c r="E316" t="n">
-        <v>122578916</v>
+        <v>124337819</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>36430</v>
+        <v>36688</v>
       </c>
       <c r="D317" t="n">
-        <v>10399</v>
+        <v>10411</v>
       </c>
       <c r="E317" t="n">
-        <v>73337004</v>
+        <v>74481264</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>40630</v>
+        <v>41001</v>
       </c>
       <c r="D319" t="n">
-        <v>9891</v>
+        <v>9900</v>
       </c>
       <c r="E319" t="n">
-        <v>60613652</v>
+        <v>61445456</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13463,13 +13463,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>39638</v>
+        <v>39760</v>
       </c>
       <c r="D320" t="n">
-        <v>17232</v>
+        <v>17235</v>
       </c>
       <c r="E320" t="n">
-        <v>52601995</v>
+        <v>52762659</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13504,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>45169</v>
+        <v>45532</v>
       </c>
       <c r="D321" t="n">
-        <v>9078</v>
+        <v>9093</v>
       </c>
       <c r="E321" t="n">
-        <v>90551915</v>
+        <v>92018957</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>68367</v>
+        <v>68660</v>
       </c>
       <c r="D322" t="n">
-        <v>19435</v>
+        <v>19447</v>
       </c>
       <c r="E322" t="n">
-        <v>114100801</v>
+        <v>114596278</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16371</v>
+        <v>16418</v>
       </c>
       <c r="D2" t="n">
-        <v>6721</v>
+        <v>6732</v>
       </c>
       <c r="E2" t="n">
-        <v>26274804</v>
+        <v>26432185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31606</v>
+        <v>31664</v>
       </c>
       <c r="D4" t="n">
-        <v>10984</v>
+        <v>10989</v>
       </c>
       <c r="E4" t="n">
-        <v>49200161</v>
+        <v>49318514</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>743806</v>
+        <v>746755</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="D6" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E6" t="n">
-        <v>2342415</v>
+        <v>2356343</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74478</v>
+        <v>74617</v>
       </c>
       <c r="D7" t="n">
-        <v>31214</v>
+        <v>31231</v>
       </c>
       <c r="E7" t="n">
-        <v>114338201</v>
+        <v>114545763</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122480</v>
+        <v>122742</v>
       </c>
       <c r="D8" t="n">
-        <v>38445</v>
+        <v>38473</v>
       </c>
       <c r="E8" t="n">
-        <v>264459362</v>
+        <v>265619226</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45110</v>
+        <v>45337</v>
       </c>
       <c r="D9" t="n">
-        <v>9616</v>
+        <v>9621</v>
       </c>
       <c r="E9" t="n">
-        <v>88771991</v>
+        <v>89748178</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136815</v>
+        <v>138479</v>
       </c>
       <c r="D10" t="n">
-        <v>28059</v>
+        <v>28089</v>
       </c>
       <c r="E10" t="n">
-        <v>504165921</v>
+        <v>521308715</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15625</v>
+        <v>15693</v>
       </c>
       <c r="D11" t="n">
-        <v>4532</v>
+        <v>4538</v>
       </c>
       <c r="E11" t="n">
-        <v>27646474</v>
+        <v>27936231</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5977</v>
+        <v>5984</v>
       </c>
       <c r="D12" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E12" t="n">
-        <v>9881708</v>
+        <v>9891986</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23494</v>
+        <v>23551</v>
       </c>
       <c r="D13" t="n">
-        <v>7731</v>
+        <v>7742</v>
       </c>
       <c r="E13" t="n">
-        <v>43429607</v>
+        <v>43561118</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75023</v>
+        <v>75351</v>
       </c>
       <c r="D14" t="n">
-        <v>23842</v>
+        <v>23871</v>
       </c>
       <c r="E14" t="n">
-        <v>145233897</v>
+        <v>147895232</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35905</v>
+        <v>36033</v>
       </c>
       <c r="D15" t="n">
-        <v>10753</v>
+        <v>10759</v>
       </c>
       <c r="E15" t="n">
-        <v>71991895</v>
+        <v>72828833</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>75258</v>
+        <v>75587</v>
       </c>
       <c r="D17" t="n">
-        <v>18506</v>
+        <v>18525</v>
       </c>
       <c r="E17" t="n">
-        <v>118971336</v>
+        <v>119707295</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54142</v>
+        <v>54182</v>
       </c>
       <c r="D18" t="n">
-        <v>23492</v>
+        <v>23494</v>
       </c>
       <c r="E18" t="n">
-        <v>72443034</v>
+        <v>72499786</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60939</v>
+        <v>61264</v>
       </c>
       <c r="D19" t="n">
-        <v>12597</v>
+        <v>12605</v>
       </c>
       <c r="E19" t="n">
-        <v>121980905</v>
+        <v>123920802</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82194</v>
+        <v>82280</v>
       </c>
       <c r="D20" t="n">
-        <v>23659</v>
+        <v>23671</v>
       </c>
       <c r="E20" t="n">
-        <v>144157971</v>
+        <v>144378561</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5713</v>
+        <v>5730</v>
       </c>
       <c r="D21" t="n">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="E21" t="n">
-        <v>10293647</v>
+        <v>10351867</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8579</v>
+        <v>8594</v>
       </c>
       <c r="D23" t="n">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E23" t="n">
-        <v>12841520</v>
+        <v>12890856</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17526</v>
+        <v>17566</v>
       </c>
       <c r="D26" t="n">
-        <v>7851</v>
+        <v>7857</v>
       </c>
       <c r="E26" t="n">
-        <v>26249662</v>
+        <v>26326097</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1450,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36460</v>
+        <v>36520</v>
       </c>
       <c r="D27" t="n">
-        <v>11841</v>
+        <v>11850</v>
       </c>
       <c r="E27" t="n">
-        <v>74629520</v>
+        <v>74791354</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4814</v>
+        <v>4829</v>
       </c>
       <c r="D28" t="n">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="E28" t="n">
-        <v>9474060</v>
+        <v>9553145</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>38558</v>
+        <v>38994</v>
       </c>
       <c r="D29" t="n">
-        <v>7880</v>
+        <v>7883</v>
       </c>
       <c r="E29" t="n">
-        <v>130641734</v>
+        <v>134411886</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2776</v>
+        <v>2785</v>
       </c>
       <c r="D30" t="n">
         <v>813</v>
       </c>
       <c r="E30" t="n">
-        <v>4903985</v>
+        <v>4957694</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D31" t="n">
         <v>440</v>
       </c>
       <c r="E31" t="n">
-        <v>2005780</v>
+        <v>2007135</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4747</v>
+        <v>4757</v>
       </c>
       <c r="D32" t="n">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="E32" t="n">
-        <v>8024547</v>
+        <v>8042661</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14189</v>
+        <v>14253</v>
       </c>
       <c r="D33" t="n">
-        <v>4634</v>
+        <v>4637</v>
       </c>
       <c r="E33" t="n">
-        <v>27836569</v>
+        <v>28437835</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7012</v>
+        <v>7037</v>
       </c>
       <c r="D34" t="n">
         <v>2193</v>
       </c>
       <c r="E34" t="n">
-        <v>13269710</v>
+        <v>13431298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10741</v>
+        <v>10781</v>
       </c>
       <c r="D36" t="n">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="E36" t="n">
-        <v>16348699</v>
+        <v>16435725</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11823</v>
+        <v>11832</v>
       </c>
       <c r="D37" t="n">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="E37" t="n">
-        <v>15665552</v>
+        <v>15677286</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15096</v>
+        <v>15186</v>
       </c>
       <c r="D38" t="n">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="E38" t="n">
-        <v>28885242</v>
+        <v>29392521</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25002</v>
+        <v>25025</v>
       </c>
       <c r="D39" t="n">
-        <v>7192</v>
+        <v>7193</v>
       </c>
       <c r="E39" t="n">
-        <v>44465264</v>
+        <v>44527950</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4312</v>
+        <v>4329</v>
       </c>
       <c r="D40" t="n">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="E40" t="n">
-        <v>7083923</v>
+        <v>7123733</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11530</v>
+        <v>11545</v>
       </c>
       <c r="D42" t="n">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="E42" t="n">
-        <v>16885519</v>
+        <v>16907761</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18485</v>
+        <v>18507</v>
       </c>
       <c r="D45" t="n">
-        <v>8937</v>
+        <v>8939</v>
       </c>
       <c r="E45" t="n">
-        <v>27515992</v>
+        <v>27547247</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39034</v>
+        <v>39103</v>
       </c>
       <c r="D46" t="n">
-        <v>12868</v>
+        <v>12875</v>
       </c>
       <c r="E46" t="n">
-        <v>85297293</v>
+        <v>85521925</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6617</v>
+        <v>6657</v>
       </c>
       <c r="D47" t="n">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E47" t="n">
-        <v>12717819</v>
+        <v>12924518</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2311,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>51134</v>
+        <v>51759</v>
       </c>
       <c r="D48" t="n">
-        <v>10901</v>
+        <v>10905</v>
       </c>
       <c r="E48" t="n">
-        <v>184343245</v>
+        <v>190331466</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4770</v>
+        <v>4782</v>
       </c>
       <c r="D49" t="n">
         <v>1366</v>
       </c>
       <c r="E49" t="n">
-        <v>8694129</v>
+        <v>8736180</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="D50" t="n">
         <v>605</v>
       </c>
       <c r="E50" t="n">
-        <v>2953000</v>
+        <v>3005230</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6654</v>
+        <v>6666</v>
       </c>
       <c r="D51" t="n">
         <v>2317</v>
       </c>
       <c r="E51" t="n">
-        <v>11271467</v>
+        <v>11310870</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21319</v>
+        <v>21415</v>
       </c>
       <c r="D52" t="n">
-        <v>7135</v>
+        <v>7137</v>
       </c>
       <c r="E52" t="n">
-        <v>44238688</v>
+        <v>44828005</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8548</v>
+        <v>8577</v>
       </c>
       <c r="D53" t="n">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="E53" t="n">
-        <v>16486412</v>
+        <v>16707298</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11746</v>
+        <v>11774</v>
       </c>
       <c r="D54" t="n">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E54" t="n">
-        <v>18896791</v>
+        <v>18966804</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19353</v>
+        <v>19359</v>
       </c>
       <c r="D55" t="n">
-        <v>8824</v>
+        <v>8825</v>
       </c>
       <c r="E55" t="n">
-        <v>25898273</v>
+        <v>25906409</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18317</v>
+        <v>18401</v>
       </c>
       <c r="D56" t="n">
-        <v>4086</v>
+        <v>4092</v>
       </c>
       <c r="E56" t="n">
-        <v>35469093</v>
+        <v>36149270</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>28091</v>
+        <v>28118</v>
       </c>
       <c r="D57" t="n">
-        <v>8393</v>
+        <v>8394</v>
       </c>
       <c r="E57" t="n">
-        <v>50975296</v>
+        <v>51033622</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="D58" t="n">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="E58" t="n">
-        <v>7373628</v>
+        <v>7428685</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7385</v>
+        <v>7391</v>
       </c>
       <c r="D59" t="n">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="E59" t="n">
-        <v>11127096</v>
+        <v>11138768</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16967</v>
+        <v>17000</v>
       </c>
       <c r="D62" t="n">
-        <v>7583</v>
+        <v>7587</v>
       </c>
       <c r="E62" t="n">
-        <v>25832075</v>
+        <v>25919194</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29233</v>
+        <v>29297</v>
       </c>
       <c r="D63" t="n">
-        <v>9574</v>
+        <v>9579</v>
       </c>
       <c r="E63" t="n">
-        <v>58825799</v>
+        <v>59013941</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7352</v>
+        <v>7375</v>
       </c>
       <c r="D64" t="n">
         <v>1902</v>
       </c>
       <c r="E64" t="n">
-        <v>14445466</v>
+        <v>14519113</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30637</v>
+        <v>31052</v>
       </c>
       <c r="D65" t="n">
-        <v>6340</v>
+        <v>6343</v>
       </c>
       <c r="E65" t="n">
-        <v>102195008</v>
+        <v>105902300</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3085</v>
+        <v>3101</v>
       </c>
       <c r="D66" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E66" t="n">
-        <v>5641903</v>
+        <v>5698558</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="D67" t="n">
         <v>384</v>
       </c>
       <c r="E67" t="n">
-        <v>1903249</v>
+        <v>1908048</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4934</v>
+        <v>4942</v>
       </c>
       <c r="D68" t="n">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="E68" t="n">
-        <v>8501242</v>
+        <v>8524148</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13335</v>
+        <v>13387</v>
       </c>
       <c r="D69" t="n">
-        <v>4273</v>
+        <v>4275</v>
       </c>
       <c r="E69" t="n">
-        <v>25741844</v>
+        <v>26108581</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3213,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7092</v>
+        <v>7113</v>
       </c>
       <c r="D70" t="n">
         <v>2212</v>
       </c>
       <c r="E70" t="n">
-        <v>13684181</v>
+        <v>13811838</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8397</v>
+        <v>8422</v>
       </c>
       <c r="D71" t="n">
         <v>2235</v>
       </c>
       <c r="E71" t="n">
-        <v>13708534</v>
+        <v>13887030</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>10026</v>
+        <v>10030</v>
       </c>
       <c r="D72" t="n">
         <v>4497</v>
       </c>
       <c r="E72" t="n">
-        <v>13154387</v>
+        <v>13159737</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13430</v>
+        <v>13496</v>
       </c>
       <c r="D73" t="n">
         <v>2883</v>
       </c>
       <c r="E73" t="n">
-        <v>27129285</v>
+        <v>27538013</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22090</v>
+        <v>22109</v>
       </c>
       <c r="D74" t="n">
-        <v>6531</v>
+        <v>6532</v>
       </c>
       <c r="E74" t="n">
-        <v>39009803</v>
+        <v>39043475</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3525</v>
+        <v>3530</v>
       </c>
       <c r="D75" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E75" t="n">
-        <v>5669032</v>
+        <v>5686201</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="D76" t="n">
         <v>878</v>
       </c>
       <c r="E76" t="n">
-        <v>4797856</v>
+        <v>4802626</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6070</v>
+        <v>6089</v>
       </c>
       <c r="D78" t="n">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="E78" t="n">
-        <v>9241279</v>
+        <v>9275042</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8602</v>
+        <v>8623</v>
       </c>
       <c r="D79" t="n">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="E79" t="n">
-        <v>20342717</v>
+        <v>20420476</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="D80" t="n">
         <v>388</v>
       </c>
       <c r="E80" t="n">
-        <v>3551537</v>
+        <v>3575240</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12754</v>
+        <v>12842</v>
       </c>
       <c r="D81" t="n">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="E81" t="n">
-        <v>46920745</v>
+        <v>47673288</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="D84" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E84" t="n">
-        <v>4485830</v>
+        <v>4514772</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5986</v>
+        <v>6018</v>
       </c>
       <c r="D85" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="E85" t="n">
-        <v>15621006</v>
+        <v>15849209</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3238</v>
+        <v>3247</v>
       </c>
       <c r="D86" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E86" t="n">
-        <v>6084351</v>
+        <v>6169398</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="D87" t="n">
         <v>395</v>
       </c>
       <c r="E87" t="n">
-        <v>2851297</v>
+        <v>2863910</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="D88" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E88" t="n">
-        <v>2813255</v>
+        <v>2828583</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="D89" t="n">
         <v>507</v>
       </c>
       <c r="E89" t="n">
-        <v>5864366</v>
+        <v>5884897</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4456</v>
+        <v>4461</v>
       </c>
       <c r="D90" t="n">
         <v>1256</v>
       </c>
       <c r="E90" t="n">
-        <v>7362858</v>
+        <v>7369653</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19981</v>
+        <v>20083</v>
       </c>
       <c r="D91" t="n">
-        <v>10749</v>
+        <v>10777</v>
       </c>
       <c r="E91" t="n">
-        <v>75036053</v>
+        <v>75501112</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15316</v>
+        <v>15362</v>
       </c>
       <c r="D93" t="n">
-        <v>5458</v>
+        <v>5462</v>
       </c>
       <c r="E93" t="n">
-        <v>25465340</v>
+        <v>25554321</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="D95" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E95" t="n">
-        <v>2529998</v>
+        <v>2563321</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>36303</v>
+        <v>36382</v>
       </c>
       <c r="D96" t="n">
-        <v>15490</v>
+        <v>15495</v>
       </c>
       <c r="E96" t="n">
-        <v>55165780</v>
+        <v>55308559</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>67510</v>
+        <v>67672</v>
       </c>
       <c r="D97" t="n">
-        <v>21809</v>
+        <v>21821</v>
       </c>
       <c r="E97" t="n">
-        <v>139717088</v>
+        <v>140299017</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14476</v>
+        <v>14547</v>
       </c>
       <c r="D98" t="n">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="E98" t="n">
-        <v>26855114</v>
+        <v>27099501</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>65582</v>
+        <v>66267</v>
       </c>
       <c r="D99" t="n">
-        <v>13513</v>
+        <v>13522</v>
       </c>
       <c r="E99" t="n">
-        <v>246786901</v>
+        <v>254047014</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6182</v>
+        <v>6199</v>
       </c>
       <c r="D100" t="n">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E100" t="n">
-        <v>10875901</v>
+        <v>10962439</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="D101" t="n">
         <v>1015</v>
       </c>
       <c r="E101" t="n">
-        <v>4511486</v>
+        <v>4517970</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8898</v>
+        <v>8918</v>
       </c>
       <c r="D102" t="n">
         <v>2918</v>
       </c>
       <c r="E102" t="n">
-        <v>15474693</v>
+        <v>15526719</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>31068</v>
+        <v>31173</v>
       </c>
       <c r="D103" t="n">
-        <v>10085</v>
+        <v>10089</v>
       </c>
       <c r="E103" t="n">
-        <v>58434882</v>
+        <v>59193145</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13940</v>
+        <v>13999</v>
       </c>
       <c r="D104" t="n">
-        <v>4338</v>
+        <v>4343</v>
       </c>
       <c r="E104" t="n">
-        <v>27000844</v>
+        <v>27417129</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17611</v>
+        <v>17655</v>
       </c>
       <c r="D106" t="n">
         <v>4571</v>
       </c>
       <c r="E106" t="n">
-        <v>28182598</v>
+        <v>28342618</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24204</v>
+        <v>24224</v>
       </c>
       <c r="D107" t="n">
-        <v>11004</v>
+        <v>11005</v>
       </c>
       <c r="E107" t="n">
-        <v>32921797</v>
+        <v>32951615</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>25446</v>
+        <v>25547</v>
       </c>
       <c r="D108" t="n">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="E108" t="n">
-        <v>49506515</v>
+        <v>50138027</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>50575</v>
+        <v>50634</v>
       </c>
       <c r="D109" t="n">
-        <v>14550</v>
+        <v>14552</v>
       </c>
       <c r="E109" t="n">
-        <v>88219922</v>
+        <v>88313028</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10694</v>
+        <v>10731</v>
       </c>
       <c r="D110" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E110" t="n">
-        <v>17016853</v>
+        <v>17125577</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4068</v>
+        <v>4074</v>
       </c>
       <c r="D111" t="n">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E111" t="n">
-        <v>6457808</v>
+        <v>6473498</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5966</v>
+        <v>5973</v>
       </c>
       <c r="D114" t="n">
         <v>2129</v>
       </c>
       <c r="E114" t="n">
-        <v>9098092</v>
+        <v>9111698</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10772</v>
+        <v>10789</v>
       </c>
       <c r="D115" t="n">
         <v>3081</v>
       </c>
       <c r="E115" t="n">
-        <v>17126604</v>
+        <v>17185549</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3392</v>
+        <v>3399</v>
       </c>
       <c r="D116" t="n">
         <v>719</v>
       </c>
       <c r="E116" t="n">
-        <v>5547166</v>
+        <v>5570741</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>11722</v>
+        <v>11749</v>
       </c>
       <c r="D117" t="n">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="E117" t="n">
-        <v>21652975</v>
+        <v>21804006</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D118" t="n">
         <v>292</v>
       </c>
       <c r="E118" t="n">
-        <v>1801771</v>
+        <v>1808994</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D119" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E119" t="n">
-        <v>551398</v>
+        <v>553012</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D120" t="n">
         <v>422</v>
       </c>
       <c r="E120" t="n">
-        <v>2268480</v>
+        <v>2272304</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4090</v>
+        <v>4098</v>
       </c>
       <c r="D121" t="n">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E121" t="n">
-        <v>6389831</v>
+        <v>6426938</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6130</v>
+        <v>6141</v>
       </c>
       <c r="D122" t="n">
         <v>1344</v>
       </c>
       <c r="E122" t="n">
-        <v>10885321</v>
+        <v>10916407</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="D123" t="n">
         <v>648</v>
       </c>
       <c r="E123" t="n">
-        <v>3280264</v>
+        <v>3288008</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2620</v>
+        <v>2627</v>
       </c>
       <c r="D125" t="n">
         <v>469</v>
       </c>
       <c r="E125" t="n">
-        <v>4693297</v>
+        <v>4754331</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="D126" t="n">
         <v>1104</v>
       </c>
       <c r="E126" t="n">
-        <v>5156553</v>
+        <v>5158153</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4389</v>
+        <v>4395</v>
       </c>
       <c r="D127" t="n">
         <v>803</v>
       </c>
       <c r="E127" t="n">
-        <v>7784790</v>
+        <v>7793311</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5632,13 +5632,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D129" t="n">
         <v>394</v>
       </c>
       <c r="E129" t="n">
-        <v>4275421</v>
+        <v>4286921</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5511</v>
+        <v>5512</v>
       </c>
       <c r="D131" t="n">
         <v>1059</v>
       </c>
       <c r="E131" t="n">
-        <v>12803284</v>
+        <v>12804640</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="D132" t="n">
         <v>951</v>
       </c>
       <c r="E132" t="n">
-        <v>10061807</v>
+        <v>10063307</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5796,13 +5796,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D133" t="n">
         <v>286</v>
       </c>
       <c r="E133" t="n">
-        <v>3633688</v>
+        <v>3635188</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3506</v>
+        <v>3512</v>
       </c>
       <c r="D134" t="n">
         <v>562</v>
       </c>
       <c r="E134" t="n">
-        <v>8043477</v>
+        <v>8064600</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D138" t="n">
         <v>416</v>
       </c>
       <c r="E138" t="n">
-        <v>4040084</v>
+        <v>4054584</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="D139" t="n">
         <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>4947219</v>
+        <v>4965985</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D142" t="n">
         <v>133</v>
       </c>
       <c r="E142" t="n">
-        <v>1778740</v>
+        <v>1786131</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D143" t="n">
         <v>279</v>
       </c>
       <c r="E143" t="n">
-        <v>2791292</v>
+        <v>2798430</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4622</v>
+        <v>4628</v>
       </c>
       <c r="D144" t="n">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E144" t="n">
-        <v>10446699</v>
+        <v>10465499</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>11562</v>
+        <v>11588</v>
       </c>
       <c r="D146" t="n">
-        <v>4062</v>
+        <v>4064</v>
       </c>
       <c r="E146" t="n">
-        <v>17249623</v>
+        <v>17314302</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D147" t="n">
         <v>15</v>
       </c>
       <c r="E147" t="n">
-        <v>98737</v>
+        <v>101337</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D148" t="n">
         <v>233</v>
       </c>
       <c r="E148" t="n">
-        <v>905540</v>
+        <v>907040</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>30019</v>
+        <v>30070</v>
       </c>
       <c r="D149" t="n">
-        <v>12797</v>
+        <v>12801</v>
       </c>
       <c r="E149" t="n">
-        <v>45173634</v>
+        <v>45282229</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>64292</v>
+        <v>64426</v>
       </c>
       <c r="D150" t="n">
-        <v>20329</v>
+        <v>20342</v>
       </c>
       <c r="E150" t="n">
-        <v>124492885</v>
+        <v>124876762</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>23724</v>
+        <v>23852</v>
       </c>
       <c r="D151" t="n">
-        <v>5067</v>
+        <v>5070</v>
       </c>
       <c r="E151" t="n">
-        <v>42722995</v>
+        <v>43203301</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>61684</v>
+        <v>62504</v>
       </c>
       <c r="D152" t="n">
-        <v>12829</v>
+        <v>12847</v>
       </c>
       <c r="E152" t="n">
-        <v>212310735</v>
+        <v>220777545</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6079</v>
+        <v>6103</v>
       </c>
       <c r="D153" t="n">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="E153" t="n">
-        <v>10890309</v>
+        <v>10990753</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2865</v>
+        <v>2870</v>
       </c>
       <c r="D154" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E154" t="n">
-        <v>4607755</v>
+        <v>4628825</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7777</v>
+        <v>7794</v>
       </c>
       <c r="D155" t="n">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="E155" t="n">
-        <v>14224177</v>
+        <v>14267354</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>30189</v>
+        <v>30311</v>
       </c>
       <c r="D156" t="n">
-        <v>9544</v>
+        <v>9551</v>
       </c>
       <c r="E156" t="n">
-        <v>57731521</v>
+        <v>58508926</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>13483</v>
+        <v>13543</v>
       </c>
       <c r="D157" t="n">
-        <v>4064</v>
+        <v>4067</v>
       </c>
       <c r="E157" t="n">
-        <v>25602198</v>
+        <v>25868741</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>15270</v>
+        <v>15304</v>
       </c>
       <c r="D158" t="n">
         <v>3998</v>
       </c>
       <c r="E158" t="n">
-        <v>24597895</v>
+        <v>24772581</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>24566</v>
+        <v>24590</v>
       </c>
       <c r="D159" t="n">
-        <v>11300</v>
+        <v>11302</v>
       </c>
       <c r="E159" t="n">
-        <v>33226682</v>
+        <v>33257856</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24833</v>
+        <v>24952</v>
       </c>
       <c r="D160" t="n">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="E160" t="n">
-        <v>50138863</v>
+        <v>50904585</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>47471</v>
+        <v>47507</v>
       </c>
       <c r="D161" t="n">
-        <v>13810</v>
+        <v>13814</v>
       </c>
       <c r="E161" t="n">
-        <v>77972053</v>
+        <v>78060427</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="D162" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E162" t="n">
-        <v>2722381</v>
+        <v>2728381</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>33065</v>
+        <v>33133</v>
       </c>
       <c r="D163" t="n">
-        <v>10495</v>
+        <v>10501</v>
       </c>
       <c r="E163" t="n">
-        <v>57922125</v>
+        <v>58119935</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D165" t="n">
         <v>412</v>
       </c>
       <c r="E165" t="n">
-        <v>2380959</v>
+        <v>2383959</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>81440</v>
+        <v>81580</v>
       </c>
       <c r="D166" t="n">
-        <v>31314</v>
+        <v>31327</v>
       </c>
       <c r="E166" t="n">
-        <v>134353151</v>
+        <v>134713294</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>185316</v>
+        <v>185767</v>
       </c>
       <c r="D167" t="n">
-        <v>55055</v>
+        <v>55104</v>
       </c>
       <c r="E167" t="n">
-        <v>412131151</v>
+        <v>414161581</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>357401</v>
+        <v>359500</v>
       </c>
       <c r="D168" t="n">
-        <v>59261</v>
+        <v>59281</v>
       </c>
       <c r="E168" t="n">
-        <v>710453956</v>
+        <v>718876722</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>180738</v>
+        <v>182921</v>
       </c>
       <c r="D169" t="n">
-        <v>35802</v>
+        <v>35856</v>
       </c>
       <c r="E169" t="n">
-        <v>745738333</v>
+        <v>770780046</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>69150</v>
+        <v>69426</v>
       </c>
       <c r="D170" t="n">
-        <v>18532</v>
+        <v>18553</v>
       </c>
       <c r="E170" t="n">
-        <v>143686004</v>
+        <v>145130388</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13685</v>
+        <v>13719</v>
       </c>
       <c r="D171" t="n">
-        <v>4043</v>
+        <v>4046</v>
       </c>
       <c r="E171" t="n">
-        <v>25976373</v>
+        <v>26059693</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>34330</v>
+        <v>34439</v>
       </c>
       <c r="D172" t="n">
-        <v>10806</v>
+        <v>10815</v>
       </c>
       <c r="E172" t="n">
-        <v>70409576</v>
+        <v>70736198</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>226205</v>
+        <v>226989</v>
       </c>
       <c r="D173" t="n">
-        <v>65566</v>
+        <v>65613</v>
       </c>
       <c r="E173" t="n">
-        <v>411236042</v>
+        <v>415143424</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>72589</v>
+        <v>72910</v>
       </c>
       <c r="D174" t="n">
-        <v>16757</v>
+        <v>16768</v>
       </c>
       <c r="E174" t="n">
-        <v>176296507</v>
+        <v>178505912</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>63980</v>
+        <v>64183</v>
       </c>
       <c r="D176" t="n">
-        <v>15884</v>
+        <v>15892</v>
       </c>
       <c r="E176" t="n">
-        <v>98116304</v>
+        <v>98646995</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>66856</v>
+        <v>66911</v>
       </c>
       <c r="D177" t="n">
-        <v>28569</v>
+        <v>28572</v>
       </c>
       <c r="E177" t="n">
-        <v>90707873</v>
+        <v>90786312</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>136123</v>
+        <v>136709</v>
       </c>
       <c r="D178" t="n">
-        <v>27207</v>
+        <v>27228</v>
       </c>
       <c r="E178" t="n">
-        <v>272669555</v>
+        <v>276699323</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7682,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>99417</v>
+        <v>99603</v>
       </c>
       <c r="D179" t="n">
-        <v>27949</v>
+        <v>27960</v>
       </c>
       <c r="E179" t="n">
-        <v>193904141</v>
+        <v>194389846</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6040</v>
+        <v>6049</v>
       </c>
       <c r="D180" t="n">
         <v>1733</v>
       </c>
       <c r="E180" t="n">
-        <v>8364745</v>
+        <v>8377880</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7764,13 +7764,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4826</v>
+        <v>4831</v>
       </c>
       <c r="D181" t="n">
         <v>1620</v>
       </c>
       <c r="E181" t="n">
-        <v>6777088</v>
+        <v>6784985</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>8041</v>
+        <v>8047</v>
       </c>
       <c r="D184" t="n">
         <v>3204</v>
       </c>
       <c r="E184" t="n">
-        <v>11912689</v>
+        <v>11921239</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15900</v>
+        <v>15915</v>
       </c>
       <c r="D185" t="n">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="E185" t="n">
-        <v>23010856</v>
+        <v>23030645</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7969,13 +7969,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="D186" t="n">
         <v>767</v>
       </c>
       <c r="E186" t="n">
-        <v>3753392</v>
+        <v>3766297</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8010,13 +8010,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>11594</v>
+        <v>11612</v>
       </c>
       <c r="D187" t="n">
         <v>2412</v>
       </c>
       <c r="E187" t="n">
-        <v>19908554</v>
+        <v>19996065</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D188" t="n">
         <v>383</v>
       </c>
       <c r="E188" t="n">
-        <v>2132361</v>
+        <v>2132615</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D189" t="n">
         <v>160</v>
       </c>
       <c r="E189" t="n">
-        <v>710535</v>
+        <v>715035</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="D190" t="n">
         <v>615</v>
       </c>
       <c r="E190" t="n">
-        <v>2845468</v>
+        <v>2849968</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>5309</v>
+        <v>5311</v>
       </c>
       <c r="D191" t="n">
         <v>1762</v>
       </c>
       <c r="E191" t="n">
-        <v>8138296</v>
+        <v>8143840</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3610</v>
+        <v>3615</v>
       </c>
       <c r="D192" t="n">
         <v>1010</v>
       </c>
       <c r="E192" t="n">
-        <v>6827996</v>
+        <v>6858600</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="D193" t="n">
         <v>1229</v>
       </c>
       <c r="E193" t="n">
-        <v>5848862</v>
+        <v>5852973</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5454</v>
+        <v>5456</v>
       </c>
       <c r="D194" t="n">
         <v>2457</v>
       </c>
       <c r="E194" t="n">
-        <v>7703514</v>
+        <v>7705424</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8338,13 +8338,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4411</v>
+        <v>4420</v>
       </c>
       <c r="D195" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E195" t="n">
-        <v>7366970</v>
+        <v>7399136</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="D196" t="n">
         <v>1952</v>
       </c>
       <c r="E196" t="n">
-        <v>7415818</v>
+        <v>7418818</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8420,13 +8420,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2720</v>
+        <v>2727</v>
       </c>
       <c r="D197" t="n">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E197" t="n">
-        <v>3747946</v>
+        <v>3771766</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="D198" t="n">
         <v>814</v>
       </c>
       <c r="E198" t="n">
-        <v>4602399</v>
+        <v>4609414</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="D201" t="n">
         <v>1360</v>
       </c>
       <c r="E201" t="n">
-        <v>5904954</v>
+        <v>5906454</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8625,13 +8625,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7915</v>
+        <v>7931</v>
       </c>
       <c r="D202" t="n">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="E202" t="n">
-        <v>15147873</v>
+        <v>15200656</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="D203" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E203" t="n">
-        <v>5516859</v>
+        <v>5533851</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8707,13 +8707,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6140</v>
+        <v>6160</v>
       </c>
       <c r="D204" t="n">
         <v>1220</v>
       </c>
       <c r="E204" t="n">
-        <v>13969173</v>
+        <v>14125748</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D206" t="n">
         <v>95</v>
       </c>
       <c r="E206" t="n">
-        <v>549737</v>
+        <v>559737</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="D208" t="n">
         <v>1080</v>
       </c>
       <c r="E208" t="n">
-        <v>6188224</v>
+        <v>6194470</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3939</v>
+        <v>3950</v>
       </c>
       <c r="D209" t="n">
         <v>912</v>
       </c>
       <c r="E209" t="n">
-        <v>7155764</v>
+        <v>7209492</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8953,13 +8953,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="D210" t="n">
         <v>472</v>
       </c>
       <c r="E210" t="n">
-        <v>2995225</v>
+        <v>3000350</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D211" t="n">
         <v>927</v>
       </c>
       <c r="E211" t="n">
-        <v>3077832</v>
+        <v>3079332</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="D212" t="n">
         <v>367</v>
       </c>
       <c r="E212" t="n">
-        <v>3816542</v>
+        <v>3834274</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4155</v>
+        <v>4161</v>
       </c>
       <c r="D213" t="n">
         <v>1046</v>
       </c>
       <c r="E213" t="n">
-        <v>6825934</v>
+        <v>6832428</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6915</v>
+        <v>6936</v>
       </c>
       <c r="D214" t="n">
         <v>1075</v>
       </c>
       <c r="E214" t="n">
-        <v>16456617</v>
+        <v>16503539</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4020</v>
+        <v>4023</v>
       </c>
       <c r="D217" t="n">
         <v>671</v>
       </c>
       <c r="E217" t="n">
-        <v>10538494</v>
+        <v>10542994</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18250</v>
+        <v>18256</v>
       </c>
       <c r="D218" t="n">
         <v>2756</v>
       </c>
       <c r="E218" t="n">
-        <v>45399004</v>
+        <v>45415554</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D220" t="n">
         <v>306</v>
       </c>
       <c r="E220" t="n">
-        <v>4956359</v>
+        <v>4971661</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9527,13 +9527,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D224" t="n">
         <v>127</v>
       </c>
       <c r="E224" t="n">
-        <v>1383544</v>
+        <v>1385044</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4280</v>
+        <v>4285</v>
       </c>
       <c r="D230" t="n">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="E230" t="n">
-        <v>7247429</v>
+        <v>7254929</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9855,13 +9855,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>8070</v>
+        <v>8084</v>
       </c>
       <c r="D232" t="n">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="E232" t="n">
-        <v>12443190</v>
+        <v>12462717</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9978,13 +9978,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>18277</v>
+        <v>18293</v>
       </c>
       <c r="D235" t="n">
         <v>8252</v>
       </c>
       <c r="E235" t="n">
-        <v>27754309</v>
+        <v>27791974</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -10019,13 +10019,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>40422</v>
+        <v>40489</v>
       </c>
       <c r="D236" t="n">
-        <v>13027</v>
+        <v>13032</v>
       </c>
       <c r="E236" t="n">
-        <v>82773224</v>
+        <v>83012100</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -10060,13 +10060,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7905</v>
+        <v>7945</v>
       </c>
       <c r="D237" t="n">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="E237" t="n">
-        <v>15052857</v>
+        <v>15226662</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10101,13 +10101,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>41946</v>
+        <v>42553</v>
       </c>
       <c r="D238" t="n">
-        <v>8984</v>
+        <v>8989</v>
       </c>
       <c r="E238" t="n">
-        <v>147789596</v>
+        <v>153410385</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10142,13 +10142,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3428</v>
+        <v>3442</v>
       </c>
       <c r="D239" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E239" t="n">
-        <v>6182584</v>
+        <v>6257164</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10183,13 +10183,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="D240" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E240" t="n">
-        <v>2964803</v>
+        <v>2970803</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10224,13 +10224,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5754</v>
+        <v>5767</v>
       </c>
       <c r="D241" t="n">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E241" t="n">
-        <v>10361076</v>
+        <v>10409369</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10265,13 +10265,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>17748</v>
+        <v>17803</v>
       </c>
       <c r="D242" t="n">
         <v>5669</v>
       </c>
       <c r="E242" t="n">
-        <v>36163104</v>
+        <v>36599243</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -10306,13 +10306,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8357</v>
+        <v>8388</v>
       </c>
       <c r="D243" t="n">
-        <v>2508</v>
+        <v>2513</v>
       </c>
       <c r="E243" t="n">
-        <v>15984594</v>
+        <v>16350264</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10347,13 +10347,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>10209</v>
+        <v>10232</v>
       </c>
       <c r="D244" t="n">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="E244" t="n">
-        <v>16251460</v>
+        <v>16305748</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11960</v>
+        <v>11967</v>
       </c>
       <c r="D245" t="n">
         <v>5385</v>
       </c>
       <c r="E245" t="n">
-        <v>15707638</v>
+        <v>15717615</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10429,13 +10429,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>16095</v>
+        <v>16194</v>
       </c>
       <c r="D246" t="n">
-        <v>3433</v>
+        <v>3437</v>
       </c>
       <c r="E246" t="n">
-        <v>32542563</v>
+        <v>33153263</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10470,13 +10470,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29509</v>
+        <v>29549</v>
       </c>
       <c r="D247" t="n">
-        <v>8583</v>
+        <v>8585</v>
       </c>
       <c r="E247" t="n">
-        <v>51723830</v>
+        <v>51803962</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10511,13 +10511,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17727</v>
+        <v>17775</v>
       </c>
       <c r="D248" t="n">
-        <v>7175</v>
+        <v>7184</v>
       </c>
       <c r="E248" t="n">
-        <v>33001865</v>
+        <v>33155522</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>24503</v>
+        <v>24551</v>
       </c>
       <c r="D250" t="n">
-        <v>8513</v>
+        <v>8514</v>
       </c>
       <c r="E250" t="n">
-        <v>36098714</v>
+        <v>36244701</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10675,13 +10675,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D252" t="n">
         <v>429</v>
       </c>
       <c r="E252" t="n">
-        <v>1942125</v>
+        <v>1942161</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10716,13 +10716,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>52550</v>
+        <v>52625</v>
       </c>
       <c r="D253" t="n">
-        <v>23504</v>
+        <v>23509</v>
       </c>
       <c r="E253" t="n">
-        <v>79624931</v>
+        <v>79764006</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>97505</v>
+        <v>97694</v>
       </c>
       <c r="D254" t="n">
-        <v>31043</v>
+        <v>31055</v>
       </c>
       <c r="E254" t="n">
-        <v>198360427</v>
+        <v>199025862</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10798,13 +10798,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>20292</v>
+        <v>20410</v>
       </c>
       <c r="D255" t="n">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="E255" t="n">
-        <v>39549568</v>
+        <v>39991809</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,13 +10839,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>91088</v>
+        <v>92257</v>
       </c>
       <c r="D256" t="n">
-        <v>19348</v>
+        <v>19376</v>
       </c>
       <c r="E256" t="n">
-        <v>307610330</v>
+        <v>318652447</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10880,13 +10880,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>9574</v>
+        <v>9606</v>
       </c>
       <c r="D257" t="n">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="E257" t="n">
-        <v>17477989</v>
+        <v>17678351</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10921,13 +10921,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4122</v>
+        <v>4138</v>
       </c>
       <c r="D258" t="n">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="E258" t="n">
-        <v>6651423</v>
+        <v>6675305</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10962,13 +10962,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>16303</v>
+        <v>16338</v>
       </c>
       <c r="D259" t="n">
-        <v>5603</v>
+        <v>5605</v>
       </c>
       <c r="E259" t="n">
-        <v>28089270</v>
+        <v>28178045</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -11003,13 +11003,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>50417</v>
+        <v>50649</v>
       </c>
       <c r="D260" t="n">
-        <v>16373</v>
+        <v>16378</v>
       </c>
       <c r="E260" t="n">
-        <v>97156091</v>
+        <v>98531177</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11044,13 +11044,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>25509</v>
+        <v>25599</v>
       </c>
       <c r="D261" t="n">
-        <v>7806</v>
+        <v>7812</v>
       </c>
       <c r="E261" t="n">
-        <v>46534509</v>
+        <v>46985637</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11126,13 +11126,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>30134</v>
+        <v>30230</v>
       </c>
       <c r="D263" t="n">
-        <v>7532</v>
+        <v>7537</v>
       </c>
       <c r="E263" t="n">
-        <v>44644398</v>
+        <v>44888400</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11167,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>38721</v>
+        <v>38741</v>
       </c>
       <c r="D264" t="n">
-        <v>17013</v>
+        <v>17015</v>
       </c>
       <c r="E264" t="n">
-        <v>51025922</v>
+        <v>51049020</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11208,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>40021</v>
+        <v>40247</v>
       </c>
       <c r="D265" t="n">
-        <v>8444</v>
+        <v>8451</v>
       </c>
       <c r="E265" t="n">
-        <v>76353307</v>
+        <v>77916444</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11249,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>66376</v>
+        <v>66444</v>
       </c>
       <c r="D266" t="n">
-        <v>19659</v>
+        <v>19667</v>
       </c>
       <c r="E266" t="n">
-        <v>111179045</v>
+        <v>111433968</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11290,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>19235</v>
+        <v>19305</v>
       </c>
       <c r="D267" t="n">
-        <v>7027</v>
+        <v>7033</v>
       </c>
       <c r="E267" t="n">
-        <v>31838998</v>
+        <v>32036885</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11372,13 +11372,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>27160</v>
+        <v>27230</v>
       </c>
       <c r="D269" t="n">
-        <v>9197</v>
+        <v>9201</v>
       </c>
       <c r="E269" t="n">
-        <v>40617169</v>
+        <v>40795321</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11454,13 +11454,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D271" t="n">
         <v>346</v>
       </c>
       <c r="E271" t="n">
-        <v>1823233</v>
+        <v>1833233</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11495,13 +11495,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>71568</v>
+        <v>71717</v>
       </c>
       <c r="D272" t="n">
-        <v>29062</v>
+        <v>29072</v>
       </c>
       <c r="E272" t="n">
-        <v>107131530</v>
+        <v>107432272</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11536,13 +11536,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>113720</v>
+        <v>113977</v>
       </c>
       <c r="D273" t="n">
-        <v>34518</v>
+        <v>34538</v>
       </c>
       <c r="E273" t="n">
-        <v>225284647</v>
+        <v>226124274</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11577,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>24813</v>
+        <v>24978</v>
       </c>
       <c r="D274" t="n">
-        <v>5745</v>
+        <v>5750</v>
       </c>
       <c r="E274" t="n">
-        <v>46670627</v>
+        <v>47375271</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11618,13 +11618,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>110691</v>
+        <v>112105</v>
       </c>
       <c r="D275" t="n">
-        <v>22375</v>
+        <v>22400</v>
       </c>
       <c r="E275" t="n">
-        <v>370219462</v>
+        <v>383189391</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11659,13 +11659,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>11952</v>
+        <v>12003</v>
       </c>
       <c r="D276" t="n">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="E276" t="n">
-        <v>19847046</v>
+        <v>20090263</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11700,13 +11700,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4554</v>
+        <v>4569</v>
       </c>
       <c r="D277" t="n">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E277" t="n">
-        <v>7411677</v>
+        <v>7451849</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11741,13 +11741,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>19624</v>
+        <v>19679</v>
       </c>
       <c r="D278" t="n">
-        <v>6287</v>
+        <v>6292</v>
       </c>
       <c r="E278" t="n">
-        <v>33527611</v>
+        <v>33660483</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11782,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>60013</v>
+        <v>60290</v>
       </c>
       <c r="D279" t="n">
-        <v>18803</v>
+        <v>18813</v>
       </c>
       <c r="E279" t="n">
-        <v>117384164</v>
+        <v>119156661</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11823,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>28249</v>
+        <v>28349</v>
       </c>
       <c r="D280" t="n">
-        <v>8605</v>
+        <v>8606</v>
       </c>
       <c r="E280" t="n">
-        <v>52031855</v>
+        <v>52545694</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11905,13 +11905,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>37739</v>
+        <v>37865</v>
       </c>
       <c r="D282" t="n">
         <v>9567</v>
       </c>
       <c r="E282" t="n">
-        <v>54155073</v>
+        <v>54410931</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11946,13 +11946,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>43056</v>
+        <v>43085</v>
       </c>
       <c r="D283" t="n">
-        <v>19183</v>
+        <v>19185</v>
       </c>
       <c r="E283" t="n">
-        <v>56963386</v>
+        <v>56995448</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +11987,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>47901</v>
+        <v>48168</v>
       </c>
       <c r="D284" t="n">
-        <v>9685</v>
+        <v>9690</v>
       </c>
       <c r="E284" t="n">
-        <v>92153905</v>
+        <v>93866703</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>68982</v>
+        <v>69064</v>
       </c>
       <c r="D285" t="n">
-        <v>19877</v>
+        <v>19882</v>
       </c>
       <c r="E285" t="n">
-        <v>109624179</v>
+        <v>109843639</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12069,13 +12069,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5560</v>
+        <v>5572</v>
       </c>
       <c r="D286" t="n">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="E286" t="n">
-        <v>9653948</v>
+        <v>9717261</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12151,13 +12151,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>10895</v>
+        <v>10922</v>
       </c>
       <c r="D288" t="n">
-        <v>3935</v>
+        <v>3938</v>
       </c>
       <c r="E288" t="n">
-        <v>15943466</v>
+        <v>16017243</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12274,13 +12274,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>20865</v>
+        <v>20892</v>
       </c>
       <c r="D291" t="n">
-        <v>9988</v>
+        <v>9990</v>
       </c>
       <c r="E291" t="n">
-        <v>31459474</v>
+        <v>31542643</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -12315,13 +12315,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>42860</v>
+        <v>42938</v>
       </c>
       <c r="D292" t="n">
-        <v>14100</v>
+        <v>14105</v>
       </c>
       <c r="E292" t="n">
-        <v>89575294</v>
+        <v>89851835</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>10505</v>
+        <v>10580</v>
       </c>
       <c r="D293" t="n">
         <v>2405</v>
       </c>
       <c r="E293" t="n">
-        <v>21876645</v>
+        <v>22183769</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12397,13 +12397,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>44678</v>
+        <v>45296</v>
       </c>
       <c r="D294" t="n">
-        <v>9501</v>
+        <v>9507</v>
       </c>
       <c r="E294" t="n">
-        <v>161301933</v>
+        <v>167271229</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5483</v>
+        <v>5503</v>
       </c>
       <c r="D295" t="n">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="E295" t="n">
-        <v>9449399</v>
+        <v>9524968</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12479,13 +12479,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D296" t="n">
         <v>924</v>
       </c>
       <c r="E296" t="n">
-        <v>4409573</v>
+        <v>4412573</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12520,13 +12520,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>8158</v>
+        <v>8173</v>
       </c>
       <c r="D297" t="n">
         <v>2804</v>
       </c>
       <c r="E297" t="n">
-        <v>14132329</v>
+        <v>14167741</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -12561,13 +12561,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>27094</v>
+        <v>27202</v>
       </c>
       <c r="D298" t="n">
-        <v>8866</v>
+        <v>8876</v>
       </c>
       <c r="E298" t="n">
-        <v>55284575</v>
+        <v>56057871</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9914</v>
+        <v>9945</v>
       </c>
       <c r="D299" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="E299" t="n">
-        <v>20917516</v>
+        <v>21116967</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12643,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>13051</v>
+        <v>13083</v>
       </c>
       <c r="D300" t="n">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E300" t="n">
-        <v>20980214</v>
+        <v>21107057</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12684,13 +12684,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>21459</v>
+        <v>21469</v>
       </c>
       <c r="D301" t="n">
-        <v>9558</v>
+        <v>9559</v>
       </c>
       <c r="E301" t="n">
-        <v>28166385</v>
+        <v>28179881</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12725,13 +12725,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>22071</v>
+        <v>22177</v>
       </c>
       <c r="D302" t="n">
-        <v>4832</v>
+        <v>4834</v>
       </c>
       <c r="E302" t="n">
-        <v>44411643</v>
+        <v>45096795</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12766,13 +12766,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>34188</v>
+        <v>34213</v>
       </c>
       <c r="D303" t="n">
-        <v>10123</v>
+        <v>10125</v>
       </c>
       <c r="E303" t="n">
-        <v>62363337</v>
+        <v>62420995</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12807,13 +12807,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8277</v>
+        <v>8299</v>
       </c>
       <c r="D304" t="n">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E304" t="n">
-        <v>14591984</v>
+        <v>14655347</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12848,13 +12848,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D305" t="n">
         <v>8</v>
       </c>
       <c r="E305" t="n">
-        <v>41823</v>
+        <v>43323</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -12889,13 +12889,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>26540</v>
+        <v>26603</v>
       </c>
       <c r="D306" t="n">
-        <v>8573</v>
+        <v>8577</v>
       </c>
       <c r="E306" t="n">
-        <v>42584286</v>
+        <v>42719953</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -13012,13 +13012,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>64761</v>
+        <v>64891</v>
       </c>
       <c r="D309" t="n">
-        <v>25444</v>
+        <v>25453</v>
       </c>
       <c r="E309" t="n">
-        <v>99561013</v>
+        <v>99838459</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -13053,13 +13053,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>123742</v>
+        <v>124026</v>
       </c>
       <c r="D310" t="n">
-        <v>36232</v>
+        <v>36251</v>
       </c>
       <c r="E310" t="n">
-        <v>252282305</v>
+        <v>253176042</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13094,13 +13094,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>46199</v>
+        <v>46455</v>
       </c>
       <c r="D311" t="n">
-        <v>8939</v>
+        <v>8943</v>
       </c>
       <c r="E311" t="n">
-        <v>94905795</v>
+        <v>96065229</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13135,13 +13135,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>112662</v>
+        <v>114021</v>
       </c>
       <c r="D312" t="n">
-        <v>22392</v>
+        <v>22410</v>
       </c>
       <c r="E312" t="n">
-        <v>409425940</v>
+        <v>421865460</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13176,13 +13176,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>13117</v>
+        <v>13169</v>
       </c>
       <c r="D313" t="n">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="E313" t="n">
-        <v>23469051</v>
+        <v>23737254</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13217,13 +13217,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5306</v>
+        <v>5326</v>
       </c>
       <c r="D314" t="n">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="E314" t="n">
-        <v>8893107</v>
+        <v>8930433</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13258,13 +13258,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>25002</v>
+        <v>25045</v>
       </c>
       <c r="D315" t="n">
-        <v>7630</v>
+        <v>7632</v>
       </c>
       <c r="E315" t="n">
-        <v>46605554</v>
+        <v>46757217</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>65166</v>
+        <v>65441</v>
       </c>
       <c r="D316" t="n">
-        <v>20093</v>
+        <v>20109</v>
       </c>
       <c r="E316" t="n">
-        <v>124337819</v>
+        <v>125829933</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13340,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>36688</v>
+        <v>36800</v>
       </c>
       <c r="D317" t="n">
-        <v>10411</v>
+        <v>10416</v>
       </c>
       <c r="E317" t="n">
-        <v>74481264</v>
+        <v>75135816</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13422,13 +13422,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>41001</v>
+        <v>41152</v>
       </c>
       <c r="D319" t="n">
-        <v>9900</v>
+        <v>9905</v>
       </c>
       <c r="E319" t="n">
-        <v>61445456</v>
+        <v>61826642</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -13463,13 +13463,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>39760</v>
+        <v>39788</v>
       </c>
       <c r="D320" t="n">
-        <v>17235</v>
+        <v>17237</v>
       </c>
       <c r="E320" t="n">
-        <v>52762659</v>
+        <v>52795707</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13504,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>45532</v>
+        <v>45764</v>
       </c>
       <c r="D321" t="n">
-        <v>9093</v>
+        <v>9099</v>
       </c>
       <c r="E321" t="n">
-        <v>92018957</v>
+        <v>93348532</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>68660</v>
+        <v>68741</v>
       </c>
       <c r="D322" t="n">
-        <v>19447</v>
+        <v>19452</v>
       </c>
       <c r="E322" t="n">
-        <v>114596278</v>
+        <v>114777880</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
